--- a/Sklad3/templates/rs_0504104.xlsx
+++ b/Sklad3/templates/rs_0504104.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="119">
   <si>
     <t xml:space="preserve">Утв. приказом Минфина России</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t xml:space="preserve">цев)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$INVN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$SUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$NAME_END</t>
   </si>
   <si>
     <t xml:space="preserve">Форма 0504104 с. 2</t>
@@ -969,35 +981,35 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1136,14 +1148,14 @@
   </sheetPr>
   <dimension ref="A1:CU43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE33" activeCellId="1" sqref="BE9:BQ10 BE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="1.35204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="1.35204081632653"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,7 +1734,7 @@
       <c r="CT13" s="26"/>
       <c r="CU13" s="26"/>
     </row>
-    <row r="14" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1751,7 +1763,6 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="1"/>
       <c r="AD14" s="21" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1772,6 @@
       <c r="AH14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AI14" s="1"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
@@ -1775,7 +1785,6 @@
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
-      <c r="AW14" s="1"/>
       <c r="AX14" s="11" t="s">
         <v>9</v>
       </c>
@@ -1785,15 +1794,6 @@
         <v>10</v>
       </c>
       <c r="BB14" s="5"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
       <c r="BL14" s="5"/>
       <c r="BM14" s="5"/>
       <c r="BN14" s="5"/>
@@ -1827,7 +1827,7 @@
       <c r="CT14" s="30"/>
       <c r="CU14" s="30"/>
     </row>
-    <row r="15" s="18" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
         <v>19</v>
       </c>
@@ -1837,15 +1837,6 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
       <c r="Q15" s="31" t="s">
         <v>20</v>
       </c>
@@ -1934,26 +1925,7 @@
       <c r="CT15" s="30"/>
       <c r="CU15" s="30"/>
     </row>
-    <row r="16" s="18" customFormat="true" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+    <row r="16" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T16" s="32"/>
       <c r="U16" s="32"/>
       <c r="V16" s="32"/>
@@ -2037,25 +2009,10 @@
       <c r="CT16" s="33"/>
       <c r="CU16" s="33"/>
     </row>
-    <row r="17" s="18" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
       <c r="Q17" s="34" t="s">
         <v>24</v>
       </c>
@@ -2100,13 +2057,9 @@
       <c r="BD17" s="34"/>
       <c r="BE17" s="34"/>
       <c r="BF17" s="34"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
       <c r="BJ17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BK17" s="1"/>
       <c r="BL17" s="35" t="s">
         <v>26</v>
       </c>
@@ -2148,26 +2101,7 @@
       <c r="CT17" s="33"/>
       <c r="CU17" s="33"/>
     </row>
-    <row r="18" s="18" customFormat="true" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+    <row r="18" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -2249,25 +2183,10 @@
       <c r="CT18" s="30"/>
       <c r="CU18" s="30"/>
     </row>
-    <row r="19" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
@@ -2322,12 +2241,6 @@
       <c r="BP19" s="36"/>
       <c r="BQ19" s="36"/>
       <c r="BR19" s="36"/>
-      <c r="BS19" s="1"/>
-      <c r="BT19" s="1"/>
-      <c r="BU19" s="1"/>
-      <c r="BV19" s="1"/>
-      <c r="BW19" s="1"/>
-      <c r="BX19" s="1"/>
       <c r="BY19" s="5"/>
       <c r="BZ19" s="5"/>
       <c r="CA19" s="5"/>
@@ -2354,23 +2267,7 @@
       <c r="CT19" s="30"/>
       <c r="CU19" s="30"/>
     </row>
-    <row r="20" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q20" s="37" t="s">
         <v>30</v>
       </c>
@@ -2427,19 +2324,12 @@
       <c r="BP20" s="37"/>
       <c r="BQ20" s="37"/>
       <c r="BR20" s="37"/>
-      <c r="BS20" s="1"/>
-      <c r="BT20" s="1"/>
-      <c r="BU20" s="1"/>
-      <c r="BV20" s="1"/>
-      <c r="BW20" s="1"/>
-      <c r="BX20" s="1"/>
       <c r="BY20" s="5"/>
       <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
       <c r="CB20" s="5"/>
       <c r="CC20" s="5"/>
       <c r="CD20" s="5"/>
-      <c r="CE20" s="1"/>
       <c r="CF20" s="5"/>
       <c r="CG20" s="30"/>
       <c r="CH20" s="30"/>
@@ -2457,25 +2347,10 @@
       <c r="CT20" s="30"/>
       <c r="CU20" s="30"/>
     </row>
-    <row r="21" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -2564,8 +2439,7 @@
       <c r="CT21" s="30"/>
       <c r="CU21" s="30"/>
     </row>
-    <row r="22" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="27"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2667,7 +2541,7 @@
       <c r="CT22" s="30"/>
       <c r="CU22" s="30"/>
     </row>
-    <row r="23" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
         <v>35</v>
       </c>
@@ -2686,66 +2560,6 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
-      <c r="BJ23" s="1"/>
-      <c r="BK23" s="1"/>
-      <c r="BL23" s="1"/>
-      <c r="BM23" s="1"/>
-      <c r="BN23" s="1"/>
-      <c r="BO23" s="1"/>
-      <c r="BP23" s="1"/>
-      <c r="BQ23" s="1"/>
-      <c r="BR23" s="1"/>
-      <c r="BS23" s="1"/>
-      <c r="BT23" s="1"/>
-      <c r="BU23" s="1"/>
-      <c r="BV23" s="1"/>
-      <c r="BW23" s="1"/>
-      <c r="BX23" s="1"/>
       <c r="BY23" s="5"/>
       <c r="BZ23" s="5"/>
       <c r="CA23" s="5"/>
@@ -2772,7 +2586,7 @@
       <c r="CT23" s="40"/>
       <c r="CU23" s="40"/>
     </row>
-    <row r="24" s="18" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="5"/>
@@ -2789,66 +2603,6 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-      <c r="BF24" s="1"/>
-      <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
-      <c r="BI24" s="1"/>
-      <c r="BJ24" s="1"/>
-      <c r="BK24" s="1"/>
-      <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
-      <c r="BN24" s="1"/>
-      <c r="BO24" s="1"/>
-      <c r="BP24" s="1"/>
-      <c r="BQ24" s="1"/>
-      <c r="BR24" s="1"/>
-      <c r="BS24" s="1"/>
-      <c r="BT24" s="1"/>
-      <c r="BU24" s="1"/>
-      <c r="BV24" s="1"/>
-      <c r="BW24" s="1"/>
-      <c r="BX24" s="1"/>
       <c r="BY24" s="5"/>
       <c r="BZ24" s="5"/>
       <c r="CA24" s="5"/>
@@ -2874,107 +2628,6 @@
       <c r="CS24" s="42"/>
       <c r="CT24" s="42"/>
       <c r="CU24" s="42"/>
-    </row>
-    <row r="25" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
-      <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
-      <c r="BK25" s="1"/>
-      <c r="BL25" s="1"/>
-      <c r="BM25" s="1"/>
-      <c r="BN25" s="1"/>
-      <c r="BO25" s="1"/>
-      <c r="BP25" s="1"/>
-      <c r="BQ25" s="1"/>
-      <c r="BR25" s="1"/>
-      <c r="BS25" s="1"/>
-      <c r="BT25" s="1"/>
-      <c r="BU25" s="1"/>
-      <c r="BV25" s="1"/>
-      <c r="BW25" s="1"/>
-      <c r="BX25" s="1"/>
-      <c r="BY25" s="1"/>
-      <c r="BZ25" s="1"/>
-      <c r="CA25" s="1"/>
-      <c r="CB25" s="1"/>
-      <c r="CC25" s="1"/>
-      <c r="CD25" s="1"/>
-      <c r="CE25" s="1"/>
-      <c r="CF25" s="1"/>
-      <c r="CG25" s="1"/>
-      <c r="CH25" s="1"/>
-      <c r="CI25" s="1"/>
-      <c r="CJ25" s="1"/>
-      <c r="CK25" s="1"/>
-      <c r="CL25" s="1"/>
-      <c r="CM25" s="1"/>
-      <c r="CN25" s="1"/>
-      <c r="CO25" s="1"/>
-      <c r="CP25" s="1"/>
-      <c r="CQ25" s="1"/>
-      <c r="CR25" s="1"/>
-      <c r="CS25" s="1"/>
-      <c r="CT25" s="1"/>
-      <c r="CU25" s="1"/>
     </row>
     <row r="26" s="48" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="43" t="s">
@@ -3794,1118 +3447,1128 @@
       <c r="CU32" s="53"/>
     </row>
     <row r="33" s="18" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="62"/>
+      <c r="A33" s="62" t="s">
+        <v>74</v>
+      </c>
       <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="64"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="64"/>
-      <c r="AH33" s="64"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="64"/>
-      <c r="AK33" s="64"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="64"/>
-      <c r="AO33" s="64"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
-      <c r="AU33" s="64"/>
-      <c r="AV33" s="64"/>
-      <c r="AW33" s="64"/>
-      <c r="AX33" s="64"/>
-      <c r="AY33" s="64"/>
-      <c r="AZ33" s="65"/>
-      <c r="BA33" s="65"/>
-      <c r="BB33" s="65"/>
-      <c r="BC33" s="65"/>
-      <c r="BD33" s="65"/>
-      <c r="BE33" s="66"/>
-      <c r="BF33" s="66"/>
-      <c r="BG33" s="66"/>
-      <c r="BH33" s="66"/>
-      <c r="BI33" s="66"/>
-      <c r="BJ33" s="66"/>
-      <c r="BK33" s="66"/>
-      <c r="BL33" s="67"/>
-      <c r="BM33" s="67"/>
-      <c r="BN33" s="67"/>
-      <c r="BO33" s="67"/>
-      <c r="BP33" s="67"/>
-      <c r="BQ33" s="67"/>
-      <c r="BR33" s="68"/>
-      <c r="BS33" s="68"/>
-      <c r="BT33" s="68"/>
-      <c r="BU33" s="68"/>
-      <c r="BV33" s="68"/>
-      <c r="BW33" s="68"/>
-      <c r="BX33" s="68"/>
-      <c r="BY33" s="68"/>
-      <c r="BZ33" s="68"/>
-      <c r="CA33" s="68"/>
-      <c r="CB33" s="68"/>
-      <c r="CC33" s="68"/>
-      <c r="CD33" s="65"/>
-      <c r="CE33" s="65"/>
-      <c r="CF33" s="65"/>
-      <c r="CG33" s="65"/>
-      <c r="CH33" s="65"/>
-      <c r="CI33" s="65"/>
-      <c r="CJ33" s="68"/>
-      <c r="CK33" s="68"/>
-      <c r="CL33" s="68"/>
-      <c r="CM33" s="68"/>
-      <c r="CN33" s="68"/>
-      <c r="CO33" s="68"/>
-      <c r="CP33" s="69"/>
-      <c r="CQ33" s="69"/>
-      <c r="CR33" s="69"/>
-      <c r="CS33" s="69"/>
-      <c r="CT33" s="69"/>
-      <c r="CU33" s="69"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="63"/>
+      <c r="AO33" s="63"/>
+      <c r="AP33" s="63"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="63"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="63"/>
+      <c r="AU33" s="63"/>
+      <c r="AV33" s="63"/>
+      <c r="AW33" s="63"/>
+      <c r="AX33" s="63"/>
+      <c r="AY33" s="63"/>
+      <c r="AZ33" s="64"/>
+      <c r="BA33" s="64"/>
+      <c r="BB33" s="64"/>
+      <c r="BC33" s="64"/>
+      <c r="BD33" s="64"/>
+      <c r="BE33" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF33" s="65"/>
+      <c r="BG33" s="65"/>
+      <c r="BH33" s="65"/>
+      <c r="BI33" s="65"/>
+      <c r="BJ33" s="65"/>
+      <c r="BK33" s="65"/>
+      <c r="BL33" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM33" s="66"/>
+      <c r="BN33" s="66"/>
+      <c r="BO33" s="66"/>
+      <c r="BP33" s="66"/>
+      <c r="BQ33" s="66"/>
+      <c r="BR33" s="67"/>
+      <c r="BS33" s="67"/>
+      <c r="BT33" s="67"/>
+      <c r="BU33" s="67"/>
+      <c r="BV33" s="67"/>
+      <c r="BW33" s="67"/>
+      <c r="BX33" s="67"/>
+      <c r="BY33" s="67"/>
+      <c r="BZ33" s="67"/>
+      <c r="CA33" s="67"/>
+      <c r="CB33" s="67"/>
+      <c r="CC33" s="67"/>
+      <c r="CD33" s="64"/>
+      <c r="CE33" s="64"/>
+      <c r="CF33" s="64"/>
+      <c r="CG33" s="64"/>
+      <c r="CH33" s="64"/>
+      <c r="CI33" s="64"/>
+      <c r="CJ33" s="67"/>
+      <c r="CK33" s="67"/>
+      <c r="CL33" s="67"/>
+      <c r="CM33" s="67"/>
+      <c r="CN33" s="67"/>
+      <c r="CO33" s="67"/>
+      <c r="CP33" s="68"/>
+      <c r="CQ33" s="68"/>
+      <c r="CR33" s="68"/>
+      <c r="CS33" s="68"/>
+      <c r="CT33" s="68"/>
+      <c r="CU33" s="68"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="64"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="64"/>
-      <c r="AO34" s="64"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="64"/>
-      <c r="AV34" s="64"/>
-      <c r="AW34" s="64"/>
-      <c r="AX34" s="64"/>
-      <c r="AY34" s="64"/>
-      <c r="AZ34" s="65"/>
-      <c r="BA34" s="65"/>
-      <c r="BB34" s="65"/>
-      <c r="BC34" s="65"/>
-      <c r="BD34" s="65"/>
-      <c r="BE34" s="66"/>
-      <c r="BF34" s="66"/>
-      <c r="BG34" s="66"/>
-      <c r="BH34" s="66"/>
-      <c r="BI34" s="66"/>
-      <c r="BJ34" s="66"/>
-      <c r="BK34" s="66"/>
-      <c r="BL34" s="67"/>
-      <c r="BM34" s="67"/>
-      <c r="BN34" s="67"/>
-      <c r="BO34" s="67"/>
-      <c r="BP34" s="67"/>
-      <c r="BQ34" s="67"/>
-      <c r="BR34" s="68"/>
-      <c r="BS34" s="68"/>
-      <c r="BT34" s="68"/>
-      <c r="BU34" s="68"/>
-      <c r="BV34" s="68"/>
-      <c r="BW34" s="68"/>
-      <c r="BX34" s="68"/>
-      <c r="BY34" s="68"/>
-      <c r="BZ34" s="68"/>
-      <c r="CA34" s="68"/>
-      <c r="CB34" s="68"/>
-      <c r="CC34" s="68"/>
-      <c r="CD34" s="65"/>
-      <c r="CE34" s="65"/>
-      <c r="CF34" s="65"/>
-      <c r="CG34" s="65"/>
-      <c r="CH34" s="65"/>
-      <c r="CI34" s="65"/>
-      <c r="CJ34" s="68"/>
-      <c r="CK34" s="68"/>
-      <c r="CL34" s="68"/>
-      <c r="CM34" s="68"/>
-      <c r="CN34" s="68"/>
-      <c r="CO34" s="68"/>
-      <c r="CP34" s="69"/>
-      <c r="CQ34" s="69"/>
-      <c r="CR34" s="69"/>
-      <c r="CS34" s="69"/>
-      <c r="CT34" s="69"/>
-      <c r="CU34" s="69"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="63"/>
+      <c r="AN34" s="63"/>
+      <c r="AO34" s="63"/>
+      <c r="AP34" s="63"/>
+      <c r="AQ34" s="63"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="63"/>
+      <c r="AU34" s="63"/>
+      <c r="AV34" s="63"/>
+      <c r="AW34" s="63"/>
+      <c r="AX34" s="63"/>
+      <c r="AY34" s="63"/>
+      <c r="AZ34" s="64"/>
+      <c r="BA34" s="64"/>
+      <c r="BB34" s="64"/>
+      <c r="BC34" s="64"/>
+      <c r="BD34" s="64"/>
+      <c r="BE34" s="65"/>
+      <c r="BF34" s="65"/>
+      <c r="BG34" s="65"/>
+      <c r="BH34" s="65"/>
+      <c r="BI34" s="65"/>
+      <c r="BJ34" s="65"/>
+      <c r="BK34" s="65"/>
+      <c r="BL34" s="66"/>
+      <c r="BM34" s="66"/>
+      <c r="BN34" s="66"/>
+      <c r="BO34" s="66"/>
+      <c r="BP34" s="66"/>
+      <c r="BQ34" s="66"/>
+      <c r="BR34" s="67"/>
+      <c r="BS34" s="67"/>
+      <c r="BT34" s="67"/>
+      <c r="BU34" s="67"/>
+      <c r="BV34" s="67"/>
+      <c r="BW34" s="67"/>
+      <c r="BX34" s="67"/>
+      <c r="BY34" s="67"/>
+      <c r="BZ34" s="67"/>
+      <c r="CA34" s="67"/>
+      <c r="CB34" s="67"/>
+      <c r="CC34" s="67"/>
+      <c r="CD34" s="64"/>
+      <c r="CE34" s="64"/>
+      <c r="CF34" s="64"/>
+      <c r="CG34" s="64"/>
+      <c r="CH34" s="64"/>
+      <c r="CI34" s="64"/>
+      <c r="CJ34" s="67"/>
+      <c r="CK34" s="67"/>
+      <c r="CL34" s="67"/>
+      <c r="CM34" s="67"/>
+      <c r="CN34" s="67"/>
+      <c r="CO34" s="67"/>
+      <c r="CP34" s="68"/>
+      <c r="CQ34" s="68"/>
+      <c r="CR34" s="68"/>
+      <c r="CS34" s="68"/>
+      <c r="CT34" s="68"/>
+      <c r="CU34" s="68"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
-      <c r="AC35" s="64"/>
-      <c r="AD35" s="64"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="64"/>
-      <c r="AH35" s="64"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="64"/>
-      <c r="AK35" s="64"/>
-      <c r="AL35" s="64"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="64"/>
-      <c r="AO35" s="64"/>
-      <c r="AP35" s="64"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="64"/>
-      <c r="AT35" s="64"/>
-      <c r="AU35" s="64"/>
-      <c r="AV35" s="64"/>
-      <c r="AW35" s="64"/>
-      <c r="AX35" s="64"/>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="65"/>
-      <c r="BA35" s="65"/>
-      <c r="BB35" s="65"/>
-      <c r="BC35" s="65"/>
-      <c r="BD35" s="65"/>
-      <c r="BE35" s="66"/>
-      <c r="BF35" s="66"/>
-      <c r="BG35" s="66"/>
-      <c r="BH35" s="66"/>
-      <c r="BI35" s="66"/>
-      <c r="BJ35" s="66"/>
-      <c r="BK35" s="66"/>
-      <c r="BL35" s="67"/>
-      <c r="BM35" s="67"/>
-      <c r="BN35" s="67"/>
-      <c r="BO35" s="67"/>
-      <c r="BP35" s="67"/>
-      <c r="BQ35" s="67"/>
-      <c r="BR35" s="68"/>
-      <c r="BS35" s="68"/>
-      <c r="BT35" s="68"/>
-      <c r="BU35" s="68"/>
-      <c r="BV35" s="68"/>
-      <c r="BW35" s="68"/>
-      <c r="BX35" s="68"/>
-      <c r="BY35" s="68"/>
-      <c r="BZ35" s="68"/>
-      <c r="CA35" s="68"/>
-      <c r="CB35" s="68"/>
-      <c r="CC35" s="68"/>
-      <c r="CD35" s="65"/>
-      <c r="CE35" s="65"/>
-      <c r="CF35" s="65"/>
-      <c r="CG35" s="65"/>
-      <c r="CH35" s="65"/>
-      <c r="CI35" s="65"/>
-      <c r="CJ35" s="68"/>
-      <c r="CK35" s="68"/>
-      <c r="CL35" s="68"/>
-      <c r="CM35" s="68"/>
-      <c r="CN35" s="68"/>
-      <c r="CO35" s="68"/>
-      <c r="CP35" s="69"/>
-      <c r="CQ35" s="69"/>
-      <c r="CR35" s="69"/>
-      <c r="CS35" s="69"/>
-      <c r="CT35" s="69"/>
-      <c r="CU35" s="69"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="63"/>
+      <c r="AO35" s="63"/>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="63"/>
+      <c r="AR35" s="63"/>
+      <c r="AS35" s="63"/>
+      <c r="AT35" s="63"/>
+      <c r="AU35" s="63"/>
+      <c r="AV35" s="63"/>
+      <c r="AW35" s="63"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="63"/>
+      <c r="AZ35" s="64"/>
+      <c r="BA35" s="64"/>
+      <c r="BB35" s="64"/>
+      <c r="BC35" s="64"/>
+      <c r="BD35" s="64"/>
+      <c r="BE35" s="65"/>
+      <c r="BF35" s="65"/>
+      <c r="BG35" s="65"/>
+      <c r="BH35" s="65"/>
+      <c r="BI35" s="65"/>
+      <c r="BJ35" s="65"/>
+      <c r="BK35" s="65"/>
+      <c r="BL35" s="66"/>
+      <c r="BM35" s="66"/>
+      <c r="BN35" s="66"/>
+      <c r="BO35" s="66"/>
+      <c r="BP35" s="66"/>
+      <c r="BQ35" s="66"/>
+      <c r="BR35" s="67"/>
+      <c r="BS35" s="67"/>
+      <c r="BT35" s="67"/>
+      <c r="BU35" s="67"/>
+      <c r="BV35" s="67"/>
+      <c r="BW35" s="67"/>
+      <c r="BX35" s="67"/>
+      <c r="BY35" s="67"/>
+      <c r="BZ35" s="67"/>
+      <c r="CA35" s="67"/>
+      <c r="CB35" s="67"/>
+      <c r="CC35" s="67"/>
+      <c r="CD35" s="64"/>
+      <c r="CE35" s="64"/>
+      <c r="CF35" s="64"/>
+      <c r="CG35" s="64"/>
+      <c r="CH35" s="64"/>
+      <c r="CI35" s="64"/>
+      <c r="CJ35" s="67"/>
+      <c r="CK35" s="67"/>
+      <c r="CL35" s="67"/>
+      <c r="CM35" s="67"/>
+      <c r="CN35" s="67"/>
+      <c r="CO35" s="67"/>
+      <c r="CP35" s="68"/>
+      <c r="CQ35" s="68"/>
+      <c r="CR35" s="68"/>
+      <c r="CS35" s="68"/>
+      <c r="CT35" s="68"/>
+      <c r="CU35" s="68"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="64"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="64"/>
-      <c r="AH36" s="64"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="64"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="64"/>
-      <c r="AN36" s="64"/>
-      <c r="AO36" s="64"/>
-      <c r="AP36" s="64"/>
-      <c r="AQ36" s="64"/>
-      <c r="AR36" s="64"/>
-      <c r="AS36" s="64"/>
-      <c r="AT36" s="64"/>
-      <c r="AU36" s="64"/>
-      <c r="AV36" s="64"/>
-      <c r="AW36" s="64"/>
-      <c r="AX36" s="64"/>
-      <c r="AY36" s="64"/>
-      <c r="AZ36" s="65"/>
-      <c r="BA36" s="65"/>
-      <c r="BB36" s="65"/>
-      <c r="BC36" s="65"/>
-      <c r="BD36" s="65"/>
-      <c r="BE36" s="66"/>
-      <c r="BF36" s="66"/>
-      <c r="BG36" s="66"/>
-      <c r="BH36" s="66"/>
-      <c r="BI36" s="66"/>
-      <c r="BJ36" s="66"/>
-      <c r="BK36" s="66"/>
-      <c r="BL36" s="67"/>
-      <c r="BM36" s="67"/>
-      <c r="BN36" s="67"/>
-      <c r="BO36" s="67"/>
-      <c r="BP36" s="67"/>
-      <c r="BQ36" s="67"/>
-      <c r="BR36" s="68"/>
-      <c r="BS36" s="68"/>
-      <c r="BT36" s="68"/>
-      <c r="BU36" s="68"/>
-      <c r="BV36" s="68"/>
-      <c r="BW36" s="68"/>
-      <c r="BX36" s="68"/>
-      <c r="BY36" s="68"/>
-      <c r="BZ36" s="68"/>
-      <c r="CA36" s="68"/>
-      <c r="CB36" s="68"/>
-      <c r="CC36" s="68"/>
-      <c r="CD36" s="65"/>
-      <c r="CE36" s="65"/>
-      <c r="CF36" s="65"/>
-      <c r="CG36" s="65"/>
-      <c r="CH36" s="65"/>
-      <c r="CI36" s="65"/>
-      <c r="CJ36" s="68"/>
-      <c r="CK36" s="68"/>
-      <c r="CL36" s="68"/>
-      <c r="CM36" s="68"/>
-      <c r="CN36" s="68"/>
-      <c r="CO36" s="68"/>
-      <c r="CP36" s="69"/>
-      <c r="CQ36" s="69"/>
-      <c r="CR36" s="69"/>
-      <c r="CS36" s="69"/>
-      <c r="CT36" s="69"/>
-      <c r="CU36" s="69"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="63"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+      <c r="AG36" s="63"/>
+      <c r="AH36" s="63"/>
+      <c r="AI36" s="63"/>
+      <c r="AJ36" s="63"/>
+      <c r="AK36" s="63"/>
+      <c r="AL36" s="63"/>
+      <c r="AM36" s="63"/>
+      <c r="AN36" s="63"/>
+      <c r="AO36" s="63"/>
+      <c r="AP36" s="63"/>
+      <c r="AQ36" s="63"/>
+      <c r="AR36" s="63"/>
+      <c r="AS36" s="63"/>
+      <c r="AT36" s="63"/>
+      <c r="AU36" s="63"/>
+      <c r="AV36" s="63"/>
+      <c r="AW36" s="63"/>
+      <c r="AX36" s="63"/>
+      <c r="AY36" s="63"/>
+      <c r="AZ36" s="64"/>
+      <c r="BA36" s="64"/>
+      <c r="BB36" s="64"/>
+      <c r="BC36" s="64"/>
+      <c r="BD36" s="64"/>
+      <c r="BE36" s="65"/>
+      <c r="BF36" s="65"/>
+      <c r="BG36" s="65"/>
+      <c r="BH36" s="65"/>
+      <c r="BI36" s="65"/>
+      <c r="BJ36" s="65"/>
+      <c r="BK36" s="65"/>
+      <c r="BL36" s="66"/>
+      <c r="BM36" s="66"/>
+      <c r="BN36" s="66"/>
+      <c r="BO36" s="66"/>
+      <c r="BP36" s="66"/>
+      <c r="BQ36" s="66"/>
+      <c r="BR36" s="67"/>
+      <c r="BS36" s="67"/>
+      <c r="BT36" s="67"/>
+      <c r="BU36" s="67"/>
+      <c r="BV36" s="67"/>
+      <c r="BW36" s="67"/>
+      <c r="BX36" s="67"/>
+      <c r="BY36" s="67"/>
+      <c r="BZ36" s="67"/>
+      <c r="CA36" s="67"/>
+      <c r="CB36" s="67"/>
+      <c r="CC36" s="67"/>
+      <c r="CD36" s="64"/>
+      <c r="CE36" s="64"/>
+      <c r="CF36" s="64"/>
+      <c r="CG36" s="64"/>
+      <c r="CH36" s="64"/>
+      <c r="CI36" s="64"/>
+      <c r="CJ36" s="67"/>
+      <c r="CK36" s="67"/>
+      <c r="CL36" s="67"/>
+      <c r="CM36" s="67"/>
+      <c r="CN36" s="67"/>
+      <c r="CO36" s="67"/>
+      <c r="CP36" s="68"/>
+      <c r="CQ36" s="68"/>
+      <c r="CR36" s="68"/>
+      <c r="CS36" s="68"/>
+      <c r="CT36" s="68"/>
+      <c r="CU36" s="68"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="64"/>
-      <c r="AO37" s="64"/>
-      <c r="AP37" s="64"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="64"/>
-      <c r="AS37" s="64"/>
-      <c r="AT37" s="64"/>
-      <c r="AU37" s="64"/>
-      <c r="AV37" s="64"/>
-      <c r="AW37" s="64"/>
-      <c r="AX37" s="64"/>
-      <c r="AY37" s="64"/>
-      <c r="AZ37" s="65"/>
-      <c r="BA37" s="65"/>
-      <c r="BB37" s="65"/>
-      <c r="BC37" s="65"/>
-      <c r="BD37" s="65"/>
-      <c r="BE37" s="66"/>
-      <c r="BF37" s="66"/>
-      <c r="BG37" s="66"/>
-      <c r="BH37" s="66"/>
-      <c r="BI37" s="66"/>
-      <c r="BJ37" s="66"/>
-      <c r="BK37" s="66"/>
-      <c r="BL37" s="67"/>
-      <c r="BM37" s="67"/>
-      <c r="BN37" s="67"/>
-      <c r="BO37" s="67"/>
-      <c r="BP37" s="67"/>
-      <c r="BQ37" s="67"/>
-      <c r="BR37" s="68"/>
-      <c r="BS37" s="68"/>
-      <c r="BT37" s="68"/>
-      <c r="BU37" s="68"/>
-      <c r="BV37" s="68"/>
-      <c r="BW37" s="68"/>
-      <c r="BX37" s="68"/>
-      <c r="BY37" s="68"/>
-      <c r="BZ37" s="68"/>
-      <c r="CA37" s="68"/>
-      <c r="CB37" s="68"/>
-      <c r="CC37" s="68"/>
-      <c r="CD37" s="65"/>
-      <c r="CE37" s="65"/>
-      <c r="CF37" s="65"/>
-      <c r="CG37" s="65"/>
-      <c r="CH37" s="65"/>
-      <c r="CI37" s="65"/>
-      <c r="CJ37" s="68"/>
-      <c r="CK37" s="68"/>
-      <c r="CL37" s="68"/>
-      <c r="CM37" s="68"/>
-      <c r="CN37" s="68"/>
-      <c r="CO37" s="68"/>
-      <c r="CP37" s="69"/>
-      <c r="CQ37" s="69"/>
-      <c r="CR37" s="69"/>
-      <c r="CS37" s="69"/>
-      <c r="CT37" s="69"/>
-      <c r="CU37" s="69"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
+      <c r="AC37" s="63"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="63"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="63"/>
+      <c r="AK37" s="63"/>
+      <c r="AL37" s="63"/>
+      <c r="AM37" s="63"/>
+      <c r="AN37" s="63"/>
+      <c r="AO37" s="63"/>
+      <c r="AP37" s="63"/>
+      <c r="AQ37" s="63"/>
+      <c r="AR37" s="63"/>
+      <c r="AS37" s="63"/>
+      <c r="AT37" s="63"/>
+      <c r="AU37" s="63"/>
+      <c r="AV37" s="63"/>
+      <c r="AW37" s="63"/>
+      <c r="AX37" s="63"/>
+      <c r="AY37" s="63"/>
+      <c r="AZ37" s="64"/>
+      <c r="BA37" s="64"/>
+      <c r="BB37" s="64"/>
+      <c r="BC37" s="64"/>
+      <c r="BD37" s="64"/>
+      <c r="BE37" s="65"/>
+      <c r="BF37" s="65"/>
+      <c r="BG37" s="65"/>
+      <c r="BH37" s="65"/>
+      <c r="BI37" s="65"/>
+      <c r="BJ37" s="65"/>
+      <c r="BK37" s="65"/>
+      <c r="BL37" s="66"/>
+      <c r="BM37" s="66"/>
+      <c r="BN37" s="66"/>
+      <c r="BO37" s="66"/>
+      <c r="BP37" s="66"/>
+      <c r="BQ37" s="66"/>
+      <c r="BR37" s="67"/>
+      <c r="BS37" s="67"/>
+      <c r="BT37" s="67"/>
+      <c r="BU37" s="67"/>
+      <c r="BV37" s="67"/>
+      <c r="BW37" s="67"/>
+      <c r="BX37" s="67"/>
+      <c r="BY37" s="67"/>
+      <c r="BZ37" s="67"/>
+      <c r="CA37" s="67"/>
+      <c r="CB37" s="67"/>
+      <c r="CC37" s="67"/>
+      <c r="CD37" s="64"/>
+      <c r="CE37" s="64"/>
+      <c r="CF37" s="64"/>
+      <c r="CG37" s="64"/>
+      <c r="CH37" s="64"/>
+      <c r="CI37" s="64"/>
+      <c r="CJ37" s="67"/>
+      <c r="CK37" s="67"/>
+      <c r="CL37" s="67"/>
+      <c r="CM37" s="67"/>
+      <c r="CN37" s="67"/>
+      <c r="CO37" s="67"/>
+      <c r="CP37" s="68"/>
+      <c r="CQ37" s="68"/>
+      <c r="CR37" s="68"/>
+      <c r="CS37" s="68"/>
+      <c r="CT37" s="68"/>
+      <c r="CU37" s="68"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64"/>
-      <c r="AC38" s="64"/>
-      <c r="AD38" s="64"/>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="64"/>
-      <c r="AH38" s="64"/>
-      <c r="AI38" s="64"/>
-      <c r="AJ38" s="64"/>
-      <c r="AK38" s="64"/>
-      <c r="AL38" s="64"/>
-      <c r="AM38" s="64"/>
-      <c r="AN38" s="64"/>
-      <c r="AO38" s="64"/>
-      <c r="AP38" s="64"/>
-      <c r="AQ38" s="64"/>
-      <c r="AR38" s="64"/>
-      <c r="AS38" s="64"/>
-      <c r="AT38" s="64"/>
-      <c r="AU38" s="64"/>
-      <c r="AV38" s="64"/>
-      <c r="AW38" s="64"/>
-      <c r="AX38" s="64"/>
-      <c r="AY38" s="64"/>
-      <c r="AZ38" s="65"/>
-      <c r="BA38" s="65"/>
-      <c r="BB38" s="65"/>
-      <c r="BC38" s="65"/>
-      <c r="BD38" s="65"/>
-      <c r="BE38" s="66"/>
-      <c r="BF38" s="66"/>
-      <c r="BG38" s="66"/>
-      <c r="BH38" s="66"/>
-      <c r="BI38" s="66"/>
-      <c r="BJ38" s="66"/>
-      <c r="BK38" s="66"/>
-      <c r="BL38" s="67"/>
-      <c r="BM38" s="67"/>
-      <c r="BN38" s="67"/>
-      <c r="BO38" s="67"/>
-      <c r="BP38" s="67"/>
-      <c r="BQ38" s="67"/>
-      <c r="BR38" s="68"/>
-      <c r="BS38" s="68"/>
-      <c r="BT38" s="68"/>
-      <c r="BU38" s="68"/>
-      <c r="BV38" s="68"/>
-      <c r="BW38" s="68"/>
-      <c r="BX38" s="68"/>
-      <c r="BY38" s="68"/>
-      <c r="BZ38" s="68"/>
-      <c r="CA38" s="68"/>
-      <c r="CB38" s="68"/>
-      <c r="CC38" s="68"/>
-      <c r="CD38" s="65"/>
-      <c r="CE38" s="65"/>
-      <c r="CF38" s="65"/>
-      <c r="CG38" s="65"/>
-      <c r="CH38" s="65"/>
-      <c r="CI38" s="65"/>
-      <c r="CJ38" s="68"/>
-      <c r="CK38" s="68"/>
-      <c r="CL38" s="68"/>
-      <c r="CM38" s="68"/>
-      <c r="CN38" s="68"/>
-      <c r="CO38" s="68"/>
-      <c r="CP38" s="69"/>
-      <c r="CQ38" s="69"/>
-      <c r="CR38" s="69"/>
-      <c r="CS38" s="69"/>
-      <c r="CT38" s="69"/>
-      <c r="CU38" s="69"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="63"/>
+      <c r="AD38" s="63"/>
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="63"/>
+      <c r="AG38" s="63"/>
+      <c r="AH38" s="63"/>
+      <c r="AI38" s="63"/>
+      <c r="AJ38" s="63"/>
+      <c r="AK38" s="63"/>
+      <c r="AL38" s="63"/>
+      <c r="AM38" s="63"/>
+      <c r="AN38" s="63"/>
+      <c r="AO38" s="63"/>
+      <c r="AP38" s="63"/>
+      <c r="AQ38" s="63"/>
+      <c r="AR38" s="63"/>
+      <c r="AS38" s="63"/>
+      <c r="AT38" s="63"/>
+      <c r="AU38" s="63"/>
+      <c r="AV38" s="63"/>
+      <c r="AW38" s="63"/>
+      <c r="AX38" s="63"/>
+      <c r="AY38" s="63"/>
+      <c r="AZ38" s="64"/>
+      <c r="BA38" s="64"/>
+      <c r="BB38" s="64"/>
+      <c r="BC38" s="64"/>
+      <c r="BD38" s="64"/>
+      <c r="BE38" s="65"/>
+      <c r="BF38" s="65"/>
+      <c r="BG38" s="65"/>
+      <c r="BH38" s="65"/>
+      <c r="BI38" s="65"/>
+      <c r="BJ38" s="65"/>
+      <c r="BK38" s="65"/>
+      <c r="BL38" s="66"/>
+      <c r="BM38" s="66"/>
+      <c r="BN38" s="66"/>
+      <c r="BO38" s="66"/>
+      <c r="BP38" s="66"/>
+      <c r="BQ38" s="66"/>
+      <c r="BR38" s="67"/>
+      <c r="BS38" s="67"/>
+      <c r="BT38" s="67"/>
+      <c r="BU38" s="67"/>
+      <c r="BV38" s="67"/>
+      <c r="BW38" s="67"/>
+      <c r="BX38" s="67"/>
+      <c r="BY38" s="67"/>
+      <c r="BZ38" s="67"/>
+      <c r="CA38" s="67"/>
+      <c r="CB38" s="67"/>
+      <c r="CC38" s="67"/>
+      <c r="CD38" s="64"/>
+      <c r="CE38" s="64"/>
+      <c r="CF38" s="64"/>
+      <c r="CG38" s="64"/>
+      <c r="CH38" s="64"/>
+      <c r="CI38" s="64"/>
+      <c r="CJ38" s="67"/>
+      <c r="CK38" s="67"/>
+      <c r="CL38" s="67"/>
+      <c r="CM38" s="67"/>
+      <c r="CN38" s="67"/>
+      <c r="CO38" s="67"/>
+      <c r="CP38" s="68"/>
+      <c r="CQ38" s="68"/>
+      <c r="CR38" s="68"/>
+      <c r="CS38" s="68"/>
+      <c r="CT38" s="68"/>
+      <c r="CU38" s="68"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="64"/>
-      <c r="AA39" s="64"/>
-      <c r="AB39" s="64"/>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="64"/>
-      <c r="AF39" s="64"/>
-      <c r="AG39" s="64"/>
-      <c r="AH39" s="64"/>
-      <c r="AI39" s="64"/>
-      <c r="AJ39" s="64"/>
-      <c r="AK39" s="64"/>
-      <c r="AL39" s="64"/>
-      <c r="AM39" s="64"/>
-      <c r="AN39" s="64"/>
-      <c r="AO39" s="64"/>
-      <c r="AP39" s="64"/>
-      <c r="AQ39" s="64"/>
-      <c r="AR39" s="64"/>
-      <c r="AS39" s="64"/>
-      <c r="AT39" s="64"/>
-      <c r="AU39" s="64"/>
-      <c r="AV39" s="64"/>
-      <c r="AW39" s="64"/>
-      <c r="AX39" s="64"/>
-      <c r="AY39" s="64"/>
-      <c r="AZ39" s="65"/>
-      <c r="BA39" s="65"/>
-      <c r="BB39" s="65"/>
-      <c r="BC39" s="65"/>
-      <c r="BD39" s="65"/>
-      <c r="BE39" s="66"/>
-      <c r="BF39" s="66"/>
-      <c r="BG39" s="66"/>
-      <c r="BH39" s="66"/>
-      <c r="BI39" s="66"/>
-      <c r="BJ39" s="66"/>
-      <c r="BK39" s="66"/>
-      <c r="BL39" s="67"/>
-      <c r="BM39" s="67"/>
-      <c r="BN39" s="67"/>
-      <c r="BO39" s="67"/>
-      <c r="BP39" s="67"/>
-      <c r="BQ39" s="67"/>
-      <c r="BR39" s="68"/>
-      <c r="BS39" s="68"/>
-      <c r="BT39" s="68"/>
-      <c r="BU39" s="68"/>
-      <c r="BV39" s="68"/>
-      <c r="BW39" s="68"/>
-      <c r="BX39" s="68"/>
-      <c r="BY39" s="68"/>
-      <c r="BZ39" s="68"/>
-      <c r="CA39" s="68"/>
-      <c r="CB39" s="68"/>
-      <c r="CC39" s="68"/>
-      <c r="CD39" s="65"/>
-      <c r="CE39" s="65"/>
-      <c r="CF39" s="65"/>
-      <c r="CG39" s="65"/>
-      <c r="CH39" s="65"/>
-      <c r="CI39" s="65"/>
-      <c r="CJ39" s="68"/>
-      <c r="CK39" s="68"/>
-      <c r="CL39" s="68"/>
-      <c r="CM39" s="68"/>
-      <c r="CN39" s="68"/>
-      <c r="CO39" s="68"/>
-      <c r="CP39" s="69"/>
-      <c r="CQ39" s="69"/>
-      <c r="CR39" s="69"/>
-      <c r="CS39" s="69"/>
-      <c r="CT39" s="69"/>
-      <c r="CU39" s="69"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="63"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="63"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="63"/>
+      <c r="AH39" s="63"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="63"/>
+      <c r="AK39" s="63"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="63"/>
+      <c r="AN39" s="63"/>
+      <c r="AO39" s="63"/>
+      <c r="AP39" s="63"/>
+      <c r="AQ39" s="63"/>
+      <c r="AR39" s="63"/>
+      <c r="AS39" s="63"/>
+      <c r="AT39" s="63"/>
+      <c r="AU39" s="63"/>
+      <c r="AV39" s="63"/>
+      <c r="AW39" s="63"/>
+      <c r="AX39" s="63"/>
+      <c r="AY39" s="63"/>
+      <c r="AZ39" s="64"/>
+      <c r="BA39" s="64"/>
+      <c r="BB39" s="64"/>
+      <c r="BC39" s="64"/>
+      <c r="BD39" s="64"/>
+      <c r="BE39" s="65"/>
+      <c r="BF39" s="65"/>
+      <c r="BG39" s="65"/>
+      <c r="BH39" s="65"/>
+      <c r="BI39" s="65"/>
+      <c r="BJ39" s="65"/>
+      <c r="BK39" s="65"/>
+      <c r="BL39" s="66"/>
+      <c r="BM39" s="66"/>
+      <c r="BN39" s="66"/>
+      <c r="BO39" s="66"/>
+      <c r="BP39" s="66"/>
+      <c r="BQ39" s="66"/>
+      <c r="BR39" s="67"/>
+      <c r="BS39" s="67"/>
+      <c r="BT39" s="67"/>
+      <c r="BU39" s="67"/>
+      <c r="BV39" s="67"/>
+      <c r="BW39" s="67"/>
+      <c r="BX39" s="67"/>
+      <c r="BY39" s="67"/>
+      <c r="BZ39" s="67"/>
+      <c r="CA39" s="67"/>
+      <c r="CB39" s="67"/>
+      <c r="CC39" s="67"/>
+      <c r="CD39" s="64"/>
+      <c r="CE39" s="64"/>
+      <c r="CF39" s="64"/>
+      <c r="CG39" s="64"/>
+      <c r="CH39" s="64"/>
+      <c r="CI39" s="64"/>
+      <c r="CJ39" s="67"/>
+      <c r="CK39" s="67"/>
+      <c r="CL39" s="67"/>
+      <c r="CM39" s="67"/>
+      <c r="CN39" s="67"/>
+      <c r="CO39" s="67"/>
+      <c r="CP39" s="68"/>
+      <c r="CQ39" s="68"/>
+      <c r="CR39" s="68"/>
+      <c r="CS39" s="68"/>
+      <c r="CT39" s="68"/>
+      <c r="CU39" s="68"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64"/>
-      <c r="V40" s="64"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="64"/>
-      <c r="Z40" s="64"/>
-      <c r="AA40" s="64"/>
-      <c r="AB40" s="64"/>
-      <c r="AC40" s="64"/>
-      <c r="AD40" s="64"/>
-      <c r="AE40" s="64"/>
-      <c r="AF40" s="64"/>
-      <c r="AG40" s="64"/>
-      <c r="AH40" s="64"/>
-      <c r="AI40" s="64"/>
-      <c r="AJ40" s="64"/>
-      <c r="AK40" s="64"/>
-      <c r="AL40" s="64"/>
-      <c r="AM40" s="64"/>
-      <c r="AN40" s="64"/>
-      <c r="AO40" s="64"/>
-      <c r="AP40" s="64"/>
-      <c r="AQ40" s="64"/>
-      <c r="AR40" s="64"/>
-      <c r="AS40" s="64"/>
-      <c r="AT40" s="64"/>
-      <c r="AU40" s="64"/>
-      <c r="AV40" s="64"/>
-      <c r="AW40" s="64"/>
-      <c r="AX40" s="64"/>
-      <c r="AY40" s="64"/>
-      <c r="AZ40" s="65"/>
-      <c r="BA40" s="65"/>
-      <c r="BB40" s="65"/>
-      <c r="BC40" s="65"/>
-      <c r="BD40" s="65"/>
-      <c r="BE40" s="66"/>
-      <c r="BF40" s="66"/>
-      <c r="BG40" s="66"/>
-      <c r="BH40" s="66"/>
-      <c r="BI40" s="66"/>
-      <c r="BJ40" s="66"/>
-      <c r="BK40" s="66"/>
-      <c r="BL40" s="67"/>
-      <c r="BM40" s="67"/>
-      <c r="BN40" s="67"/>
-      <c r="BO40" s="67"/>
-      <c r="BP40" s="67"/>
-      <c r="BQ40" s="67"/>
-      <c r="BR40" s="68"/>
-      <c r="BS40" s="68"/>
-      <c r="BT40" s="68"/>
-      <c r="BU40" s="68"/>
-      <c r="BV40" s="68"/>
-      <c r="BW40" s="68"/>
-      <c r="BX40" s="68"/>
-      <c r="BY40" s="68"/>
-      <c r="BZ40" s="68"/>
-      <c r="CA40" s="68"/>
-      <c r="CB40" s="68"/>
-      <c r="CC40" s="68"/>
-      <c r="CD40" s="65"/>
-      <c r="CE40" s="65"/>
-      <c r="CF40" s="65"/>
-      <c r="CG40" s="65"/>
-      <c r="CH40" s="65"/>
-      <c r="CI40" s="65"/>
-      <c r="CJ40" s="68"/>
-      <c r="CK40" s="68"/>
-      <c r="CL40" s="68"/>
-      <c r="CM40" s="68"/>
-      <c r="CN40" s="68"/>
-      <c r="CO40" s="68"/>
-      <c r="CP40" s="69"/>
-      <c r="CQ40" s="69"/>
-      <c r="CR40" s="69"/>
-      <c r="CS40" s="69"/>
-      <c r="CT40" s="69"/>
-      <c r="CU40" s="69"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="63"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+      <c r="AK40" s="63"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="63"/>
+      <c r="AN40" s="63"/>
+      <c r="AO40" s="63"/>
+      <c r="AP40" s="63"/>
+      <c r="AQ40" s="63"/>
+      <c r="AR40" s="63"/>
+      <c r="AS40" s="63"/>
+      <c r="AT40" s="63"/>
+      <c r="AU40" s="63"/>
+      <c r="AV40" s="63"/>
+      <c r="AW40" s="63"/>
+      <c r="AX40" s="63"/>
+      <c r="AY40" s="63"/>
+      <c r="AZ40" s="64"/>
+      <c r="BA40" s="64"/>
+      <c r="BB40" s="64"/>
+      <c r="BC40" s="64"/>
+      <c r="BD40" s="64"/>
+      <c r="BE40" s="65"/>
+      <c r="BF40" s="65"/>
+      <c r="BG40" s="65"/>
+      <c r="BH40" s="65"/>
+      <c r="BI40" s="65"/>
+      <c r="BJ40" s="65"/>
+      <c r="BK40" s="65"/>
+      <c r="BL40" s="66"/>
+      <c r="BM40" s="66"/>
+      <c r="BN40" s="66"/>
+      <c r="BO40" s="66"/>
+      <c r="BP40" s="66"/>
+      <c r="BQ40" s="66"/>
+      <c r="BR40" s="67"/>
+      <c r="BS40" s="67"/>
+      <c r="BT40" s="67"/>
+      <c r="BU40" s="67"/>
+      <c r="BV40" s="67"/>
+      <c r="BW40" s="67"/>
+      <c r="BX40" s="67"/>
+      <c r="BY40" s="67"/>
+      <c r="BZ40" s="67"/>
+      <c r="CA40" s="67"/>
+      <c r="CB40" s="67"/>
+      <c r="CC40" s="67"/>
+      <c r="CD40" s="64"/>
+      <c r="CE40" s="64"/>
+      <c r="CF40" s="64"/>
+      <c r="CG40" s="64"/>
+      <c r="CH40" s="64"/>
+      <c r="CI40" s="64"/>
+      <c r="CJ40" s="67"/>
+      <c r="CK40" s="67"/>
+      <c r="CL40" s="67"/>
+      <c r="CM40" s="67"/>
+      <c r="CN40" s="67"/>
+      <c r="CO40" s="67"/>
+      <c r="CP40" s="68"/>
+      <c r="CQ40" s="68"/>
+      <c r="CR40" s="68"/>
+      <c r="CS40" s="68"/>
+      <c r="CT40" s="68"/>
+      <c r="CU40" s="68"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="64"/>
-      <c r="U41" s="64"/>
-      <c r="V41" s="64"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="64"/>
-      <c r="Z41" s="64"/>
-      <c r="AA41" s="64"/>
-      <c r="AB41" s="64"/>
-      <c r="AC41" s="64"/>
-      <c r="AD41" s="64"/>
-      <c r="AE41" s="64"/>
-      <c r="AF41" s="64"/>
-      <c r="AG41" s="64"/>
-      <c r="AH41" s="64"/>
-      <c r="AI41" s="64"/>
-      <c r="AJ41" s="64"/>
-      <c r="AK41" s="64"/>
-      <c r="AL41" s="64"/>
-      <c r="AM41" s="64"/>
-      <c r="AN41" s="64"/>
-      <c r="AO41" s="64"/>
-      <c r="AP41" s="64"/>
-      <c r="AQ41" s="64"/>
-      <c r="AR41" s="64"/>
-      <c r="AS41" s="64"/>
-      <c r="AT41" s="64"/>
-      <c r="AU41" s="64"/>
-      <c r="AV41" s="64"/>
-      <c r="AW41" s="64"/>
-      <c r="AX41" s="64"/>
-      <c r="AY41" s="64"/>
-      <c r="AZ41" s="65"/>
-      <c r="BA41" s="65"/>
-      <c r="BB41" s="65"/>
-      <c r="BC41" s="65"/>
-      <c r="BD41" s="65"/>
-      <c r="BE41" s="66"/>
-      <c r="BF41" s="66"/>
-      <c r="BG41" s="66"/>
-      <c r="BH41" s="66"/>
-      <c r="BI41" s="66"/>
-      <c r="BJ41" s="66"/>
-      <c r="BK41" s="66"/>
-      <c r="BL41" s="67"/>
-      <c r="BM41" s="67"/>
-      <c r="BN41" s="67"/>
-      <c r="BO41" s="67"/>
-      <c r="BP41" s="67"/>
-      <c r="BQ41" s="67"/>
-      <c r="BR41" s="68"/>
-      <c r="BS41" s="68"/>
-      <c r="BT41" s="68"/>
-      <c r="BU41" s="68"/>
-      <c r="BV41" s="68"/>
-      <c r="BW41" s="68"/>
-      <c r="BX41" s="68"/>
-      <c r="BY41" s="68"/>
-      <c r="BZ41" s="68"/>
-      <c r="CA41" s="68"/>
-      <c r="CB41" s="68"/>
-      <c r="CC41" s="68"/>
-      <c r="CD41" s="65"/>
-      <c r="CE41" s="65"/>
-      <c r="CF41" s="65"/>
-      <c r="CG41" s="65"/>
-      <c r="CH41" s="65"/>
-      <c r="CI41" s="65"/>
-      <c r="CJ41" s="68"/>
-      <c r="CK41" s="68"/>
-      <c r="CL41" s="68"/>
-      <c r="CM41" s="68"/>
-      <c r="CN41" s="68"/>
-      <c r="CO41" s="68"/>
-      <c r="CP41" s="69"/>
-      <c r="CQ41" s="69"/>
-      <c r="CR41" s="69"/>
-      <c r="CS41" s="69"/>
-      <c r="CT41" s="69"/>
-      <c r="CU41" s="69"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
+      <c r="AB41" s="63"/>
+      <c r="AC41" s="63"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="63"/>
+      <c r="AK41" s="63"/>
+      <c r="AL41" s="63"/>
+      <c r="AM41" s="63"/>
+      <c r="AN41" s="63"/>
+      <c r="AO41" s="63"/>
+      <c r="AP41" s="63"/>
+      <c r="AQ41" s="63"/>
+      <c r="AR41" s="63"/>
+      <c r="AS41" s="63"/>
+      <c r="AT41" s="63"/>
+      <c r="AU41" s="63"/>
+      <c r="AV41" s="63"/>
+      <c r="AW41" s="63"/>
+      <c r="AX41" s="63"/>
+      <c r="AY41" s="63"/>
+      <c r="AZ41" s="64"/>
+      <c r="BA41" s="64"/>
+      <c r="BB41" s="64"/>
+      <c r="BC41" s="64"/>
+      <c r="BD41" s="64"/>
+      <c r="BE41" s="65"/>
+      <c r="BF41" s="65"/>
+      <c r="BG41" s="65"/>
+      <c r="BH41" s="65"/>
+      <c r="BI41" s="65"/>
+      <c r="BJ41" s="65"/>
+      <c r="BK41" s="65"/>
+      <c r="BL41" s="66"/>
+      <c r="BM41" s="66"/>
+      <c r="BN41" s="66"/>
+      <c r="BO41" s="66"/>
+      <c r="BP41" s="66"/>
+      <c r="BQ41" s="66"/>
+      <c r="BR41" s="67"/>
+      <c r="BS41" s="67"/>
+      <c r="BT41" s="67"/>
+      <c r="BU41" s="67"/>
+      <c r="BV41" s="67"/>
+      <c r="BW41" s="67"/>
+      <c r="BX41" s="67"/>
+      <c r="BY41" s="67"/>
+      <c r="BZ41" s="67"/>
+      <c r="CA41" s="67"/>
+      <c r="CB41" s="67"/>
+      <c r="CC41" s="67"/>
+      <c r="CD41" s="64"/>
+      <c r="CE41" s="64"/>
+      <c r="CF41" s="64"/>
+      <c r="CG41" s="64"/>
+      <c r="CH41" s="64"/>
+      <c r="CI41" s="64"/>
+      <c r="CJ41" s="67"/>
+      <c r="CK41" s="67"/>
+      <c r="CL41" s="67"/>
+      <c r="CM41" s="67"/>
+      <c r="CN41" s="67"/>
+      <c r="CO41" s="67"/>
+      <c r="CP41" s="68"/>
+      <c r="CQ41" s="68"/>
+      <c r="CR41" s="68"/>
+      <c r="CS41" s="68"/>
+      <c r="CT41" s="68"/>
+      <c r="CU41" s="68"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64"/>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="64"/>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="64"/>
-      <c r="AC42" s="64"/>
-      <c r="AD42" s="64"/>
-      <c r="AE42" s="64"/>
-      <c r="AF42" s="64"/>
-      <c r="AG42" s="64"/>
-      <c r="AH42" s="64"/>
-      <c r="AI42" s="64"/>
-      <c r="AJ42" s="64"/>
-      <c r="AK42" s="64"/>
-      <c r="AL42" s="64"/>
-      <c r="AM42" s="64"/>
-      <c r="AN42" s="64"/>
-      <c r="AO42" s="64"/>
-      <c r="AP42" s="64"/>
-      <c r="AQ42" s="64"/>
-      <c r="AR42" s="64"/>
-      <c r="AS42" s="64"/>
-      <c r="AT42" s="64"/>
-      <c r="AU42" s="64"/>
-      <c r="AV42" s="64"/>
-      <c r="AW42" s="64"/>
-      <c r="AX42" s="64"/>
-      <c r="AY42" s="64"/>
-      <c r="AZ42" s="65"/>
-      <c r="BA42" s="65"/>
-      <c r="BB42" s="65"/>
-      <c r="BC42" s="65"/>
-      <c r="BD42" s="65"/>
-      <c r="BE42" s="66"/>
-      <c r="BF42" s="66"/>
-      <c r="BG42" s="66"/>
-      <c r="BH42" s="66"/>
-      <c r="BI42" s="66"/>
-      <c r="BJ42" s="66"/>
-      <c r="BK42" s="66"/>
-      <c r="BL42" s="67"/>
-      <c r="BM42" s="67"/>
-      <c r="BN42" s="67"/>
-      <c r="BO42" s="67"/>
-      <c r="BP42" s="67"/>
-      <c r="BQ42" s="67"/>
-      <c r="BR42" s="68"/>
-      <c r="BS42" s="68"/>
-      <c r="BT42" s="68"/>
-      <c r="BU42" s="68"/>
-      <c r="BV42" s="68"/>
-      <c r="BW42" s="68"/>
-      <c r="BX42" s="68"/>
-      <c r="BY42" s="68"/>
-      <c r="BZ42" s="68"/>
-      <c r="CA42" s="68"/>
-      <c r="CB42" s="68"/>
-      <c r="CC42" s="68"/>
-      <c r="CD42" s="65"/>
-      <c r="CE42" s="65"/>
-      <c r="CF42" s="65"/>
-      <c r="CG42" s="65"/>
-      <c r="CH42" s="65"/>
-      <c r="CI42" s="65"/>
-      <c r="CJ42" s="68"/>
-      <c r="CK42" s="68"/>
-      <c r="CL42" s="68"/>
-      <c r="CM42" s="68"/>
-      <c r="CN42" s="68"/>
-      <c r="CO42" s="68"/>
-      <c r="CP42" s="69"/>
-      <c r="CQ42" s="69"/>
-      <c r="CR42" s="69"/>
-      <c r="CS42" s="69"/>
-      <c r="CT42" s="69"/>
-      <c r="CU42" s="69"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="63"/>
+      <c r="AA42" s="63"/>
+      <c r="AB42" s="63"/>
+      <c r="AC42" s="63"/>
+      <c r="AD42" s="63"/>
+      <c r="AE42" s="63"/>
+      <c r="AF42" s="63"/>
+      <c r="AG42" s="63"/>
+      <c r="AH42" s="63"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
+      <c r="AK42" s="63"/>
+      <c r="AL42" s="63"/>
+      <c r="AM42" s="63"/>
+      <c r="AN42" s="63"/>
+      <c r="AO42" s="63"/>
+      <c r="AP42" s="63"/>
+      <c r="AQ42" s="63"/>
+      <c r="AR42" s="63"/>
+      <c r="AS42" s="63"/>
+      <c r="AT42" s="63"/>
+      <c r="AU42" s="63"/>
+      <c r="AV42" s="63"/>
+      <c r="AW42" s="63"/>
+      <c r="AX42" s="63"/>
+      <c r="AY42" s="63"/>
+      <c r="AZ42" s="64"/>
+      <c r="BA42" s="64"/>
+      <c r="BB42" s="64"/>
+      <c r="BC42" s="64"/>
+      <c r="BD42" s="64"/>
+      <c r="BE42" s="65"/>
+      <c r="BF42" s="65"/>
+      <c r="BG42" s="65"/>
+      <c r="BH42" s="65"/>
+      <c r="BI42" s="65"/>
+      <c r="BJ42" s="65"/>
+      <c r="BK42" s="65"/>
+      <c r="BL42" s="66"/>
+      <c r="BM42" s="66"/>
+      <c r="BN42" s="66"/>
+      <c r="BO42" s="66"/>
+      <c r="BP42" s="66"/>
+      <c r="BQ42" s="66"/>
+      <c r="BR42" s="67"/>
+      <c r="BS42" s="67"/>
+      <c r="BT42" s="67"/>
+      <c r="BU42" s="67"/>
+      <c r="BV42" s="67"/>
+      <c r="BW42" s="67"/>
+      <c r="BX42" s="67"/>
+      <c r="BY42" s="67"/>
+      <c r="BZ42" s="67"/>
+      <c r="CA42" s="67"/>
+      <c r="CB42" s="67"/>
+      <c r="CC42" s="67"/>
+      <c r="CD42" s="64"/>
+      <c r="CE42" s="64"/>
+      <c r="CF42" s="64"/>
+      <c r="CG42" s="64"/>
+      <c r="CH42" s="64"/>
+      <c r="CI42" s="64"/>
+      <c r="CJ42" s="67"/>
+      <c r="CK42" s="67"/>
+      <c r="CL42" s="67"/>
+      <c r="CM42" s="67"/>
+      <c r="CN42" s="67"/>
+      <c r="CO42" s="67"/>
+      <c r="CP42" s="68"/>
+      <c r="CQ42" s="68"/>
+      <c r="CR42" s="68"/>
+      <c r="CS42" s="68"/>
+      <c r="CT42" s="68"/>
+      <c r="CU42" s="68"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="64"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="64"/>
-      <c r="W43" s="64"/>
-      <c r="X43" s="64"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="64"/>
-      <c r="AA43" s="64"/>
-      <c r="AB43" s="64"/>
-      <c r="AC43" s="64"/>
-      <c r="AD43" s="64"/>
-      <c r="AE43" s="64"/>
-      <c r="AF43" s="64"/>
-      <c r="AG43" s="64"/>
-      <c r="AH43" s="64"/>
-      <c r="AI43" s="64"/>
-      <c r="AJ43" s="64"/>
-      <c r="AK43" s="64"/>
-      <c r="AL43" s="64"/>
-      <c r="AM43" s="64"/>
-      <c r="AN43" s="64"/>
-      <c r="AO43" s="64"/>
-      <c r="AP43" s="64"/>
-      <c r="AQ43" s="64"/>
-      <c r="AR43" s="64"/>
-      <c r="AS43" s="64"/>
-      <c r="AT43" s="64"/>
-      <c r="AU43" s="64"/>
-      <c r="AV43" s="64"/>
-      <c r="AW43" s="64"/>
-      <c r="AX43" s="64"/>
-      <c r="AY43" s="64"/>
-      <c r="AZ43" s="65"/>
-      <c r="BA43" s="65"/>
-      <c r="BB43" s="65"/>
-      <c r="BC43" s="65"/>
-      <c r="BD43" s="65"/>
-      <c r="BE43" s="66"/>
-      <c r="BF43" s="66"/>
-      <c r="BG43" s="66"/>
-      <c r="BH43" s="66"/>
-      <c r="BI43" s="66"/>
-      <c r="BJ43" s="66"/>
-      <c r="BK43" s="66"/>
-      <c r="BL43" s="67"/>
-      <c r="BM43" s="67"/>
-      <c r="BN43" s="67"/>
-      <c r="BO43" s="67"/>
-      <c r="BP43" s="67"/>
-      <c r="BQ43" s="67"/>
-      <c r="BR43" s="68"/>
-      <c r="BS43" s="68"/>
-      <c r="BT43" s="68"/>
-      <c r="BU43" s="68"/>
-      <c r="BV43" s="68"/>
-      <c r="BW43" s="68"/>
-      <c r="BX43" s="68"/>
-      <c r="BY43" s="68"/>
-      <c r="BZ43" s="68"/>
-      <c r="CA43" s="68"/>
-      <c r="CB43" s="68"/>
-      <c r="CC43" s="68"/>
-      <c r="CD43" s="65"/>
-      <c r="CE43" s="65"/>
-      <c r="CF43" s="65"/>
-      <c r="CG43" s="65"/>
-      <c r="CH43" s="65"/>
-      <c r="CI43" s="65"/>
-      <c r="CJ43" s="68"/>
-      <c r="CK43" s="68"/>
-      <c r="CL43" s="68"/>
-      <c r="CM43" s="68"/>
-      <c r="CN43" s="68"/>
-      <c r="CO43" s="68"/>
-      <c r="CP43" s="69"/>
-      <c r="CQ43" s="69"/>
-      <c r="CR43" s="69"/>
-      <c r="CS43" s="69"/>
-      <c r="CT43" s="69"/>
-      <c r="CU43" s="69"/>
+      <c r="A43" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="63"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="63"/>
+      <c r="AK43" s="63"/>
+      <c r="AL43" s="63"/>
+      <c r="AM43" s="63"/>
+      <c r="AN43" s="63"/>
+      <c r="AO43" s="63"/>
+      <c r="AP43" s="63"/>
+      <c r="AQ43" s="63"/>
+      <c r="AR43" s="63"/>
+      <c r="AS43" s="63"/>
+      <c r="AT43" s="63"/>
+      <c r="AU43" s="63"/>
+      <c r="AV43" s="63"/>
+      <c r="AW43" s="63"/>
+      <c r="AX43" s="63"/>
+      <c r="AY43" s="63"/>
+      <c r="AZ43" s="64"/>
+      <c r="BA43" s="64"/>
+      <c r="BB43" s="64"/>
+      <c r="BC43" s="64"/>
+      <c r="BD43" s="64"/>
+      <c r="BE43" s="65"/>
+      <c r="BF43" s="65"/>
+      <c r="BG43" s="65"/>
+      <c r="BH43" s="65"/>
+      <c r="BI43" s="65"/>
+      <c r="BJ43" s="65"/>
+      <c r="BK43" s="65"/>
+      <c r="BL43" s="66"/>
+      <c r="BM43" s="66"/>
+      <c r="BN43" s="66"/>
+      <c r="BO43" s="66"/>
+      <c r="BP43" s="66"/>
+      <c r="BQ43" s="66"/>
+      <c r="BR43" s="67"/>
+      <c r="BS43" s="67"/>
+      <c r="BT43" s="67"/>
+      <c r="BU43" s="67"/>
+      <c r="BV43" s="67"/>
+      <c r="BW43" s="67"/>
+      <c r="BX43" s="67"/>
+      <c r="BY43" s="67"/>
+      <c r="BZ43" s="67"/>
+      <c r="CA43" s="67"/>
+      <c r="CB43" s="67"/>
+      <c r="CC43" s="67"/>
+      <c r="CD43" s="64"/>
+      <c r="CE43" s="64"/>
+      <c r="CF43" s="64"/>
+      <c r="CG43" s="64"/>
+      <c r="CH43" s="64"/>
+      <c r="CI43" s="64"/>
+      <c r="CJ43" s="67"/>
+      <c r="CK43" s="67"/>
+      <c r="CL43" s="67"/>
+      <c r="CM43" s="67"/>
+      <c r="CN43" s="67"/>
+      <c r="CO43" s="67"/>
+      <c r="CP43" s="68"/>
+      <c r="CQ43" s="68"/>
+      <c r="CR43" s="68"/>
+      <c r="CS43" s="68"/>
+      <c r="CT43" s="68"/>
+      <c r="CU43" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="290">
+  <mergeCells count="289">
     <mergeCell ref="BN4:CU4"/>
     <mergeCell ref="AW5:BU5"/>
     <mergeCell ref="BV5:CE5"/>
@@ -5030,8 +4693,7 @@
     <mergeCell ref="CD32:CI32"/>
     <mergeCell ref="CJ32:CO32"/>
     <mergeCell ref="CP32:CU32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:Q33"/>
+    <mergeCell ref="A33:Q33"/>
     <mergeCell ref="R33:V33"/>
     <mergeCell ref="W33:AA33"/>
     <mergeCell ref="AB33:AG33"/>
@@ -5215,19 +4877,19 @@
   </sheetPr>
   <dimension ref="A1:CU49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE9" activeCellId="0" sqref="BE9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE9" activeCellId="0" sqref="BE9:BQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="1.35204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="1.35204081632653"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="70" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="CU1" s="71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" s="48" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,211 +5710,221 @@
       <c r="CU8" s="53"/>
     </row>
     <row r="9" s="18" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="64"/>
-      <c r="AU9" s="64"/>
-      <c r="AV9" s="64"/>
-      <c r="AW9" s="64"/>
-      <c r="AX9" s="64"/>
-      <c r="AY9" s="64"/>
-      <c r="AZ9" s="65"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="65"/>
-      <c r="BC9" s="65"/>
-      <c r="BD9" s="65"/>
-      <c r="BE9" s="66"/>
-      <c r="BF9" s="66"/>
-      <c r="BG9" s="66"/>
-      <c r="BH9" s="66"/>
-      <c r="BI9" s="66"/>
-      <c r="BJ9" s="66"/>
-      <c r="BK9" s="66"/>
-      <c r="BL9" s="67"/>
-      <c r="BM9" s="67"/>
-      <c r="BN9" s="67"/>
-      <c r="BO9" s="67"/>
-      <c r="BP9" s="67"/>
-      <c r="BQ9" s="67"/>
-      <c r="BR9" s="68"/>
-      <c r="BS9" s="68"/>
-      <c r="BT9" s="68"/>
-      <c r="BU9" s="68"/>
-      <c r="BV9" s="68"/>
-      <c r="BW9" s="68"/>
-      <c r="BX9" s="68"/>
-      <c r="BY9" s="68"/>
-      <c r="BZ9" s="68"/>
-      <c r="CA9" s="68"/>
-      <c r="CB9" s="68"/>
-      <c r="CC9" s="68"/>
-      <c r="CD9" s="65"/>
-      <c r="CE9" s="65"/>
-      <c r="CF9" s="65"/>
-      <c r="CG9" s="65"/>
-      <c r="CH9" s="65"/>
-      <c r="CI9" s="65"/>
-      <c r="CJ9" s="68"/>
-      <c r="CK9" s="68"/>
-      <c r="CL9" s="68"/>
-      <c r="CM9" s="68"/>
-      <c r="CN9" s="68"/>
-      <c r="CO9" s="68"/>
-      <c r="CP9" s="69"/>
-      <c r="CQ9" s="69"/>
-      <c r="CR9" s="69"/>
-      <c r="CS9" s="69"/>
-      <c r="CT9" s="69"/>
-      <c r="CU9" s="69"/>
+      <c r="A9" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="63"/>
+      <c r="AO9" s="63"/>
+      <c r="AP9" s="63"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="63"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="63"/>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="63"/>
+      <c r="AX9" s="63"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="64"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="64"/>
+      <c r="BE9" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF9" s="65"/>
+      <c r="BG9" s="65"/>
+      <c r="BH9" s="65"/>
+      <c r="BI9" s="65"/>
+      <c r="BJ9" s="65"/>
+      <c r="BK9" s="65"/>
+      <c r="BL9" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM9" s="66"/>
+      <c r="BN9" s="66"/>
+      <c r="BO9" s="66"/>
+      <c r="BP9" s="66"/>
+      <c r="BQ9" s="66"/>
+      <c r="BR9" s="67"/>
+      <c r="BS9" s="67"/>
+      <c r="BT9" s="67"/>
+      <c r="BU9" s="67"/>
+      <c r="BV9" s="67"/>
+      <c r="BW9" s="67"/>
+      <c r="BX9" s="67"/>
+      <c r="BY9" s="67"/>
+      <c r="BZ9" s="67"/>
+      <c r="CA9" s="67"/>
+      <c r="CB9" s="67"/>
+      <c r="CC9" s="67"/>
+      <c r="CD9" s="64"/>
+      <c r="CE9" s="64"/>
+      <c r="CF9" s="64"/>
+      <c r="CG9" s="64"/>
+      <c r="CH9" s="64"/>
+      <c r="CI9" s="64"/>
+      <c r="CJ9" s="67"/>
+      <c r="CK9" s="67"/>
+      <c r="CL9" s="67"/>
+      <c r="CM9" s="67"/>
+      <c r="CN9" s="67"/>
+      <c r="CO9" s="67"/>
+      <c r="CP9" s="68"/>
+      <c r="CQ9" s="68"/>
+      <c r="CR9" s="68"/>
+      <c r="CS9" s="68"/>
+      <c r="CT9" s="68"/>
+      <c r="CU9" s="68"/>
     </row>
     <row r="10" s="18" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="64"/>
-      <c r="AX10" s="64"/>
-      <c r="AY10" s="64"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="66"/>
-      <c r="BF10" s="66"/>
-      <c r="BG10" s="66"/>
-      <c r="BH10" s="66"/>
-      <c r="BI10" s="66"/>
-      <c r="BJ10" s="66"/>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="67"/>
-      <c r="BM10" s="67"/>
-      <c r="BN10" s="67"/>
-      <c r="BO10" s="67"/>
-      <c r="BP10" s="67"/>
-      <c r="BQ10" s="67"/>
-      <c r="BR10" s="68"/>
-      <c r="BS10" s="68"/>
-      <c r="BT10" s="68"/>
-      <c r="BU10" s="68"/>
-      <c r="BV10" s="68"/>
-      <c r="BW10" s="68"/>
-      <c r="BX10" s="68"/>
-      <c r="BY10" s="68"/>
-      <c r="BZ10" s="68"/>
-      <c r="CA10" s="68"/>
-      <c r="CB10" s="68"/>
-      <c r="CC10" s="68"/>
-      <c r="CD10" s="65"/>
-      <c r="CE10" s="65"/>
-      <c r="CF10" s="65"/>
-      <c r="CG10" s="65"/>
-      <c r="CH10" s="65"/>
-      <c r="CI10" s="65"/>
-      <c r="CJ10" s="68"/>
-      <c r="CK10" s="68"/>
-      <c r="CL10" s="68"/>
-      <c r="CM10" s="68"/>
-      <c r="CN10" s="68"/>
-      <c r="CO10" s="68"/>
-      <c r="CP10" s="69"/>
-      <c r="CQ10" s="69"/>
-      <c r="CR10" s="69"/>
-      <c r="CS10" s="69"/>
-      <c r="CT10" s="69"/>
-      <c r="CU10" s="69"/>
+      <c r="A10" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="63"/>
+      <c r="AM10" s="63"/>
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="63"/>
+      <c r="AP10" s="63"/>
+      <c r="AQ10" s="63"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="63"/>
+      <c r="AU10" s="63"/>
+      <c r="AV10" s="63"/>
+      <c r="AW10" s="63"/>
+      <c r="AX10" s="63"/>
+      <c r="AY10" s="63"/>
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="64"/>
+      <c r="BC10" s="64"/>
+      <c r="BD10" s="64"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="65"/>
+      <c r="BJ10" s="65"/>
+      <c r="BK10" s="65"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
+      <c r="BQ10" s="66"/>
+      <c r="BR10" s="67"/>
+      <c r="BS10" s="67"/>
+      <c r="BT10" s="67"/>
+      <c r="BU10" s="67"/>
+      <c r="BV10" s="67"/>
+      <c r="BW10" s="67"/>
+      <c r="BX10" s="67"/>
+      <c r="BY10" s="67"/>
+      <c r="BZ10" s="67"/>
+      <c r="CA10" s="67"/>
+      <c r="CB10" s="67"/>
+      <c r="CC10" s="67"/>
+      <c r="CD10" s="64"/>
+      <c r="CE10" s="64"/>
+      <c r="CF10" s="64"/>
+      <c r="CG10" s="64"/>
+      <c r="CH10" s="64"/>
+      <c r="CI10" s="64"/>
+      <c r="CJ10" s="67"/>
+      <c r="CK10" s="67"/>
+      <c r="CL10" s="67"/>
+      <c r="CM10" s="67"/>
+      <c r="CN10" s="67"/>
+      <c r="CO10" s="67"/>
+      <c r="CP10" s="68"/>
+      <c r="CQ10" s="68"/>
+      <c r="CR10" s="68"/>
+      <c r="CS10" s="68"/>
+      <c r="CT10" s="68"/>
+      <c r="CU10" s="68"/>
     </row>
     <row r="11" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="72" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AA12" s="36"/>
       <c r="AB12" s="36"/>
@@ -6330,7 +6002,7 @@
     </row>
     <row r="13" s="8" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA13" s="73" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AB13" s="73"/>
       <c r="AC13" s="73"/>
@@ -6407,7 +6079,7 @@
     </row>
     <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -6437,7 +6109,7 @@
       <c r="AA14" s="75"/>
       <c r="AB14" s="75"/>
       <c r="AC14" s="76" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AD14" s="76"/>
       <c r="AE14" s="76"/>
@@ -6513,10 +6185,10 @@
     <row r="15" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="C15" s="21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -6524,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -6542,16 +6214,16 @@
         <v>9</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y15" s="12"/>
       <c r="Z15" s="28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="77" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AD15" s="77"/>
       <c r="AE15" s="77"/>
@@ -6559,12 +6231,12 @@
       <c r="AG15" s="77"/>
       <c r="AH15" s="77"/>
       <c r="AJ15" s="28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AE16" s="78"/>
       <c r="AF16" s="79"/>
@@ -6840,7 +6512,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6853,7 +6525,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -6887,7 +6559,7 @@
       <c r="AQ19" s="36"/>
       <c r="AR19" s="36"/>
       <c r="AS19" s="27" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AU19" s="5"/>
       <c r="AV19" s="5"/>
@@ -6900,7 +6572,7 @@
       <c r="BC19" s="36"/>
       <c r="BD19" s="36"/>
       <c r="BE19" s="27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="BF19" s="5"/>
       <c r="BH19" s="5"/>
@@ -6957,7 +6629,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="80" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M20" s="36"/>
       <c r="N20" s="80"/>
@@ -7140,7 +6812,7 @@
     <row r="22" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -7169,7 +6841,7 @@
       <c r="Z23" s="82"/>
       <c r="AA23" s="82"/>
       <c r="AD23" s="36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AE23" s="36"/>
       <c r="AF23" s="36"/>
@@ -7252,7 +6924,7 @@
     </row>
     <row r="25" s="18" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -7281,7 +6953,7 @@
       <c r="Z25" s="36"/>
       <c r="AA25" s="36"/>
       <c r="AD25" s="36" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AE25" s="36"/>
       <c r="AF25" s="36"/>
@@ -7391,7 +7063,7 @@
       <c r="Z27" s="36"/>
       <c r="AA27" s="36"/>
       <c r="AD27" s="36" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AE27" s="36"/>
       <c r="AF27" s="36"/>
@@ -7501,7 +7173,7 @@
       <c r="Z29" s="36"/>
       <c r="AA29" s="36"/>
       <c r="AD29" s="36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AE29" s="36"/>
       <c r="AF29" s="36"/>
@@ -7611,7 +7283,7 @@
       <c r="Z31" s="36"/>
       <c r="AA31" s="36"/>
       <c r="AD31" s="36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AE31" s="36"/>
       <c r="AF31" s="36"/>
@@ -7721,7 +7393,7 @@
       <c r="Z33" s="36"/>
       <c r="AA33" s="36"/>
       <c r="AD33" s="36" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AE33" s="36"/>
       <c r="AF33" s="36"/>
@@ -8014,7 +7686,7 @@
     <row r="38" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="87" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B39" s="87"/>
       <c r="C39" s="87"/>
@@ -8061,7 +7733,7 @@
       <c r="AR39" s="87"/>
       <c r="AS39" s="87"/>
       <c r="BC39" s="87" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="BD39" s="87"/>
       <c r="BE39" s="87"/>
@@ -8157,7 +7829,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="89" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B41" s="89"/>
       <c r="C41" s="89"/>
@@ -8189,7 +7861,7 @@
       <c r="AC41" s="89"/>
       <c r="AD41" s="89"/>
       <c r="AE41" s="90" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AF41" s="90"/>
       <c r="AG41" s="90"/>
@@ -8206,7 +7878,7 @@
       <c r="AR41" s="90"/>
       <c r="AS41" s="90"/>
       <c r="BC41" s="91" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="BD41" s="91"/>
       <c r="BE41" s="91"/>
@@ -8255,7 +7927,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B42" s="89"/>
       <c r="C42" s="89"/>
@@ -8272,7 +7944,7 @@
       <c r="N42" s="89"/>
       <c r="O42" s="89"/>
       <c r="P42" s="92" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q42" s="92"/>
       <c r="R42" s="92"/>
@@ -8350,36 +8022,36 @@
       <c r="CU42" s="91"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="64"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="64"/>
-      <c r="W43" s="64"/>
-      <c r="X43" s="64"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="64"/>
-      <c r="AA43" s="64"/>
-      <c r="AB43" s="64"/>
-      <c r="AC43" s="64"/>
-      <c r="AD43" s="64"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="63"/>
       <c r="AE43" s="94"/>
       <c r="AF43" s="94"/>
       <c r="AG43" s="94"/>
@@ -8396,7 +8068,7 @@
       <c r="AR43" s="94"/>
       <c r="AS43" s="94"/>
       <c r="BC43" s="95" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BD43" s="95"/>
       <c r="BE43" s="95"/>
@@ -8421,7 +8093,7 @@
       <c r="BX43" s="95"/>
       <c r="BY43" s="95"/>
       <c r="BZ43" s="96" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="CA43" s="96"/>
       <c r="CB43" s="96"/>
@@ -8446,36 +8118,36 @@
       <c r="CU43" s="96"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="64"/>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
-      <c r="AA44" s="64"/>
-      <c r="AB44" s="64"/>
-      <c r="AC44" s="64"/>
-      <c r="AD44" s="64"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
+      <c r="Z44" s="63"/>
+      <c r="AA44" s="63"/>
+      <c r="AB44" s="63"/>
+      <c r="AC44" s="63"/>
+      <c r="AD44" s="63"/>
       <c r="AE44" s="94"/>
       <c r="AF44" s="94"/>
       <c r="AG44" s="94"/>
@@ -8492,7 +8164,7 @@
       <c r="AR44" s="94"/>
       <c r="AS44" s="94"/>
       <c r="BC44" s="95" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="BD44" s="95"/>
       <c r="BE44" s="95"/>
@@ -8543,58 +8215,58 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC45" s="63"/>
-      <c r="BD45" s="63"/>
-      <c r="BE45" s="63"/>
-      <c r="BF45" s="63"/>
-      <c r="BG45" s="63"/>
-      <c r="BH45" s="63"/>
-      <c r="BI45" s="63"/>
-      <c r="BJ45" s="63"/>
-      <c r="BK45" s="63"/>
-      <c r="BL45" s="63"/>
-      <c r="BM45" s="63"/>
-      <c r="BN45" s="63"/>
-      <c r="BO45" s="63"/>
-      <c r="BP45" s="63"/>
-      <c r="BQ45" s="63"/>
-      <c r="BR45" s="63"/>
-      <c r="BS45" s="63"/>
-      <c r="BT45" s="63"/>
-      <c r="BU45" s="63"/>
-      <c r="BV45" s="63"/>
-      <c r="BW45" s="63"/>
-      <c r="BX45" s="63"/>
-      <c r="BY45" s="63"/>
-      <c r="BZ45" s="69"/>
-      <c r="CA45" s="69"/>
-      <c r="CB45" s="69"/>
-      <c r="CC45" s="69"/>
-      <c r="CD45" s="69"/>
-      <c r="CE45" s="69"/>
-      <c r="CF45" s="69"/>
-      <c r="CG45" s="69"/>
-      <c r="CH45" s="69"/>
-      <c r="CI45" s="69"/>
-      <c r="CJ45" s="69"/>
-      <c r="CK45" s="69"/>
-      <c r="CL45" s="69"/>
-      <c r="CM45" s="69"/>
-      <c r="CN45" s="69"/>
-      <c r="CO45" s="69"/>
-      <c r="CP45" s="69"/>
-      <c r="CQ45" s="69"/>
-      <c r="CR45" s="69"/>
-      <c r="CS45" s="69"/>
-      <c r="CT45" s="69"/>
-      <c r="CU45" s="69"/>
+        <v>114</v>
+      </c>
+      <c r="BC45" s="69"/>
+      <c r="BD45" s="69"/>
+      <c r="BE45" s="69"/>
+      <c r="BF45" s="69"/>
+      <c r="BG45" s="69"/>
+      <c r="BH45" s="69"/>
+      <c r="BI45" s="69"/>
+      <c r="BJ45" s="69"/>
+      <c r="BK45" s="69"/>
+      <c r="BL45" s="69"/>
+      <c r="BM45" s="69"/>
+      <c r="BN45" s="69"/>
+      <c r="BO45" s="69"/>
+      <c r="BP45" s="69"/>
+      <c r="BQ45" s="69"/>
+      <c r="BR45" s="69"/>
+      <c r="BS45" s="69"/>
+      <c r="BT45" s="69"/>
+      <c r="BU45" s="69"/>
+      <c r="BV45" s="69"/>
+      <c r="BW45" s="69"/>
+      <c r="BX45" s="69"/>
+      <c r="BY45" s="69"/>
+      <c r="BZ45" s="68"/>
+      <c r="CA45" s="68"/>
+      <c r="CB45" s="68"/>
+      <c r="CC45" s="68"/>
+      <c r="CD45" s="68"/>
+      <c r="CE45" s="68"/>
+      <c r="CF45" s="68"/>
+      <c r="CG45" s="68"/>
+      <c r="CH45" s="68"/>
+      <c r="CI45" s="68"/>
+      <c r="CJ45" s="68"/>
+      <c r="CK45" s="68"/>
+      <c r="CL45" s="68"/>
+      <c r="CM45" s="68"/>
+      <c r="CN45" s="68"/>
+      <c r="CO45" s="68"/>
+      <c r="CP45" s="68"/>
+      <c r="CQ45" s="68"/>
+      <c r="CR45" s="68"/>
+      <c r="CS45" s="68"/>
+      <c r="CT45" s="68"/>
+      <c r="CU45" s="68"/>
     </row>
     <row r="46" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -8641,7 +8313,7 @@
       <c r="AR47" s="36"/>
       <c r="AS47" s="36"/>
       <c r="BC47" s="28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="BL47" s="36"/>
       <c r="BM47" s="36"/>
@@ -8690,7 +8362,7 @@
       <c r="G48" s="85"/>
       <c r="H48" s="85"/>
       <c r="I48" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -8733,10 +8405,10 @@
       <c r="AR48" s="37"/>
       <c r="AS48" s="37"/>
       <c r="BC48" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BL48" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="BM48" s="10"/>
       <c r="BN48" s="10"/>

--- a/Sklad3/templates/rs_0504104.xlsx
+++ b/Sklad3/templates/rs_0504104.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -384,12 +384,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -411,6 +412,87 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Cyr"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Cyr"/>
       <family val="0"/>
       <charset val="204"/>
     </font>
@@ -493,20 +575,77 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -706,7 +845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -730,357 +869,161 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1088,55 +1031,391 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1148,14 +1427,16 @@
   </sheetPr>
   <dimension ref="A1:CU43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE33" activeCellId="1" sqref="BE9:BQ10 BE33"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AZ41" activeCellId="0" sqref="AZ41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="1" style="1" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="6.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="56" style="1" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3490,89 +3771,92 @@
       <c r="AK33" s="63"/>
       <c r="AL33" s="63"/>
       <c r="AM33" s="63"/>
-      <c r="AN33" s="63"/>
-      <c r="AO33" s="63"/>
-      <c r="AP33" s="63"/>
-      <c r="AQ33" s="63"/>
-      <c r="AR33" s="63"/>
-      <c r="AS33" s="63"/>
+      <c r="AN33" s="64"/>
+      <c r="AO33" s="64"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
       <c r="AT33" s="63"/>
       <c r="AU33" s="63"/>
       <c r="AV33" s="63"/>
       <c r="AW33" s="63"/>
       <c r="AX33" s="63"/>
       <c r="AY33" s="63"/>
-      <c r="AZ33" s="64"/>
-      <c r="BA33" s="64"/>
-      <c r="BB33" s="64"/>
-      <c r="BC33" s="64"/>
-      <c r="BD33" s="64"/>
-      <c r="BE33" s="65" t="s">
+      <c r="AZ33" s="65" t="str">
+        <f aca="true">IF(AT33,DATEDIF(AT33,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA33" s="65"/>
+      <c r="BB33" s="65"/>
+      <c r="BC33" s="65"/>
+      <c r="BD33" s="65"/>
+      <c r="BE33" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="BF33" s="65"/>
-      <c r="BG33" s="65"/>
-      <c r="BH33" s="65"/>
-      <c r="BI33" s="65"/>
-      <c r="BJ33" s="65"/>
-      <c r="BK33" s="65"/>
-      <c r="BL33" s="66" t="s">
+      <c r="BF33" s="66"/>
+      <c r="BG33" s="66"/>
+      <c r="BH33" s="66"/>
+      <c r="BI33" s="66"/>
+      <c r="BJ33" s="66"/>
+      <c r="BK33" s="66"/>
+      <c r="BL33" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="BM33" s="66"/>
-      <c r="BN33" s="66"/>
-      <c r="BO33" s="66"/>
-      <c r="BP33" s="66"/>
-      <c r="BQ33" s="66"/>
-      <c r="BR33" s="67"/>
-      <c r="BS33" s="67"/>
-      <c r="BT33" s="67"/>
-      <c r="BU33" s="67"/>
-      <c r="BV33" s="67"/>
-      <c r="BW33" s="67"/>
-      <c r="BX33" s="67"/>
-      <c r="BY33" s="67"/>
-      <c r="BZ33" s="67"/>
-      <c r="CA33" s="67"/>
-      <c r="CB33" s="67"/>
-      <c r="CC33" s="67"/>
-      <c r="CD33" s="64"/>
-      <c r="CE33" s="64"/>
-      <c r="CF33" s="64"/>
-      <c r="CG33" s="64"/>
-      <c r="CH33" s="64"/>
-      <c r="CI33" s="64"/>
-      <c r="CJ33" s="67"/>
-      <c r="CK33" s="67"/>
-      <c r="CL33" s="67"/>
-      <c r="CM33" s="67"/>
-      <c r="CN33" s="67"/>
-      <c r="CO33" s="67"/>
-      <c r="CP33" s="68"/>
-      <c r="CQ33" s="68"/>
-      <c r="CR33" s="68"/>
-      <c r="CS33" s="68"/>
-      <c r="CT33" s="68"/>
-      <c r="CU33" s="68"/>
+      <c r="BM33" s="67"/>
+      <c r="BN33" s="67"/>
+      <c r="BO33" s="67"/>
+      <c r="BP33" s="67"/>
+      <c r="BQ33" s="67"/>
+      <c r="BR33" s="68"/>
+      <c r="BS33" s="68"/>
+      <c r="BT33" s="68"/>
+      <c r="BU33" s="68"/>
+      <c r="BV33" s="68"/>
+      <c r="BW33" s="68"/>
+      <c r="BX33" s="68"/>
+      <c r="BY33" s="68"/>
+      <c r="BZ33" s="68"/>
+      <c r="CA33" s="68"/>
+      <c r="CB33" s="68"/>
+      <c r="CC33" s="68"/>
+      <c r="CD33" s="69"/>
+      <c r="CE33" s="69"/>
+      <c r="CF33" s="69"/>
+      <c r="CG33" s="69"/>
+      <c r="CH33" s="69"/>
+      <c r="CI33" s="69"/>
+      <c r="CJ33" s="68"/>
+      <c r="CK33" s="68"/>
+      <c r="CL33" s="68"/>
+      <c r="CM33" s="68"/>
+      <c r="CN33" s="68"/>
+      <c r="CO33" s="68"/>
+      <c r="CP33" s="70"/>
+      <c r="CQ33" s="70"/>
+      <c r="CR33" s="70"/>
+      <c r="CS33" s="70"/>
+      <c r="CT33" s="70"/>
+      <c r="CU33" s="70"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
       <c r="R34" s="63"/>
       <c r="S34" s="63"/>
       <c r="T34" s="63"/>
@@ -3607,73 +3891,76 @@
       <c r="AW34" s="63"/>
       <c r="AX34" s="63"/>
       <c r="AY34" s="63"/>
-      <c r="AZ34" s="64"/>
-      <c r="BA34" s="64"/>
-      <c r="BB34" s="64"/>
-      <c r="BC34" s="64"/>
-      <c r="BD34" s="64"/>
-      <c r="BE34" s="65"/>
-      <c r="BF34" s="65"/>
-      <c r="BG34" s="65"/>
-      <c r="BH34" s="65"/>
-      <c r="BI34" s="65"/>
-      <c r="BJ34" s="65"/>
-      <c r="BK34" s="65"/>
-      <c r="BL34" s="66"/>
-      <c r="BM34" s="66"/>
-      <c r="BN34" s="66"/>
-      <c r="BO34" s="66"/>
-      <c r="BP34" s="66"/>
-      <c r="BQ34" s="66"/>
-      <c r="BR34" s="67"/>
-      <c r="BS34" s="67"/>
-      <c r="BT34" s="67"/>
-      <c r="BU34" s="67"/>
-      <c r="BV34" s="67"/>
-      <c r="BW34" s="67"/>
-      <c r="BX34" s="67"/>
-      <c r="BY34" s="67"/>
-      <c r="BZ34" s="67"/>
-      <c r="CA34" s="67"/>
-      <c r="CB34" s="67"/>
-      <c r="CC34" s="67"/>
-      <c r="CD34" s="64"/>
-      <c r="CE34" s="64"/>
-      <c r="CF34" s="64"/>
-      <c r="CG34" s="64"/>
-      <c r="CH34" s="64"/>
-      <c r="CI34" s="64"/>
-      <c r="CJ34" s="67"/>
-      <c r="CK34" s="67"/>
-      <c r="CL34" s="67"/>
-      <c r="CM34" s="67"/>
-      <c r="CN34" s="67"/>
-      <c r="CO34" s="67"/>
-      <c r="CP34" s="68"/>
-      <c r="CQ34" s="68"/>
-      <c r="CR34" s="68"/>
-      <c r="CS34" s="68"/>
-      <c r="CT34" s="68"/>
-      <c r="CU34" s="68"/>
+      <c r="AZ34" s="69" t="str">
+        <f aca="true">IF(AN34,DATEDIF(AN34,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA34" s="69"/>
+      <c r="BB34" s="69"/>
+      <c r="BC34" s="69"/>
+      <c r="BD34" s="69"/>
+      <c r="BE34" s="66"/>
+      <c r="BF34" s="66"/>
+      <c r="BG34" s="66"/>
+      <c r="BH34" s="66"/>
+      <c r="BI34" s="66"/>
+      <c r="BJ34" s="66"/>
+      <c r="BK34" s="66"/>
+      <c r="BL34" s="67"/>
+      <c r="BM34" s="67"/>
+      <c r="BN34" s="67"/>
+      <c r="BO34" s="67"/>
+      <c r="BP34" s="67"/>
+      <c r="BQ34" s="67"/>
+      <c r="BR34" s="68"/>
+      <c r="BS34" s="68"/>
+      <c r="BT34" s="68"/>
+      <c r="BU34" s="68"/>
+      <c r="BV34" s="68"/>
+      <c r="BW34" s="68"/>
+      <c r="BX34" s="68"/>
+      <c r="BY34" s="68"/>
+      <c r="BZ34" s="68"/>
+      <c r="CA34" s="68"/>
+      <c r="CB34" s="68"/>
+      <c r="CC34" s="68"/>
+      <c r="CD34" s="69"/>
+      <c r="CE34" s="69"/>
+      <c r="CF34" s="69"/>
+      <c r="CG34" s="69"/>
+      <c r="CH34" s="69"/>
+      <c r="CI34" s="69"/>
+      <c r="CJ34" s="68"/>
+      <c r="CK34" s="68"/>
+      <c r="CL34" s="68"/>
+      <c r="CM34" s="68"/>
+      <c r="CN34" s="68"/>
+      <c r="CO34" s="68"/>
+      <c r="CP34" s="70"/>
+      <c r="CQ34" s="70"/>
+      <c r="CR34" s="70"/>
+      <c r="CS34" s="70"/>
+      <c r="CT34" s="70"/>
+      <c r="CU34" s="70"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
       <c r="R35" s="63"/>
       <c r="S35" s="63"/>
       <c r="T35" s="63"/>
@@ -3708,73 +3995,76 @@
       <c r="AW35" s="63"/>
       <c r="AX35" s="63"/>
       <c r="AY35" s="63"/>
-      <c r="AZ35" s="64"/>
-      <c r="BA35" s="64"/>
-      <c r="BB35" s="64"/>
-      <c r="BC35" s="64"/>
-      <c r="BD35" s="64"/>
-      <c r="BE35" s="65"/>
-      <c r="BF35" s="65"/>
-      <c r="BG35" s="65"/>
-      <c r="BH35" s="65"/>
-      <c r="BI35" s="65"/>
-      <c r="BJ35" s="65"/>
-      <c r="BK35" s="65"/>
-      <c r="BL35" s="66"/>
-      <c r="BM35" s="66"/>
-      <c r="BN35" s="66"/>
-      <c r="BO35" s="66"/>
-      <c r="BP35" s="66"/>
-      <c r="BQ35" s="66"/>
-      <c r="BR35" s="67"/>
-      <c r="BS35" s="67"/>
-      <c r="BT35" s="67"/>
-      <c r="BU35" s="67"/>
-      <c r="BV35" s="67"/>
-      <c r="BW35" s="67"/>
-      <c r="BX35" s="67"/>
-      <c r="BY35" s="67"/>
-      <c r="BZ35" s="67"/>
-      <c r="CA35" s="67"/>
-      <c r="CB35" s="67"/>
-      <c r="CC35" s="67"/>
-      <c r="CD35" s="64"/>
-      <c r="CE35" s="64"/>
-      <c r="CF35" s="64"/>
-      <c r="CG35" s="64"/>
-      <c r="CH35" s="64"/>
-      <c r="CI35" s="64"/>
-      <c r="CJ35" s="67"/>
-      <c r="CK35" s="67"/>
-      <c r="CL35" s="67"/>
-      <c r="CM35" s="67"/>
-      <c r="CN35" s="67"/>
-      <c r="CO35" s="67"/>
-      <c r="CP35" s="68"/>
-      <c r="CQ35" s="68"/>
-      <c r="CR35" s="68"/>
-      <c r="CS35" s="68"/>
-      <c r="CT35" s="68"/>
-      <c r="CU35" s="68"/>
+      <c r="AZ35" s="69" t="str">
+        <f aca="true">IF(AN35,DATEDIF(AN35,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA35" s="69"/>
+      <c r="BB35" s="69"/>
+      <c r="BC35" s="69"/>
+      <c r="BD35" s="69"/>
+      <c r="BE35" s="66"/>
+      <c r="BF35" s="66"/>
+      <c r="BG35" s="66"/>
+      <c r="BH35" s="66"/>
+      <c r="BI35" s="66"/>
+      <c r="BJ35" s="66"/>
+      <c r="BK35" s="66"/>
+      <c r="BL35" s="67"/>
+      <c r="BM35" s="67"/>
+      <c r="BN35" s="67"/>
+      <c r="BO35" s="67"/>
+      <c r="BP35" s="67"/>
+      <c r="BQ35" s="67"/>
+      <c r="BR35" s="68"/>
+      <c r="BS35" s="68"/>
+      <c r="BT35" s="68"/>
+      <c r="BU35" s="68"/>
+      <c r="BV35" s="68"/>
+      <c r="BW35" s="68"/>
+      <c r="BX35" s="68"/>
+      <c r="BY35" s="68"/>
+      <c r="BZ35" s="68"/>
+      <c r="CA35" s="68"/>
+      <c r="CB35" s="68"/>
+      <c r="CC35" s="68"/>
+      <c r="CD35" s="69"/>
+      <c r="CE35" s="69"/>
+      <c r="CF35" s="69"/>
+      <c r="CG35" s="69"/>
+      <c r="CH35" s="69"/>
+      <c r="CI35" s="69"/>
+      <c r="CJ35" s="68"/>
+      <c r="CK35" s="68"/>
+      <c r="CL35" s="68"/>
+      <c r="CM35" s="68"/>
+      <c r="CN35" s="68"/>
+      <c r="CO35" s="68"/>
+      <c r="CP35" s="70"/>
+      <c r="CQ35" s="70"/>
+      <c r="CR35" s="70"/>
+      <c r="CS35" s="70"/>
+      <c r="CT35" s="70"/>
+      <c r="CU35" s="70"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
       <c r="R36" s="63"/>
       <c r="S36" s="63"/>
       <c r="T36" s="63"/>
@@ -3809,73 +4099,76 @@
       <c r="AW36" s="63"/>
       <c r="AX36" s="63"/>
       <c r="AY36" s="63"/>
-      <c r="AZ36" s="64"/>
-      <c r="BA36" s="64"/>
-      <c r="BB36" s="64"/>
-      <c r="BC36" s="64"/>
-      <c r="BD36" s="64"/>
-      <c r="BE36" s="65"/>
-      <c r="BF36" s="65"/>
-      <c r="BG36" s="65"/>
-      <c r="BH36" s="65"/>
-      <c r="BI36" s="65"/>
-      <c r="BJ36" s="65"/>
-      <c r="BK36" s="65"/>
-      <c r="BL36" s="66"/>
-      <c r="BM36" s="66"/>
-      <c r="BN36" s="66"/>
-      <c r="BO36" s="66"/>
-      <c r="BP36" s="66"/>
-      <c r="BQ36" s="66"/>
-      <c r="BR36" s="67"/>
-      <c r="BS36" s="67"/>
-      <c r="BT36" s="67"/>
-      <c r="BU36" s="67"/>
-      <c r="BV36" s="67"/>
-      <c r="BW36" s="67"/>
-      <c r="BX36" s="67"/>
-      <c r="BY36" s="67"/>
-      <c r="BZ36" s="67"/>
-      <c r="CA36" s="67"/>
-      <c r="CB36" s="67"/>
-      <c r="CC36" s="67"/>
-      <c r="CD36" s="64"/>
-      <c r="CE36" s="64"/>
-      <c r="CF36" s="64"/>
-      <c r="CG36" s="64"/>
-      <c r="CH36" s="64"/>
-      <c r="CI36" s="64"/>
-      <c r="CJ36" s="67"/>
-      <c r="CK36" s="67"/>
-      <c r="CL36" s="67"/>
-      <c r="CM36" s="67"/>
-      <c r="CN36" s="67"/>
-      <c r="CO36" s="67"/>
-      <c r="CP36" s="68"/>
-      <c r="CQ36" s="68"/>
-      <c r="CR36" s="68"/>
-      <c r="CS36" s="68"/>
-      <c r="CT36" s="68"/>
-      <c r="CU36" s="68"/>
+      <c r="AZ36" s="69" t="str">
+        <f aca="true">IF(AN36,DATEDIF(AN36,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA36" s="69"/>
+      <c r="BB36" s="69"/>
+      <c r="BC36" s="69"/>
+      <c r="BD36" s="69"/>
+      <c r="BE36" s="66"/>
+      <c r="BF36" s="66"/>
+      <c r="BG36" s="66"/>
+      <c r="BH36" s="66"/>
+      <c r="BI36" s="66"/>
+      <c r="BJ36" s="66"/>
+      <c r="BK36" s="66"/>
+      <c r="BL36" s="67"/>
+      <c r="BM36" s="67"/>
+      <c r="BN36" s="67"/>
+      <c r="BO36" s="67"/>
+      <c r="BP36" s="67"/>
+      <c r="BQ36" s="67"/>
+      <c r="BR36" s="68"/>
+      <c r="BS36" s="68"/>
+      <c r="BT36" s="68"/>
+      <c r="BU36" s="68"/>
+      <c r="BV36" s="68"/>
+      <c r="BW36" s="68"/>
+      <c r="BX36" s="68"/>
+      <c r="BY36" s="68"/>
+      <c r="BZ36" s="68"/>
+      <c r="CA36" s="68"/>
+      <c r="CB36" s="68"/>
+      <c r="CC36" s="68"/>
+      <c r="CD36" s="69"/>
+      <c r="CE36" s="69"/>
+      <c r="CF36" s="69"/>
+      <c r="CG36" s="69"/>
+      <c r="CH36" s="69"/>
+      <c r="CI36" s="69"/>
+      <c r="CJ36" s="68"/>
+      <c r="CK36" s="68"/>
+      <c r="CL36" s="68"/>
+      <c r="CM36" s="68"/>
+      <c r="CN36" s="68"/>
+      <c r="CO36" s="68"/>
+      <c r="CP36" s="70"/>
+      <c r="CQ36" s="70"/>
+      <c r="CR36" s="70"/>
+      <c r="CS36" s="70"/>
+      <c r="CT36" s="70"/>
+      <c r="CU36" s="70"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="69"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
       <c r="R37" s="63"/>
       <c r="S37" s="63"/>
       <c r="T37" s="63"/>
@@ -3910,73 +4203,76 @@
       <c r="AW37" s="63"/>
       <c r="AX37" s="63"/>
       <c r="AY37" s="63"/>
-      <c r="AZ37" s="64"/>
-      <c r="BA37" s="64"/>
-      <c r="BB37" s="64"/>
-      <c r="BC37" s="64"/>
-      <c r="BD37" s="64"/>
-      <c r="BE37" s="65"/>
-      <c r="BF37" s="65"/>
-      <c r="BG37" s="65"/>
-      <c r="BH37" s="65"/>
-      <c r="BI37" s="65"/>
-      <c r="BJ37" s="65"/>
-      <c r="BK37" s="65"/>
-      <c r="BL37" s="66"/>
-      <c r="BM37" s="66"/>
-      <c r="BN37" s="66"/>
-      <c r="BO37" s="66"/>
-      <c r="BP37" s="66"/>
-      <c r="BQ37" s="66"/>
-      <c r="BR37" s="67"/>
-      <c r="BS37" s="67"/>
-      <c r="BT37" s="67"/>
-      <c r="BU37" s="67"/>
-      <c r="BV37" s="67"/>
-      <c r="BW37" s="67"/>
-      <c r="BX37" s="67"/>
-      <c r="BY37" s="67"/>
-      <c r="BZ37" s="67"/>
-      <c r="CA37" s="67"/>
-      <c r="CB37" s="67"/>
-      <c r="CC37" s="67"/>
-      <c r="CD37" s="64"/>
-      <c r="CE37" s="64"/>
-      <c r="CF37" s="64"/>
-      <c r="CG37" s="64"/>
-      <c r="CH37" s="64"/>
-      <c r="CI37" s="64"/>
-      <c r="CJ37" s="67"/>
-      <c r="CK37" s="67"/>
-      <c r="CL37" s="67"/>
-      <c r="CM37" s="67"/>
-      <c r="CN37" s="67"/>
-      <c r="CO37" s="67"/>
-      <c r="CP37" s="68"/>
-      <c r="CQ37" s="68"/>
-      <c r="CR37" s="68"/>
-      <c r="CS37" s="68"/>
-      <c r="CT37" s="68"/>
-      <c r="CU37" s="68"/>
+      <c r="AZ37" s="69" t="str">
+        <f aca="true">IF(AN37,DATEDIF(AN37,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA37" s="69"/>
+      <c r="BB37" s="69"/>
+      <c r="BC37" s="69"/>
+      <c r="BD37" s="69"/>
+      <c r="BE37" s="66"/>
+      <c r="BF37" s="66"/>
+      <c r="BG37" s="66"/>
+      <c r="BH37" s="66"/>
+      <c r="BI37" s="66"/>
+      <c r="BJ37" s="66"/>
+      <c r="BK37" s="66"/>
+      <c r="BL37" s="67"/>
+      <c r="BM37" s="67"/>
+      <c r="BN37" s="67"/>
+      <c r="BO37" s="67"/>
+      <c r="BP37" s="67"/>
+      <c r="BQ37" s="67"/>
+      <c r="BR37" s="68"/>
+      <c r="BS37" s="68"/>
+      <c r="BT37" s="68"/>
+      <c r="BU37" s="68"/>
+      <c r="BV37" s="68"/>
+      <c r="BW37" s="68"/>
+      <c r="BX37" s="68"/>
+      <c r="BY37" s="68"/>
+      <c r="BZ37" s="68"/>
+      <c r="CA37" s="68"/>
+      <c r="CB37" s="68"/>
+      <c r="CC37" s="68"/>
+      <c r="CD37" s="69"/>
+      <c r="CE37" s="69"/>
+      <c r="CF37" s="69"/>
+      <c r="CG37" s="69"/>
+      <c r="CH37" s="69"/>
+      <c r="CI37" s="69"/>
+      <c r="CJ37" s="68"/>
+      <c r="CK37" s="68"/>
+      <c r="CL37" s="68"/>
+      <c r="CM37" s="68"/>
+      <c r="CN37" s="68"/>
+      <c r="CO37" s="68"/>
+      <c r="CP37" s="70"/>
+      <c r="CQ37" s="70"/>
+      <c r="CR37" s="70"/>
+      <c r="CS37" s="70"/>
+      <c r="CT37" s="70"/>
+      <c r="CU37" s="70"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
       <c r="R38" s="63"/>
       <c r="S38" s="63"/>
       <c r="T38" s="63"/>
@@ -4011,73 +4307,76 @@
       <c r="AW38" s="63"/>
       <c r="AX38" s="63"/>
       <c r="AY38" s="63"/>
-      <c r="AZ38" s="64"/>
-      <c r="BA38" s="64"/>
-      <c r="BB38" s="64"/>
-      <c r="BC38" s="64"/>
-      <c r="BD38" s="64"/>
-      <c r="BE38" s="65"/>
-      <c r="BF38" s="65"/>
-      <c r="BG38" s="65"/>
-      <c r="BH38" s="65"/>
-      <c r="BI38" s="65"/>
-      <c r="BJ38" s="65"/>
-      <c r="BK38" s="65"/>
-      <c r="BL38" s="66"/>
-      <c r="BM38" s="66"/>
-      <c r="BN38" s="66"/>
-      <c r="BO38" s="66"/>
-      <c r="BP38" s="66"/>
-      <c r="BQ38" s="66"/>
-      <c r="BR38" s="67"/>
-      <c r="BS38" s="67"/>
-      <c r="BT38" s="67"/>
-      <c r="BU38" s="67"/>
-      <c r="BV38" s="67"/>
-      <c r="BW38" s="67"/>
-      <c r="BX38" s="67"/>
-      <c r="BY38" s="67"/>
-      <c r="BZ38" s="67"/>
-      <c r="CA38" s="67"/>
-      <c r="CB38" s="67"/>
-      <c r="CC38" s="67"/>
-      <c r="CD38" s="64"/>
-      <c r="CE38" s="64"/>
-      <c r="CF38" s="64"/>
-      <c r="CG38" s="64"/>
-      <c r="CH38" s="64"/>
-      <c r="CI38" s="64"/>
-      <c r="CJ38" s="67"/>
-      <c r="CK38" s="67"/>
-      <c r="CL38" s="67"/>
-      <c r="CM38" s="67"/>
-      <c r="CN38" s="67"/>
-      <c r="CO38" s="67"/>
-      <c r="CP38" s="68"/>
-      <c r="CQ38" s="68"/>
-      <c r="CR38" s="68"/>
-      <c r="CS38" s="68"/>
-      <c r="CT38" s="68"/>
-      <c r="CU38" s="68"/>
+      <c r="AZ38" s="69" t="str">
+        <f aca="true">IF(AN38,DATEDIF(AN38,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA38" s="69"/>
+      <c r="BB38" s="69"/>
+      <c r="BC38" s="69"/>
+      <c r="BD38" s="69"/>
+      <c r="BE38" s="66"/>
+      <c r="BF38" s="66"/>
+      <c r="BG38" s="66"/>
+      <c r="BH38" s="66"/>
+      <c r="BI38" s="66"/>
+      <c r="BJ38" s="66"/>
+      <c r="BK38" s="66"/>
+      <c r="BL38" s="67"/>
+      <c r="BM38" s="67"/>
+      <c r="BN38" s="67"/>
+      <c r="BO38" s="67"/>
+      <c r="BP38" s="67"/>
+      <c r="BQ38" s="67"/>
+      <c r="BR38" s="68"/>
+      <c r="BS38" s="68"/>
+      <c r="BT38" s="68"/>
+      <c r="BU38" s="68"/>
+      <c r="BV38" s="68"/>
+      <c r="BW38" s="68"/>
+      <c r="BX38" s="68"/>
+      <c r="BY38" s="68"/>
+      <c r="BZ38" s="68"/>
+      <c r="CA38" s="68"/>
+      <c r="CB38" s="68"/>
+      <c r="CC38" s="68"/>
+      <c r="CD38" s="69"/>
+      <c r="CE38" s="69"/>
+      <c r="CF38" s="69"/>
+      <c r="CG38" s="69"/>
+      <c r="CH38" s="69"/>
+      <c r="CI38" s="69"/>
+      <c r="CJ38" s="68"/>
+      <c r="CK38" s="68"/>
+      <c r="CL38" s="68"/>
+      <c r="CM38" s="68"/>
+      <c r="CN38" s="68"/>
+      <c r="CO38" s="68"/>
+      <c r="CP38" s="70"/>
+      <c r="CQ38" s="70"/>
+      <c r="CR38" s="70"/>
+      <c r="CS38" s="70"/>
+      <c r="CT38" s="70"/>
+      <c r="CU38" s="70"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="69"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
       <c r="R39" s="63"/>
       <c r="S39" s="63"/>
       <c r="T39" s="63"/>
@@ -4112,73 +4411,76 @@
       <c r="AW39" s="63"/>
       <c r="AX39" s="63"/>
       <c r="AY39" s="63"/>
-      <c r="AZ39" s="64"/>
-      <c r="BA39" s="64"/>
-      <c r="BB39" s="64"/>
-      <c r="BC39" s="64"/>
-      <c r="BD39" s="64"/>
-      <c r="BE39" s="65"/>
-      <c r="BF39" s="65"/>
-      <c r="BG39" s="65"/>
-      <c r="BH39" s="65"/>
-      <c r="BI39" s="65"/>
-      <c r="BJ39" s="65"/>
-      <c r="BK39" s="65"/>
-      <c r="BL39" s="66"/>
-      <c r="BM39" s="66"/>
-      <c r="BN39" s="66"/>
-      <c r="BO39" s="66"/>
-      <c r="BP39" s="66"/>
-      <c r="BQ39" s="66"/>
-      <c r="BR39" s="67"/>
-      <c r="BS39" s="67"/>
-      <c r="BT39" s="67"/>
-      <c r="BU39" s="67"/>
-      <c r="BV39" s="67"/>
-      <c r="BW39" s="67"/>
-      <c r="BX39" s="67"/>
-      <c r="BY39" s="67"/>
-      <c r="BZ39" s="67"/>
-      <c r="CA39" s="67"/>
-      <c r="CB39" s="67"/>
-      <c r="CC39" s="67"/>
-      <c r="CD39" s="64"/>
-      <c r="CE39" s="64"/>
-      <c r="CF39" s="64"/>
-      <c r="CG39" s="64"/>
-      <c r="CH39" s="64"/>
-      <c r="CI39" s="64"/>
-      <c r="CJ39" s="67"/>
-      <c r="CK39" s="67"/>
-      <c r="CL39" s="67"/>
-      <c r="CM39" s="67"/>
-      <c r="CN39" s="67"/>
-      <c r="CO39" s="67"/>
-      <c r="CP39" s="68"/>
-      <c r="CQ39" s="68"/>
-      <c r="CR39" s="68"/>
-      <c r="CS39" s="68"/>
-      <c r="CT39" s="68"/>
-      <c r="CU39" s="68"/>
+      <c r="AZ39" s="69" t="str">
+        <f aca="true">IF(AN39,DATEDIF(AN39,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA39" s="69"/>
+      <c r="BB39" s="69"/>
+      <c r="BC39" s="69"/>
+      <c r="BD39" s="69"/>
+      <c r="BE39" s="66"/>
+      <c r="BF39" s="66"/>
+      <c r="BG39" s="66"/>
+      <c r="BH39" s="66"/>
+      <c r="BI39" s="66"/>
+      <c r="BJ39" s="66"/>
+      <c r="BK39" s="66"/>
+      <c r="BL39" s="67"/>
+      <c r="BM39" s="67"/>
+      <c r="BN39" s="67"/>
+      <c r="BO39" s="67"/>
+      <c r="BP39" s="67"/>
+      <c r="BQ39" s="67"/>
+      <c r="BR39" s="68"/>
+      <c r="BS39" s="68"/>
+      <c r="BT39" s="68"/>
+      <c r="BU39" s="68"/>
+      <c r="BV39" s="68"/>
+      <c r="BW39" s="68"/>
+      <c r="BX39" s="68"/>
+      <c r="BY39" s="68"/>
+      <c r="BZ39" s="68"/>
+      <c r="CA39" s="68"/>
+      <c r="CB39" s="68"/>
+      <c r="CC39" s="68"/>
+      <c r="CD39" s="69"/>
+      <c r="CE39" s="69"/>
+      <c r="CF39" s="69"/>
+      <c r="CG39" s="69"/>
+      <c r="CH39" s="69"/>
+      <c r="CI39" s="69"/>
+      <c r="CJ39" s="68"/>
+      <c r="CK39" s="68"/>
+      <c r="CL39" s="68"/>
+      <c r="CM39" s="68"/>
+      <c r="CN39" s="68"/>
+      <c r="CO39" s="68"/>
+      <c r="CP39" s="70"/>
+      <c r="CQ39" s="70"/>
+      <c r="CR39" s="70"/>
+      <c r="CS39" s="70"/>
+      <c r="CT39" s="70"/>
+      <c r="CU39" s="70"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
       <c r="R40" s="63"/>
       <c r="S40" s="63"/>
       <c r="T40" s="63"/>
@@ -4213,73 +4515,76 @@
       <c r="AW40" s="63"/>
       <c r="AX40" s="63"/>
       <c r="AY40" s="63"/>
-      <c r="AZ40" s="64"/>
-      <c r="BA40" s="64"/>
-      <c r="BB40" s="64"/>
-      <c r="BC40" s="64"/>
-      <c r="BD40" s="64"/>
-      <c r="BE40" s="65"/>
-      <c r="BF40" s="65"/>
-      <c r="BG40" s="65"/>
-      <c r="BH40" s="65"/>
-      <c r="BI40" s="65"/>
-      <c r="BJ40" s="65"/>
-      <c r="BK40" s="65"/>
-      <c r="BL40" s="66"/>
-      <c r="BM40" s="66"/>
-      <c r="BN40" s="66"/>
-      <c r="BO40" s="66"/>
-      <c r="BP40" s="66"/>
-      <c r="BQ40" s="66"/>
-      <c r="BR40" s="67"/>
-      <c r="BS40" s="67"/>
-      <c r="BT40" s="67"/>
-      <c r="BU40" s="67"/>
-      <c r="BV40" s="67"/>
-      <c r="BW40" s="67"/>
-      <c r="BX40" s="67"/>
-      <c r="BY40" s="67"/>
-      <c r="BZ40" s="67"/>
-      <c r="CA40" s="67"/>
-      <c r="CB40" s="67"/>
-      <c r="CC40" s="67"/>
-      <c r="CD40" s="64"/>
-      <c r="CE40" s="64"/>
-      <c r="CF40" s="64"/>
-      <c r="CG40" s="64"/>
-      <c r="CH40" s="64"/>
-      <c r="CI40" s="64"/>
-      <c r="CJ40" s="67"/>
-      <c r="CK40" s="67"/>
-      <c r="CL40" s="67"/>
-      <c r="CM40" s="67"/>
-      <c r="CN40" s="67"/>
-      <c r="CO40" s="67"/>
-      <c r="CP40" s="68"/>
-      <c r="CQ40" s="68"/>
-      <c r="CR40" s="68"/>
-      <c r="CS40" s="68"/>
-      <c r="CT40" s="68"/>
-      <c r="CU40" s="68"/>
+      <c r="AZ40" s="69" t="str">
+        <f aca="true">IF(AN40,DATEDIF(AN40,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA40" s="69"/>
+      <c r="BB40" s="69"/>
+      <c r="BC40" s="69"/>
+      <c r="BD40" s="69"/>
+      <c r="BE40" s="66"/>
+      <c r="BF40" s="66"/>
+      <c r="BG40" s="66"/>
+      <c r="BH40" s="66"/>
+      <c r="BI40" s="66"/>
+      <c r="BJ40" s="66"/>
+      <c r="BK40" s="66"/>
+      <c r="BL40" s="67"/>
+      <c r="BM40" s="67"/>
+      <c r="BN40" s="67"/>
+      <c r="BO40" s="67"/>
+      <c r="BP40" s="67"/>
+      <c r="BQ40" s="67"/>
+      <c r="BR40" s="68"/>
+      <c r="BS40" s="68"/>
+      <c r="BT40" s="68"/>
+      <c r="BU40" s="68"/>
+      <c r="BV40" s="68"/>
+      <c r="BW40" s="68"/>
+      <c r="BX40" s="68"/>
+      <c r="BY40" s="68"/>
+      <c r="BZ40" s="68"/>
+      <c r="CA40" s="68"/>
+      <c r="CB40" s="68"/>
+      <c r="CC40" s="68"/>
+      <c r="CD40" s="69"/>
+      <c r="CE40" s="69"/>
+      <c r="CF40" s="69"/>
+      <c r="CG40" s="69"/>
+      <c r="CH40" s="69"/>
+      <c r="CI40" s="69"/>
+      <c r="CJ40" s="68"/>
+      <c r="CK40" s="68"/>
+      <c r="CL40" s="68"/>
+      <c r="CM40" s="68"/>
+      <c r="CN40" s="68"/>
+      <c r="CO40" s="68"/>
+      <c r="CP40" s="70"/>
+      <c r="CQ40" s="70"/>
+      <c r="CR40" s="70"/>
+      <c r="CS40" s="70"/>
+      <c r="CT40" s="70"/>
+      <c r="CU40" s="70"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
       <c r="R41" s="63"/>
       <c r="S41" s="63"/>
       <c r="T41" s="63"/>
@@ -4314,73 +4619,76 @@
       <c r="AW41" s="63"/>
       <c r="AX41" s="63"/>
       <c r="AY41" s="63"/>
-      <c r="AZ41" s="64"/>
-      <c r="BA41" s="64"/>
-      <c r="BB41" s="64"/>
-      <c r="BC41" s="64"/>
-      <c r="BD41" s="64"/>
-      <c r="BE41" s="65"/>
-      <c r="BF41" s="65"/>
-      <c r="BG41" s="65"/>
-      <c r="BH41" s="65"/>
-      <c r="BI41" s="65"/>
-      <c r="BJ41" s="65"/>
-      <c r="BK41" s="65"/>
-      <c r="BL41" s="66"/>
-      <c r="BM41" s="66"/>
-      <c r="BN41" s="66"/>
-      <c r="BO41" s="66"/>
-      <c r="BP41" s="66"/>
-      <c r="BQ41" s="66"/>
-      <c r="BR41" s="67"/>
-      <c r="BS41" s="67"/>
-      <c r="BT41" s="67"/>
-      <c r="BU41" s="67"/>
-      <c r="BV41" s="67"/>
-      <c r="BW41" s="67"/>
-      <c r="BX41" s="67"/>
-      <c r="BY41" s="67"/>
-      <c r="BZ41" s="67"/>
-      <c r="CA41" s="67"/>
-      <c r="CB41" s="67"/>
-      <c r="CC41" s="67"/>
-      <c r="CD41" s="64"/>
-      <c r="CE41" s="64"/>
-      <c r="CF41" s="64"/>
-      <c r="CG41" s="64"/>
-      <c r="CH41" s="64"/>
-      <c r="CI41" s="64"/>
-      <c r="CJ41" s="67"/>
-      <c r="CK41" s="67"/>
-      <c r="CL41" s="67"/>
-      <c r="CM41" s="67"/>
-      <c r="CN41" s="67"/>
-      <c r="CO41" s="67"/>
-      <c r="CP41" s="68"/>
-      <c r="CQ41" s="68"/>
-      <c r="CR41" s="68"/>
-      <c r="CS41" s="68"/>
-      <c r="CT41" s="68"/>
-      <c r="CU41" s="68"/>
+      <c r="AZ41" s="69" t="str">
+        <f aca="true">IF(AN41,DATEDIF(AN41,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA41" s="69"/>
+      <c r="BB41" s="69"/>
+      <c r="BC41" s="69"/>
+      <c r="BD41" s="69"/>
+      <c r="BE41" s="66"/>
+      <c r="BF41" s="66"/>
+      <c r="BG41" s="66"/>
+      <c r="BH41" s="66"/>
+      <c r="BI41" s="66"/>
+      <c r="BJ41" s="66"/>
+      <c r="BK41" s="66"/>
+      <c r="BL41" s="67"/>
+      <c r="BM41" s="67"/>
+      <c r="BN41" s="67"/>
+      <c r="BO41" s="67"/>
+      <c r="BP41" s="67"/>
+      <c r="BQ41" s="67"/>
+      <c r="BR41" s="68"/>
+      <c r="BS41" s="68"/>
+      <c r="BT41" s="68"/>
+      <c r="BU41" s="68"/>
+      <c r="BV41" s="68"/>
+      <c r="BW41" s="68"/>
+      <c r="BX41" s="68"/>
+      <c r="BY41" s="68"/>
+      <c r="BZ41" s="68"/>
+      <c r="CA41" s="68"/>
+      <c r="CB41" s="68"/>
+      <c r="CC41" s="68"/>
+      <c r="CD41" s="69"/>
+      <c r="CE41" s="69"/>
+      <c r="CF41" s="69"/>
+      <c r="CG41" s="69"/>
+      <c r="CH41" s="69"/>
+      <c r="CI41" s="69"/>
+      <c r="CJ41" s="68"/>
+      <c r="CK41" s="68"/>
+      <c r="CL41" s="68"/>
+      <c r="CM41" s="68"/>
+      <c r="CN41" s="68"/>
+      <c r="CO41" s="68"/>
+      <c r="CP41" s="70"/>
+      <c r="CQ41" s="70"/>
+      <c r="CR41" s="70"/>
+      <c r="CS41" s="70"/>
+      <c r="CT41" s="70"/>
+      <c r="CU41" s="70"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
       <c r="R42" s="63"/>
       <c r="S42" s="63"/>
       <c r="T42" s="63"/>
@@ -4415,54 +4723,57 @@
       <c r="AW42" s="63"/>
       <c r="AX42" s="63"/>
       <c r="AY42" s="63"/>
-      <c r="AZ42" s="64"/>
-      <c r="BA42" s="64"/>
-      <c r="BB42" s="64"/>
-      <c r="BC42" s="64"/>
-      <c r="BD42" s="64"/>
-      <c r="BE42" s="65"/>
-      <c r="BF42" s="65"/>
-      <c r="BG42" s="65"/>
-      <c r="BH42" s="65"/>
-      <c r="BI42" s="65"/>
-      <c r="BJ42" s="65"/>
-      <c r="BK42" s="65"/>
-      <c r="BL42" s="66"/>
-      <c r="BM42" s="66"/>
-      <c r="BN42" s="66"/>
-      <c r="BO42" s="66"/>
-      <c r="BP42" s="66"/>
-      <c r="BQ42" s="66"/>
-      <c r="BR42" s="67"/>
-      <c r="BS42" s="67"/>
-      <c r="BT42" s="67"/>
-      <c r="BU42" s="67"/>
-      <c r="BV42" s="67"/>
-      <c r="BW42" s="67"/>
-      <c r="BX42" s="67"/>
-      <c r="BY42" s="67"/>
-      <c r="BZ42" s="67"/>
-      <c r="CA42" s="67"/>
-      <c r="CB42" s="67"/>
-      <c r="CC42" s="67"/>
-      <c r="CD42" s="64"/>
-      <c r="CE42" s="64"/>
-      <c r="CF42" s="64"/>
-      <c r="CG42" s="64"/>
-      <c r="CH42" s="64"/>
-      <c r="CI42" s="64"/>
-      <c r="CJ42" s="67"/>
-      <c r="CK42" s="67"/>
-      <c r="CL42" s="67"/>
-      <c r="CM42" s="67"/>
-      <c r="CN42" s="67"/>
-      <c r="CO42" s="67"/>
-      <c r="CP42" s="68"/>
-      <c r="CQ42" s="68"/>
-      <c r="CR42" s="68"/>
-      <c r="CS42" s="68"/>
-      <c r="CT42" s="68"/>
-      <c r="CU42" s="68"/>
+      <c r="AZ42" s="69" t="str">
+        <f aca="true">IF(AN42,DATEDIF(AN42,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA42" s="69"/>
+      <c r="BB42" s="69"/>
+      <c r="BC42" s="69"/>
+      <c r="BD42" s="69"/>
+      <c r="BE42" s="66"/>
+      <c r="BF42" s="66"/>
+      <c r="BG42" s="66"/>
+      <c r="BH42" s="66"/>
+      <c r="BI42" s="66"/>
+      <c r="BJ42" s="66"/>
+      <c r="BK42" s="66"/>
+      <c r="BL42" s="67"/>
+      <c r="BM42" s="67"/>
+      <c r="BN42" s="67"/>
+      <c r="BO42" s="67"/>
+      <c r="BP42" s="67"/>
+      <c r="BQ42" s="67"/>
+      <c r="BR42" s="68"/>
+      <c r="BS42" s="68"/>
+      <c r="BT42" s="68"/>
+      <c r="BU42" s="68"/>
+      <c r="BV42" s="68"/>
+      <c r="BW42" s="68"/>
+      <c r="BX42" s="68"/>
+      <c r="BY42" s="68"/>
+      <c r="BZ42" s="68"/>
+      <c r="CA42" s="68"/>
+      <c r="CB42" s="68"/>
+      <c r="CC42" s="68"/>
+      <c r="CD42" s="69"/>
+      <c r="CE42" s="69"/>
+      <c r="CF42" s="69"/>
+      <c r="CG42" s="69"/>
+      <c r="CH42" s="69"/>
+      <c r="CI42" s="69"/>
+      <c r="CJ42" s="68"/>
+      <c r="CK42" s="68"/>
+      <c r="CL42" s="68"/>
+      <c r="CM42" s="68"/>
+      <c r="CN42" s="68"/>
+      <c r="CO42" s="68"/>
+      <c r="CP42" s="70"/>
+      <c r="CQ42" s="70"/>
+      <c r="CR42" s="70"/>
+      <c r="CS42" s="70"/>
+      <c r="CT42" s="70"/>
+      <c r="CU42" s="70"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="62" t="s">
@@ -4518,54 +4829,57 @@
       <c r="AW43" s="63"/>
       <c r="AX43" s="63"/>
       <c r="AY43" s="63"/>
-      <c r="AZ43" s="64"/>
-      <c r="BA43" s="64"/>
-      <c r="BB43" s="64"/>
-      <c r="BC43" s="64"/>
-      <c r="BD43" s="64"/>
-      <c r="BE43" s="65"/>
-      <c r="BF43" s="65"/>
-      <c r="BG43" s="65"/>
-      <c r="BH43" s="65"/>
-      <c r="BI43" s="65"/>
-      <c r="BJ43" s="65"/>
-      <c r="BK43" s="65"/>
-      <c r="BL43" s="66"/>
-      <c r="BM43" s="66"/>
-      <c r="BN43" s="66"/>
-      <c r="BO43" s="66"/>
-      <c r="BP43" s="66"/>
-      <c r="BQ43" s="66"/>
-      <c r="BR43" s="67"/>
-      <c r="BS43" s="67"/>
-      <c r="BT43" s="67"/>
-      <c r="BU43" s="67"/>
-      <c r="BV43" s="67"/>
-      <c r="BW43" s="67"/>
-      <c r="BX43" s="67"/>
-      <c r="BY43" s="67"/>
-      <c r="BZ43" s="67"/>
-      <c r="CA43" s="67"/>
-      <c r="CB43" s="67"/>
-      <c r="CC43" s="67"/>
-      <c r="CD43" s="64"/>
-      <c r="CE43" s="64"/>
-      <c r="CF43" s="64"/>
-      <c r="CG43" s="64"/>
-      <c r="CH43" s="64"/>
-      <c r="CI43" s="64"/>
-      <c r="CJ43" s="67"/>
-      <c r="CK43" s="67"/>
-      <c r="CL43" s="67"/>
-      <c r="CM43" s="67"/>
-      <c r="CN43" s="67"/>
-      <c r="CO43" s="67"/>
-      <c r="CP43" s="68"/>
-      <c r="CQ43" s="68"/>
-      <c r="CR43" s="68"/>
-      <c r="CS43" s="68"/>
-      <c r="CT43" s="68"/>
-      <c r="CU43" s="68"/>
+      <c r="AZ43" s="69" t="str">
+        <f aca="true">IF(AN43,DATEDIF(AN43,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA43" s="69"/>
+      <c r="BB43" s="69"/>
+      <c r="BC43" s="69"/>
+      <c r="BD43" s="69"/>
+      <c r="BE43" s="66"/>
+      <c r="BF43" s="66"/>
+      <c r="BG43" s="66"/>
+      <c r="BH43" s="66"/>
+      <c r="BI43" s="66"/>
+      <c r="BJ43" s="66"/>
+      <c r="BK43" s="66"/>
+      <c r="BL43" s="67"/>
+      <c r="BM43" s="67"/>
+      <c r="BN43" s="67"/>
+      <c r="BO43" s="67"/>
+      <c r="BP43" s="67"/>
+      <c r="BQ43" s="67"/>
+      <c r="BR43" s="68"/>
+      <c r="BS43" s="68"/>
+      <c r="BT43" s="68"/>
+      <c r="BU43" s="68"/>
+      <c r="BV43" s="68"/>
+      <c r="BW43" s="68"/>
+      <c r="BX43" s="68"/>
+      <c r="BY43" s="68"/>
+      <c r="BZ43" s="68"/>
+      <c r="CA43" s="68"/>
+      <c r="CB43" s="68"/>
+      <c r="CC43" s="68"/>
+      <c r="CD43" s="69"/>
+      <c r="CE43" s="69"/>
+      <c r="CF43" s="69"/>
+      <c r="CG43" s="69"/>
+      <c r="CH43" s="69"/>
+      <c r="CI43" s="69"/>
+      <c r="CJ43" s="68"/>
+      <c r="CK43" s="68"/>
+      <c r="CL43" s="68"/>
+      <c r="CM43" s="68"/>
+      <c r="CN43" s="68"/>
+      <c r="CO43" s="68"/>
+      <c r="CP43" s="70"/>
+      <c r="CQ43" s="70"/>
+      <c r="CR43" s="70"/>
+      <c r="CS43" s="70"/>
+      <c r="CT43" s="70"/>
+      <c r="CU43" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="289">
@@ -4877,18 +5191,18 @@
   </sheetPr>
   <dimension ref="A1:CU49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE9" activeCellId="0" sqref="BE9:BQ10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AZ10" activeCellId="0" sqref="AZ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="8.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="70" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="CU1" s="71" t="s">
+    <row r="1" s="72" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CU1" s="73" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5710,25 +6024,25 @@
       <c r="CU8" s="53"/>
     </row>
     <row r="9" s="18" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
       <c r="R9" s="63" t="s">
         <v>75</v>
       </c>
@@ -5765,79 +6079,82 @@
       <c r="AW9" s="63"/>
       <c r="AX9" s="63"/>
       <c r="AY9" s="63"/>
-      <c r="AZ9" s="64"/>
-      <c r="BA9" s="64"/>
-      <c r="BB9" s="64"/>
-      <c r="BC9" s="64"/>
-      <c r="BD9" s="64"/>
-      <c r="BE9" s="65" t="s">
+      <c r="AZ9" s="65" t="str">
+        <f aca="true">IF(AT9,DATEDIF(AT9,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA9" s="65"/>
+      <c r="BB9" s="65"/>
+      <c r="BC9" s="65"/>
+      <c r="BD9" s="65"/>
+      <c r="BE9" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="BF9" s="65"/>
-      <c r="BG9" s="65"/>
-      <c r="BH9" s="65"/>
-      <c r="BI9" s="65"/>
-      <c r="BJ9" s="65"/>
-      <c r="BK9" s="65"/>
-      <c r="BL9" s="66" t="s">
+      <c r="BF9" s="75"/>
+      <c r="BG9" s="75"/>
+      <c r="BH9" s="75"/>
+      <c r="BI9" s="75"/>
+      <c r="BJ9" s="75"/>
+      <c r="BK9" s="75"/>
+      <c r="BL9" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="BM9" s="66"/>
-      <c r="BN9" s="66"/>
-      <c r="BO9" s="66"/>
-      <c r="BP9" s="66"/>
-      <c r="BQ9" s="66"/>
-      <c r="BR9" s="67"/>
-      <c r="BS9" s="67"/>
-      <c r="BT9" s="67"/>
-      <c r="BU9" s="67"/>
-      <c r="BV9" s="67"/>
-      <c r="BW9" s="67"/>
-      <c r="BX9" s="67"/>
-      <c r="BY9" s="67"/>
-      <c r="BZ9" s="67"/>
-      <c r="CA9" s="67"/>
-      <c r="CB9" s="67"/>
-      <c r="CC9" s="67"/>
-      <c r="CD9" s="64"/>
-      <c r="CE9" s="64"/>
-      <c r="CF9" s="64"/>
-      <c r="CG9" s="64"/>
-      <c r="CH9" s="64"/>
-      <c r="CI9" s="64"/>
-      <c r="CJ9" s="67"/>
-      <c r="CK9" s="67"/>
-      <c r="CL9" s="67"/>
-      <c r="CM9" s="67"/>
-      <c r="CN9" s="67"/>
-      <c r="CO9" s="67"/>
-      <c r="CP9" s="68"/>
-      <c r="CQ9" s="68"/>
-      <c r="CR9" s="68"/>
-      <c r="CS9" s="68"/>
-      <c r="CT9" s="68"/>
-      <c r="CU9" s="68"/>
+      <c r="BM9" s="67"/>
+      <c r="BN9" s="67"/>
+      <c r="BO9" s="67"/>
+      <c r="BP9" s="67"/>
+      <c r="BQ9" s="67"/>
+      <c r="BR9" s="68"/>
+      <c r="BS9" s="68"/>
+      <c r="BT9" s="68"/>
+      <c r="BU9" s="68"/>
+      <c r="BV9" s="68"/>
+      <c r="BW9" s="68"/>
+      <c r="BX9" s="68"/>
+      <c r="BY9" s="68"/>
+      <c r="BZ9" s="68"/>
+      <c r="CA9" s="68"/>
+      <c r="CB9" s="68"/>
+      <c r="CC9" s="68"/>
+      <c r="CD9" s="69"/>
+      <c r="CE9" s="69"/>
+      <c r="CF9" s="69"/>
+      <c r="CG9" s="69"/>
+      <c r="CH9" s="69"/>
+      <c r="CI9" s="69"/>
+      <c r="CJ9" s="68"/>
+      <c r="CK9" s="68"/>
+      <c r="CL9" s="68"/>
+      <c r="CM9" s="68"/>
+      <c r="CN9" s="68"/>
+      <c r="CO9" s="68"/>
+      <c r="CP9" s="70"/>
+      <c r="CQ9" s="70"/>
+      <c r="CR9" s="70"/>
+      <c r="CS9" s="70"/>
+      <c r="CT9" s="70"/>
+      <c r="CU9" s="70"/>
     </row>
     <row r="10" s="18" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
       <c r="R10" s="63"/>
       <c r="S10" s="63"/>
       <c r="T10" s="63"/>
@@ -5872,58 +6189,61 @@
       <c r="AW10" s="63"/>
       <c r="AX10" s="63"/>
       <c r="AY10" s="63"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="64"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="65"/>
-      <c r="BJ10" s="65"/>
-      <c r="BK10" s="65"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
-      <c r="BQ10" s="66"/>
-      <c r="BR10" s="67"/>
-      <c r="BS10" s="67"/>
-      <c r="BT10" s="67"/>
-      <c r="BU10" s="67"/>
-      <c r="BV10" s="67"/>
-      <c r="BW10" s="67"/>
-      <c r="BX10" s="67"/>
-      <c r="BY10" s="67"/>
-      <c r="BZ10" s="67"/>
-      <c r="CA10" s="67"/>
-      <c r="CB10" s="67"/>
-      <c r="CC10" s="67"/>
-      <c r="CD10" s="64"/>
-      <c r="CE10" s="64"/>
-      <c r="CF10" s="64"/>
-      <c r="CG10" s="64"/>
-      <c r="CH10" s="64"/>
-      <c r="CI10" s="64"/>
-      <c r="CJ10" s="67"/>
-      <c r="CK10" s="67"/>
-      <c r="CL10" s="67"/>
-      <c r="CM10" s="67"/>
-      <c r="CN10" s="67"/>
-      <c r="CO10" s="67"/>
-      <c r="CP10" s="68"/>
-      <c r="CQ10" s="68"/>
-      <c r="CR10" s="68"/>
-      <c r="CS10" s="68"/>
-      <c r="CT10" s="68"/>
-      <c r="CU10" s="68"/>
+      <c r="AZ10" s="65" t="str">
+        <f aca="true">IF(AT10,DATEDIF(AT10,TODAY(),"d"),"")</f>
+        <v/>
+      </c>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="75"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="67"/>
+      <c r="BM10" s="67"/>
+      <c r="BN10" s="67"/>
+      <c r="BO10" s="67"/>
+      <c r="BP10" s="67"/>
+      <c r="BQ10" s="67"/>
+      <c r="BR10" s="68"/>
+      <c r="BS10" s="68"/>
+      <c r="BT10" s="68"/>
+      <c r="BU10" s="68"/>
+      <c r="BV10" s="68"/>
+      <c r="BW10" s="68"/>
+      <c r="BX10" s="68"/>
+      <c r="BY10" s="68"/>
+      <c r="BZ10" s="68"/>
+      <c r="CA10" s="68"/>
+      <c r="CB10" s="68"/>
+      <c r="CC10" s="68"/>
+      <c r="CD10" s="69"/>
+      <c r="CE10" s="69"/>
+      <c r="CF10" s="69"/>
+      <c r="CG10" s="69"/>
+      <c r="CH10" s="69"/>
+      <c r="CI10" s="69"/>
+      <c r="CJ10" s="68"/>
+      <c r="CK10" s="68"/>
+      <c r="CL10" s="68"/>
+      <c r="CM10" s="68"/>
+      <c r="CN10" s="68"/>
+      <c r="CO10" s="68"/>
+      <c r="CP10" s="70"/>
+      <c r="CQ10" s="70"/>
+      <c r="CR10" s="70"/>
+      <c r="CS10" s="70"/>
+      <c r="CT10" s="70"/>
+      <c r="CU10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="76" t="s">
         <v>79</v>
       </c>
       <c r="AA12" s="36"/>
@@ -6001,186 +6321,186 @@
       <c r="CU12" s="36"/>
     </row>
     <row r="13" s="8" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA13" s="73" t="s">
+      <c r="AA13" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="73"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="73"/>
-      <c r="AH13" s="73"/>
-      <c r="AI13" s="73"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="73"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="73"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="73"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="73"/>
-      <c r="AZ13" s="73"/>
-      <c r="BA13" s="73"/>
-      <c r="BB13" s="73"/>
-      <c r="BC13" s="73"/>
-      <c r="BD13" s="73"/>
-      <c r="BE13" s="73"/>
-      <c r="BF13" s="73"/>
-      <c r="BG13" s="73"/>
-      <c r="BH13" s="73"/>
-      <c r="BI13" s="73"/>
-      <c r="BJ13" s="73"/>
-      <c r="BK13" s="73"/>
-      <c r="BL13" s="73"/>
-      <c r="BM13" s="73"/>
-      <c r="BN13" s="73"/>
-      <c r="BO13" s="73"/>
-      <c r="BP13" s="73"/>
-      <c r="BQ13" s="73"/>
-      <c r="BR13" s="73"/>
-      <c r="BS13" s="73"/>
-      <c r="BT13" s="73"/>
-      <c r="BU13" s="73"/>
-      <c r="BV13" s="73"/>
-      <c r="BW13" s="73"/>
-      <c r="BX13" s="73"/>
-      <c r="BY13" s="73"/>
-      <c r="BZ13" s="73"/>
-      <c r="CA13" s="73"/>
-      <c r="CB13" s="73"/>
-      <c r="CC13" s="73"/>
-      <c r="CD13" s="73"/>
-      <c r="CE13" s="73"/>
-      <c r="CF13" s="73"/>
-      <c r="CG13" s="73"/>
-      <c r="CH13" s="73"/>
-      <c r="CI13" s="73"/>
-      <c r="CJ13" s="73"/>
-      <c r="CK13" s="73"/>
-      <c r="CL13" s="73"/>
-      <c r="CM13" s="73"/>
-      <c r="CN13" s="73"/>
-      <c r="CO13" s="73"/>
-      <c r="CP13" s="73"/>
-      <c r="CQ13" s="73"/>
-      <c r="CR13" s="73"/>
-      <c r="CS13" s="73"/>
-      <c r="CT13" s="73"/>
-      <c r="CU13" s="73"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="77"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="77"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="77"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="77"/>
+      <c r="AZ13" s="77"/>
+      <c r="BA13" s="77"/>
+      <c r="BB13" s="77"/>
+      <c r="BC13" s="77"/>
+      <c r="BD13" s="77"/>
+      <c r="BE13" s="77"/>
+      <c r="BF13" s="77"/>
+      <c r="BG13" s="77"/>
+      <c r="BH13" s="77"/>
+      <c r="BI13" s="77"/>
+      <c r="BJ13" s="77"/>
+      <c r="BK13" s="77"/>
+      <c r="BL13" s="77"/>
+      <c r="BM13" s="77"/>
+      <c r="BN13" s="77"/>
+      <c r="BO13" s="77"/>
+      <c r="BP13" s="77"/>
+      <c r="BQ13" s="77"/>
+      <c r="BR13" s="77"/>
+      <c r="BS13" s="77"/>
+      <c r="BT13" s="77"/>
+      <c r="BU13" s="77"/>
+      <c r="BV13" s="77"/>
+      <c r="BW13" s="77"/>
+      <c r="BX13" s="77"/>
+      <c r="BY13" s="77"/>
+      <c r="BZ13" s="77"/>
+      <c r="CA13" s="77"/>
+      <c r="CB13" s="77"/>
+      <c r="CC13" s="77"/>
+      <c r="CD13" s="77"/>
+      <c r="CE13" s="77"/>
+      <c r="CF13" s="77"/>
+      <c r="CG13" s="77"/>
+      <c r="CH13" s="77"/>
+      <c r="CI13" s="77"/>
+      <c r="CJ13" s="77"/>
+      <c r="CK13" s="77"/>
+      <c r="CL13" s="77"/>
+      <c r="CM13" s="77"/>
+      <c r="CN13" s="77"/>
+      <c r="CO13" s="77"/>
+      <c r="CP13" s="77"/>
+      <c r="CQ13" s="77"/>
+      <c r="CR13" s="77"/>
+      <c r="CS13" s="77"/>
+      <c r="CT13" s="77"/>
+      <c r="CU13" s="77"/>
     </row>
     <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="76" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="76"/>
-      <c r="BB14" s="76"/>
-      <c r="BC14" s="76"/>
-      <c r="BD14" s="76"/>
-      <c r="BE14" s="76"/>
-      <c r="BF14" s="76"/>
-      <c r="BG14" s="76"/>
-      <c r="BH14" s="76"/>
-      <c r="BI14" s="76"/>
-      <c r="BJ14" s="76"/>
-      <c r="BK14" s="76"/>
-      <c r="BL14" s="76"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="76"/>
-      <c r="BO14" s="76"/>
-      <c r="BP14" s="76"/>
-      <c r="BQ14" s="76"/>
-      <c r="BR14" s="76"/>
-      <c r="BS14" s="76"/>
-      <c r="BT14" s="76"/>
-      <c r="BU14" s="76"/>
-      <c r="BV14" s="76"/>
-      <c r="BW14" s="76"/>
-      <c r="BX14" s="76"/>
-      <c r="BY14" s="76"/>
-      <c r="BZ14" s="76"/>
-      <c r="CA14" s="76"/>
-      <c r="CB14" s="76"/>
-      <c r="CC14" s="76"/>
-      <c r="CD14" s="76"/>
-      <c r="CE14" s="76"/>
-      <c r="CF14" s="76"/>
-      <c r="CG14" s="76"/>
-      <c r="CH14" s="76"/>
-      <c r="CI14" s="76"/>
-      <c r="CJ14" s="76"/>
-      <c r="CK14" s="76"/>
-      <c r="CL14" s="76"/>
-      <c r="CM14" s="76"/>
-      <c r="CN14" s="76"/>
-      <c r="CO14" s="76"/>
-      <c r="CP14" s="76"/>
-      <c r="CQ14" s="76"/>
-      <c r="CR14" s="76"/>
-      <c r="CS14" s="76"/>
-      <c r="CT14" s="76"/>
-      <c r="CU14" s="76"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="80"/>
+      <c r="AP14" s="80"/>
+      <c r="AQ14" s="80"/>
+      <c r="AR14" s="80"/>
+      <c r="AS14" s="80"/>
+      <c r="AT14" s="80"/>
+      <c r="AU14" s="80"/>
+      <c r="AV14" s="80"/>
+      <c r="AW14" s="80"/>
+      <c r="AX14" s="80"/>
+      <c r="AY14" s="80"/>
+      <c r="AZ14" s="80"/>
+      <c r="BA14" s="80"/>
+      <c r="BB14" s="80"/>
+      <c r="BC14" s="80"/>
+      <c r="BD14" s="80"/>
+      <c r="BE14" s="80"/>
+      <c r="BF14" s="80"/>
+      <c r="BG14" s="80"/>
+      <c r="BH14" s="80"/>
+      <c r="BI14" s="80"/>
+      <c r="BJ14" s="80"/>
+      <c r="BK14" s="80"/>
+      <c r="BL14" s="80"/>
+      <c r="BM14" s="80"/>
+      <c r="BN14" s="80"/>
+      <c r="BO14" s="80"/>
+      <c r="BP14" s="80"/>
+      <c r="BQ14" s="80"/>
+      <c r="BR14" s="80"/>
+      <c r="BS14" s="80"/>
+      <c r="BT14" s="80"/>
+      <c r="BU14" s="80"/>
+      <c r="BV14" s="80"/>
+      <c r="BW14" s="80"/>
+      <c r="BX14" s="80"/>
+      <c r="BY14" s="80"/>
+      <c r="BZ14" s="80"/>
+      <c r="CA14" s="80"/>
+      <c r="CB14" s="80"/>
+      <c r="CC14" s="80"/>
+      <c r="CD14" s="80"/>
+      <c r="CE14" s="80"/>
+      <c r="CF14" s="80"/>
+      <c r="CG14" s="80"/>
+      <c r="CH14" s="80"/>
+      <c r="CI14" s="80"/>
+      <c r="CJ14" s="80"/>
+      <c r="CK14" s="80"/>
+      <c r="CL14" s="80"/>
+      <c r="CM14" s="80"/>
+      <c r="CN14" s="80"/>
+      <c r="CO14" s="80"/>
+      <c r="CP14" s="80"/>
+      <c r="CQ14" s="80"/>
+      <c r="CR14" s="80"/>
+      <c r="CS14" s="80"/>
+      <c r="CT14" s="80"/>
+      <c r="CU14" s="80"/>
     </row>
     <row r="15" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
@@ -6222,14 +6542,14 @@
       </c>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="77" t="s">
+      <c r="AC15" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="81"/>
+      <c r="AH15" s="81"/>
       <c r="AJ15" s="28" t="s">
         <v>89</v>
       </c>
@@ -6238,75 +6558,75 @@
       <c r="A16" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="79"/>
-      <c r="AM16" s="79"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="79"/>
-      <c r="AP16" s="79"/>
-      <c r="AQ16" s="79"/>
-      <c r="AR16" s="79"/>
-      <c r="AS16" s="79"/>
-      <c r="AT16" s="79"/>
-      <c r="AU16" s="79"/>
-      <c r="AV16" s="79"/>
-      <c r="AW16" s="79"/>
-      <c r="AX16" s="79"/>
-      <c r="AY16" s="79"/>
-      <c r="AZ16" s="79"/>
-      <c r="BA16" s="79"/>
-      <c r="BB16" s="79"/>
-      <c r="BC16" s="79"/>
-      <c r="BD16" s="79"/>
-      <c r="BE16" s="79"/>
-      <c r="BF16" s="79"/>
-      <c r="BG16" s="79"/>
-      <c r="BH16" s="79"/>
-      <c r="BI16" s="79"/>
-      <c r="BJ16" s="79"/>
-      <c r="BK16" s="79"/>
-      <c r="BL16" s="79"/>
-      <c r="BM16" s="79"/>
-      <c r="BN16" s="79"/>
-      <c r="BO16" s="79"/>
-      <c r="BP16" s="79"/>
-      <c r="BQ16" s="79"/>
-      <c r="BR16" s="79"/>
-      <c r="BS16" s="79"/>
-      <c r="BT16" s="79"/>
-      <c r="BU16" s="79"/>
-      <c r="BV16" s="79"/>
-      <c r="BW16" s="79"/>
-      <c r="BX16" s="79"/>
-      <c r="BY16" s="79"/>
-      <c r="BZ16" s="79"/>
-      <c r="CA16" s="79"/>
-      <c r="CB16" s="79"/>
-      <c r="CC16" s="79"/>
-      <c r="CD16" s="79"/>
-      <c r="CE16" s="79"/>
-      <c r="CF16" s="79"/>
-      <c r="CG16" s="79"/>
-      <c r="CH16" s="79"/>
-      <c r="CI16" s="79"/>
-      <c r="CJ16" s="79"/>
-      <c r="CK16" s="79"/>
-      <c r="CL16" s="79"/>
-      <c r="CM16" s="79"/>
-      <c r="CN16" s="79"/>
-      <c r="CO16" s="79"/>
-      <c r="CP16" s="79"/>
-      <c r="CQ16" s="79"/>
-      <c r="CR16" s="79"/>
-      <c r="CS16" s="79"/>
-      <c r="CT16" s="79"/>
-      <c r="CU16" s="79"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="83"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="83"/>
+      <c r="AN16" s="83"/>
+      <c r="AO16" s="83"/>
+      <c r="AP16" s="83"/>
+      <c r="AQ16" s="83"/>
+      <c r="AR16" s="83"/>
+      <c r="AS16" s="83"/>
+      <c r="AT16" s="83"/>
+      <c r="AU16" s="83"/>
+      <c r="AV16" s="83"/>
+      <c r="AW16" s="83"/>
+      <c r="AX16" s="83"/>
+      <c r="AY16" s="83"/>
+      <c r="AZ16" s="83"/>
+      <c r="BA16" s="83"/>
+      <c r="BB16" s="83"/>
+      <c r="BC16" s="83"/>
+      <c r="BD16" s="83"/>
+      <c r="BE16" s="83"/>
+      <c r="BF16" s="83"/>
+      <c r="BG16" s="83"/>
+      <c r="BH16" s="83"/>
+      <c r="BI16" s="83"/>
+      <c r="BJ16" s="83"/>
+      <c r="BK16" s="83"/>
+      <c r="BL16" s="83"/>
+      <c r="BM16" s="83"/>
+      <c r="BN16" s="83"/>
+      <c r="BO16" s="83"/>
+      <c r="BP16" s="83"/>
+      <c r="BQ16" s="83"/>
+      <c r="BR16" s="83"/>
+      <c r="BS16" s="83"/>
+      <c r="BT16" s="83"/>
+      <c r="BU16" s="83"/>
+      <c r="BV16" s="83"/>
+      <c r="BW16" s="83"/>
+      <c r="BX16" s="83"/>
+      <c r="BY16" s="83"/>
+      <c r="BZ16" s="83"/>
+      <c r="CA16" s="83"/>
+      <c r="CB16" s="83"/>
+      <c r="CC16" s="83"/>
+      <c r="CD16" s="83"/>
+      <c r="CE16" s="83"/>
+      <c r="CF16" s="83"/>
+      <c r="CG16" s="83"/>
+      <c r="CH16" s="83"/>
+      <c r="CI16" s="83"/>
+      <c r="CJ16" s="83"/>
+      <c r="CK16" s="83"/>
+      <c r="CL16" s="83"/>
+      <c r="CM16" s="83"/>
+      <c r="CN16" s="83"/>
+      <c r="CO16" s="83"/>
+      <c r="CP16" s="83"/>
+      <c r="CQ16" s="83"/>
+      <c r="CR16" s="83"/>
+      <c r="CS16" s="83"/>
+      <c r="CT16" s="83"/>
+      <c r="CU16" s="83"/>
     </row>
     <row r="17" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="36"/>
@@ -6628,186 +6948,186 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="80" t="s">
+      <c r="L20" s="84" t="s">
         <v>95</v>
       </c>
       <c r="M20" s="36"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="80"/>
-      <c r="AF20" s="80"/>
-      <c r="AG20" s="80"/>
-      <c r="AH20" s="80"/>
-      <c r="AI20" s="80"/>
-      <c r="AJ20" s="80"/>
-      <c r="AK20" s="80"/>
-      <c r="AL20" s="80"/>
-      <c r="AM20" s="80"/>
-      <c r="AN20" s="80"/>
-      <c r="AO20" s="80"/>
-      <c r="AP20" s="80"/>
-      <c r="AQ20" s="80"/>
-      <c r="AR20" s="80"/>
-      <c r="AS20" s="80"/>
-      <c r="AT20" s="80"/>
-      <c r="AU20" s="80"/>
-      <c r="AV20" s="80"/>
-      <c r="AW20" s="80"/>
-      <c r="AX20" s="80"/>
-      <c r="AY20" s="80"/>
-      <c r="AZ20" s="80"/>
-      <c r="BA20" s="80"/>
-      <c r="BB20" s="80"/>
-      <c r="BC20" s="80"/>
-      <c r="BD20" s="80"/>
-      <c r="BE20" s="80"/>
-      <c r="BF20" s="80"/>
-      <c r="BG20" s="80"/>
-      <c r="BH20" s="80"/>
-      <c r="BI20" s="80"/>
-      <c r="BJ20" s="80"/>
-      <c r="BK20" s="80"/>
-      <c r="BL20" s="80"/>
-      <c r="BM20" s="80"/>
-      <c r="BN20" s="80"/>
-      <c r="BO20" s="80"/>
-      <c r="BP20" s="80"/>
-      <c r="BQ20" s="80"/>
-      <c r="BR20" s="80"/>
-      <c r="BS20" s="80"/>
-      <c r="BT20" s="80"/>
-      <c r="BU20" s="80"/>
-      <c r="BV20" s="80"/>
-      <c r="BW20" s="80"/>
-      <c r="BX20" s="80"/>
-      <c r="BY20" s="80"/>
-      <c r="BZ20" s="80"/>
-      <c r="CA20" s="80"/>
-      <c r="CB20" s="80"/>
-      <c r="CC20" s="80"/>
-      <c r="CD20" s="80"/>
-      <c r="CE20" s="80"/>
-      <c r="CF20" s="80"/>
-      <c r="CG20" s="80"/>
-      <c r="CH20" s="80"/>
-      <c r="CI20" s="80"/>
-      <c r="CJ20" s="80"/>
-      <c r="CK20" s="80"/>
-      <c r="CL20" s="80"/>
-      <c r="CM20" s="80"/>
-      <c r="CN20" s="80"/>
-      <c r="CO20" s="80"/>
-      <c r="CP20" s="80"/>
-      <c r="CQ20" s="80"/>
-      <c r="CR20" s="80"/>
-      <c r="CS20" s="80"/>
-      <c r="CT20" s="80"/>
-      <c r="CU20" s="80"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="84"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="84"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="84"/>
+      <c r="AM20" s="84"/>
+      <c r="AN20" s="84"/>
+      <c r="AO20" s="84"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="84"/>
+      <c r="AS20" s="84"/>
+      <c r="AT20" s="84"/>
+      <c r="AU20" s="84"/>
+      <c r="AV20" s="84"/>
+      <c r="AW20" s="84"/>
+      <c r="AX20" s="84"/>
+      <c r="AY20" s="84"/>
+      <c r="AZ20" s="84"/>
+      <c r="BA20" s="84"/>
+      <c r="BB20" s="84"/>
+      <c r="BC20" s="84"/>
+      <c r="BD20" s="84"/>
+      <c r="BE20" s="84"/>
+      <c r="BF20" s="84"/>
+      <c r="BG20" s="84"/>
+      <c r="BH20" s="84"/>
+      <c r="BI20" s="84"/>
+      <c r="BJ20" s="84"/>
+      <c r="BK20" s="84"/>
+      <c r="BL20" s="84"/>
+      <c r="BM20" s="84"/>
+      <c r="BN20" s="84"/>
+      <c r="BO20" s="84"/>
+      <c r="BP20" s="84"/>
+      <c r="BQ20" s="84"/>
+      <c r="BR20" s="84"/>
+      <c r="BS20" s="84"/>
+      <c r="BT20" s="84"/>
+      <c r="BU20" s="84"/>
+      <c r="BV20" s="84"/>
+      <c r="BW20" s="84"/>
+      <c r="BX20" s="84"/>
+      <c r="BY20" s="84"/>
+      <c r="BZ20" s="84"/>
+      <c r="CA20" s="84"/>
+      <c r="CB20" s="84"/>
+      <c r="CC20" s="84"/>
+      <c r="CD20" s="84"/>
+      <c r="CE20" s="84"/>
+      <c r="CF20" s="84"/>
+      <c r="CG20" s="84"/>
+      <c r="CH20" s="84"/>
+      <c r="CI20" s="84"/>
+      <c r="CJ20" s="84"/>
+      <c r="CK20" s="84"/>
+      <c r="CL20" s="84"/>
+      <c r="CM20" s="84"/>
+      <c r="CN20" s="84"/>
+      <c r="CO20" s="84"/>
+      <c r="CP20" s="84"/>
+      <c r="CQ20" s="84"/>
+      <c r="CR20" s="84"/>
+      <c r="CS20" s="84"/>
+      <c r="CT20" s="84"/>
+      <c r="CU20" s="84"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="81"/>
-      <c r="AM21" s="81"/>
-      <c r="AN21" s="81"/>
-      <c r="AO21" s="81"/>
-      <c r="AP21" s="81"/>
-      <c r="AQ21" s="81"/>
-      <c r="AR21" s="81"/>
-      <c r="AS21" s="81"/>
-      <c r="AT21" s="81"/>
-      <c r="AU21" s="81"/>
-      <c r="AV21" s="81"/>
-      <c r="AW21" s="81"/>
-      <c r="AX21" s="81"/>
-      <c r="AY21" s="81"/>
-      <c r="AZ21" s="81"/>
-      <c r="BA21" s="81"/>
-      <c r="BB21" s="81"/>
-      <c r="BC21" s="81"/>
-      <c r="BD21" s="81"/>
-      <c r="BE21" s="81"/>
-      <c r="BF21" s="81"/>
-      <c r="BG21" s="81"/>
-      <c r="BH21" s="81"/>
-      <c r="BI21" s="81"/>
-      <c r="BJ21" s="81"/>
-      <c r="BK21" s="81"/>
-      <c r="BL21" s="81"/>
-      <c r="BM21" s="81"/>
-      <c r="BN21" s="81"/>
-      <c r="BO21" s="81"/>
-      <c r="BP21" s="81"/>
-      <c r="BQ21" s="81"/>
-      <c r="BR21" s="81"/>
-      <c r="BS21" s="81"/>
-      <c r="BT21" s="81"/>
-      <c r="BU21" s="81"/>
-      <c r="BV21" s="81"/>
-      <c r="BW21" s="81"/>
-      <c r="BX21" s="81"/>
-      <c r="BY21" s="81"/>
-      <c r="BZ21" s="81"/>
-      <c r="CA21" s="81"/>
-      <c r="CB21" s="81"/>
-      <c r="CC21" s="81"/>
-      <c r="CD21" s="81"/>
-      <c r="CE21" s="81"/>
-      <c r="CF21" s="81"/>
-      <c r="CG21" s="81"/>
-      <c r="CH21" s="81"/>
-      <c r="CI21" s="81"/>
-      <c r="CJ21" s="81"/>
-      <c r="CK21" s="81"/>
-      <c r="CL21" s="81"/>
-      <c r="CM21" s="81"/>
-      <c r="CN21" s="81"/>
-      <c r="CO21" s="81"/>
-      <c r="CP21" s="81"/>
-      <c r="CQ21" s="81"/>
-      <c r="CR21" s="81"/>
-      <c r="CS21" s="81"/>
-      <c r="CT21" s="81"/>
-      <c r="CU21" s="81"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="85"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="85"/>
+      <c r="AH21" s="85"/>
+      <c r="AI21" s="85"/>
+      <c r="AJ21" s="85"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="85"/>
+      <c r="AM21" s="85"/>
+      <c r="AN21" s="85"/>
+      <c r="AO21" s="85"/>
+      <c r="AP21" s="85"/>
+      <c r="AQ21" s="85"/>
+      <c r="AR21" s="85"/>
+      <c r="AS21" s="85"/>
+      <c r="AT21" s="85"/>
+      <c r="AU21" s="85"/>
+      <c r="AV21" s="85"/>
+      <c r="AW21" s="85"/>
+      <c r="AX21" s="85"/>
+      <c r="AY21" s="85"/>
+      <c r="AZ21" s="85"/>
+      <c r="BA21" s="85"/>
+      <c r="BB21" s="85"/>
+      <c r="BC21" s="85"/>
+      <c r="BD21" s="85"/>
+      <c r="BE21" s="85"/>
+      <c r="BF21" s="85"/>
+      <c r="BG21" s="85"/>
+      <c r="BH21" s="85"/>
+      <c r="BI21" s="85"/>
+      <c r="BJ21" s="85"/>
+      <c r="BK21" s="85"/>
+      <c r="BL21" s="85"/>
+      <c r="BM21" s="85"/>
+      <c r="BN21" s="85"/>
+      <c r="BO21" s="85"/>
+      <c r="BP21" s="85"/>
+      <c r="BQ21" s="85"/>
+      <c r="BR21" s="85"/>
+      <c r="BS21" s="85"/>
+      <c r="BT21" s="85"/>
+      <c r="BU21" s="85"/>
+      <c r="BV21" s="85"/>
+      <c r="BW21" s="85"/>
+      <c r="BX21" s="85"/>
+      <c r="BY21" s="85"/>
+      <c r="BZ21" s="85"/>
+      <c r="CA21" s="85"/>
+      <c r="CB21" s="85"/>
+      <c r="CC21" s="85"/>
+      <c r="CD21" s="85"/>
+      <c r="CE21" s="85"/>
+      <c r="CF21" s="85"/>
+      <c r="CG21" s="85"/>
+      <c r="CH21" s="85"/>
+      <c r="CI21" s="85"/>
+      <c r="CJ21" s="85"/>
+      <c r="CK21" s="85"/>
+      <c r="CL21" s="85"/>
+      <c r="CM21" s="85"/>
+      <c r="CN21" s="85"/>
+      <c r="CO21" s="85"/>
+      <c r="CP21" s="85"/>
+      <c r="CQ21" s="85"/>
+      <c r="CR21" s="85"/>
+      <c r="CS21" s="85"/>
+      <c r="CT21" s="85"/>
+      <c r="CU21" s="85"/>
     </row>
     <row r="22" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,18 +7148,18 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
       <c r="AD23" s="36" t="s">
         <v>97</v>
       </c>
@@ -6866,22 +7186,22 @@
       <c r="AY23" s="36"/>
       <c r="AZ23" s="36"/>
     </row>
-    <row r="24" s="85" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
+    <row r="24" s="89" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
       <c r="P24" s="10" t="s">
         <v>5</v>
       </c>
@@ -6978,22 +7298,22 @@
       <c r="AY25" s="36"/>
       <c r="AZ25" s="36"/>
     </row>
-    <row r="26" s="85" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="83"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
+    <row r="26" s="89" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="87"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
       <c r="P26" s="10" t="s">
         <v>5</v>
       </c>
@@ -7088,22 +7408,22 @@
       <c r="AY27" s="36"/>
       <c r="AZ27" s="36"/>
     </row>
-    <row r="28" s="85" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
+    <row r="28" s="89" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
       <c r="P28" s="10" t="s">
         <v>5</v>
       </c>
@@ -7198,22 +7518,22 @@
       <c r="AY29" s="36"/>
       <c r="AZ29" s="36"/>
     </row>
-    <row r="30" s="85" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
+    <row r="30" s="89" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
       <c r="P30" s="10" t="s">
         <v>5</v>
       </c>
@@ -7308,22 +7628,22 @@
       <c r="AY31" s="36"/>
       <c r="AZ31" s="36"/>
     </row>
-    <row r="32" s="85" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="84"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
+    <row r="32" s="89" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
       <c r="P32" s="10" t="s">
         <v>5</v>
       </c>
@@ -7418,22 +7738,22 @@
       <c r="AY33" s="36"/>
       <c r="AZ33" s="36"/>
     </row>
-    <row r="34" s="85" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="84"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
+    <row r="34" s="89" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
       <c r="P34" s="10" t="s">
         <v>5</v>
       </c>
@@ -7526,22 +7846,22 @@
       <c r="AY35" s="36"/>
       <c r="AZ35" s="36"/>
     </row>
-    <row r="36" s="85" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="84"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
+    <row r="36" s="89" customFormat="true" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="88"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="10" t="s">
         <v>5</v>
       </c>
@@ -7583,208 +7903,208 @@
       <c r="AZ36" s="37"/>
     </row>
     <row r="37" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="86"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="86"/>
-      <c r="W37" s="86"/>
-      <c r="X37" s="86"/>
-      <c r="Y37" s="86"/>
-      <c r="Z37" s="86"/>
-      <c r="AA37" s="86"/>
-      <c r="AB37" s="86"/>
-      <c r="AC37" s="86"/>
-      <c r="AD37" s="86"/>
-      <c r="AE37" s="86"/>
-      <c r="AF37" s="86"/>
-      <c r="AG37" s="86"/>
-      <c r="AH37" s="86"/>
-      <c r="AI37" s="86"/>
-      <c r="AJ37" s="86"/>
-      <c r="AK37" s="86"/>
-      <c r="AL37" s="86"/>
-      <c r="AM37" s="86"/>
-      <c r="AN37" s="86"/>
-      <c r="AO37" s="86"/>
-      <c r="AP37" s="86"/>
-      <c r="AQ37" s="86"/>
-      <c r="AR37" s="86"/>
-      <c r="AS37" s="86"/>
-      <c r="AT37" s="86"/>
-      <c r="AU37" s="86"/>
-      <c r="AV37" s="86"/>
-      <c r="AW37" s="86"/>
-      <c r="AX37" s="86"/>
-      <c r="AY37" s="86"/>
-      <c r="AZ37" s="86"/>
-      <c r="BA37" s="86"/>
-      <c r="BB37" s="86"/>
-      <c r="BC37" s="86"/>
-      <c r="BD37" s="86"/>
-      <c r="BE37" s="86"/>
-      <c r="BF37" s="86"/>
-      <c r="BG37" s="86"/>
-      <c r="BH37" s="86"/>
-      <c r="BI37" s="86"/>
-      <c r="BJ37" s="86"/>
-      <c r="BK37" s="86"/>
-      <c r="BL37" s="86"/>
-      <c r="BM37" s="86"/>
-      <c r="BN37" s="86"/>
-      <c r="BO37" s="86"/>
-      <c r="BP37" s="86"/>
-      <c r="BQ37" s="86"/>
-      <c r="BR37" s="86"/>
-      <c r="BS37" s="86"/>
-      <c r="BT37" s="86"/>
-      <c r="BU37" s="86"/>
-      <c r="BV37" s="86"/>
-      <c r="BW37" s="86"/>
-      <c r="BX37" s="86"/>
-      <c r="BY37" s="86"/>
-      <c r="BZ37" s="86"/>
-      <c r="CA37" s="86"/>
-      <c r="CB37" s="86"/>
-      <c r="CC37" s="86"/>
-      <c r="CD37" s="86"/>
-      <c r="CE37" s="86"/>
-      <c r="CF37" s="86"/>
-      <c r="CG37" s="86"/>
-      <c r="CH37" s="86"/>
-      <c r="CI37" s="86"/>
-      <c r="CJ37" s="86"/>
-      <c r="CK37" s="86"/>
-      <c r="CL37" s="86"/>
-      <c r="CM37" s="86"/>
-      <c r="CN37" s="86"/>
-      <c r="CO37" s="86"/>
-      <c r="CP37" s="86"/>
-      <c r="CQ37" s="86"/>
-      <c r="CR37" s="86"/>
-      <c r="CS37" s="86"/>
-      <c r="CT37" s="86"/>
-      <c r="CU37" s="86"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="90"/>
+      <c r="AE37" s="90"/>
+      <c r="AF37" s="90"/>
+      <c r="AG37" s="90"/>
+      <c r="AH37" s="90"/>
+      <c r="AI37" s="90"/>
+      <c r="AJ37" s="90"/>
+      <c r="AK37" s="90"/>
+      <c r="AL37" s="90"/>
+      <c r="AM37" s="90"/>
+      <c r="AN37" s="90"/>
+      <c r="AO37" s="90"/>
+      <c r="AP37" s="90"/>
+      <c r="AQ37" s="90"/>
+      <c r="AR37" s="90"/>
+      <c r="AS37" s="90"/>
+      <c r="AT37" s="90"/>
+      <c r="AU37" s="90"/>
+      <c r="AV37" s="90"/>
+      <c r="AW37" s="90"/>
+      <c r="AX37" s="90"/>
+      <c r="AY37" s="90"/>
+      <c r="AZ37" s="90"/>
+      <c r="BA37" s="90"/>
+      <c r="BB37" s="90"/>
+      <c r="BC37" s="90"/>
+      <c r="BD37" s="90"/>
+      <c r="BE37" s="90"/>
+      <c r="BF37" s="90"/>
+      <c r="BG37" s="90"/>
+      <c r="BH37" s="90"/>
+      <c r="BI37" s="90"/>
+      <c r="BJ37" s="90"/>
+      <c r="BK37" s="90"/>
+      <c r="BL37" s="90"/>
+      <c r="BM37" s="90"/>
+      <c r="BN37" s="90"/>
+      <c r="BO37" s="90"/>
+      <c r="BP37" s="90"/>
+      <c r="BQ37" s="90"/>
+      <c r="BR37" s="90"/>
+      <c r="BS37" s="90"/>
+      <c r="BT37" s="90"/>
+      <c r="BU37" s="90"/>
+      <c r="BV37" s="90"/>
+      <c r="BW37" s="90"/>
+      <c r="BX37" s="90"/>
+      <c r="BY37" s="90"/>
+      <c r="BZ37" s="90"/>
+      <c r="CA37" s="90"/>
+      <c r="CB37" s="90"/>
+      <c r="CC37" s="90"/>
+      <c r="CD37" s="90"/>
+      <c r="CE37" s="90"/>
+      <c r="CF37" s="90"/>
+      <c r="CG37" s="90"/>
+      <c r="CH37" s="90"/>
+      <c r="CI37" s="90"/>
+      <c r="CJ37" s="90"/>
+      <c r="CK37" s="90"/>
+      <c r="CL37" s="90"/>
+      <c r="CM37" s="90"/>
+      <c r="CN37" s="90"/>
+      <c r="CO37" s="90"/>
+      <c r="CP37" s="90"/>
+      <c r="CQ37" s="90"/>
+      <c r="CR37" s="90"/>
+      <c r="CS37" s="90"/>
+      <c r="CT37" s="90"/>
+      <c r="CU37" s="90"/>
     </row>
     <row r="38" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="87"/>
-      <c r="AA39" s="87"/>
-      <c r="AB39" s="87"/>
-      <c r="AC39" s="87"/>
-      <c r="AD39" s="87"/>
-      <c r="AE39" s="87"/>
-      <c r="AF39" s="87"/>
-      <c r="AG39" s="87"/>
-      <c r="AH39" s="87"/>
-      <c r="AI39" s="87"/>
-      <c r="AJ39" s="87"/>
-      <c r="AK39" s="87"/>
-      <c r="AL39" s="87"/>
-      <c r="AM39" s="87"/>
-      <c r="AN39" s="87"/>
-      <c r="AO39" s="87"/>
-      <c r="AP39" s="87"/>
-      <c r="AQ39" s="87"/>
-      <c r="AR39" s="87"/>
-      <c r="AS39" s="87"/>
-      <c r="BC39" s="87" t="s">
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="91"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="91"/>
+      <c r="W39" s="91"/>
+      <c r="X39" s="91"/>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="91"/>
+      <c r="AA39" s="91"/>
+      <c r="AB39" s="91"/>
+      <c r="AC39" s="91"/>
+      <c r="AD39" s="91"/>
+      <c r="AE39" s="91"/>
+      <c r="AF39" s="91"/>
+      <c r="AG39" s="91"/>
+      <c r="AH39" s="91"/>
+      <c r="AI39" s="91"/>
+      <c r="AJ39" s="91"/>
+      <c r="AK39" s="91"/>
+      <c r="AL39" s="91"/>
+      <c r="AM39" s="91"/>
+      <c r="AN39" s="91"/>
+      <c r="AO39" s="91"/>
+      <c r="AP39" s="91"/>
+      <c r="AQ39" s="91"/>
+      <c r="AR39" s="91"/>
+      <c r="AS39" s="91"/>
+      <c r="BC39" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="BD39" s="87"/>
-      <c r="BE39" s="87"/>
-      <c r="BF39" s="87"/>
-      <c r="BG39" s="87"/>
-      <c r="BH39" s="87"/>
-      <c r="BI39" s="87"/>
-      <c r="BJ39" s="87"/>
-      <c r="BK39" s="87"/>
-      <c r="BL39" s="87"/>
-      <c r="BM39" s="87"/>
-      <c r="BN39" s="87"/>
-      <c r="BO39" s="87"/>
-      <c r="BP39" s="87"/>
-      <c r="BQ39" s="87"/>
-      <c r="BR39" s="87"/>
-      <c r="BS39" s="87"/>
-      <c r="BT39" s="87"/>
-      <c r="BU39" s="87"/>
-      <c r="BV39" s="87"/>
-      <c r="BW39" s="87"/>
-      <c r="BX39" s="87"/>
-      <c r="BY39" s="87"/>
-      <c r="BZ39" s="87"/>
-      <c r="CA39" s="87"/>
-      <c r="CB39" s="87"/>
-      <c r="CC39" s="87"/>
-      <c r="CD39" s="87"/>
-      <c r="CE39" s="87"/>
-      <c r="CF39" s="87"/>
-      <c r="CG39" s="87"/>
-      <c r="CH39" s="87"/>
-      <c r="CI39" s="87"/>
-      <c r="CJ39" s="87"/>
-      <c r="CK39" s="87"/>
-      <c r="CL39" s="87"/>
-      <c r="CM39" s="87"/>
-      <c r="CN39" s="87"/>
-      <c r="CO39" s="87"/>
-      <c r="CP39" s="87"/>
-      <c r="CQ39" s="87"/>
-      <c r="CR39" s="87"/>
-      <c r="CS39" s="87"/>
-      <c r="CT39" s="87"/>
-      <c r="CU39" s="87"/>
+      <c r="BD39" s="91"/>
+      <c r="BE39" s="91"/>
+      <c r="BF39" s="91"/>
+      <c r="BG39" s="91"/>
+      <c r="BH39" s="91"/>
+      <c r="BI39" s="91"/>
+      <c r="BJ39" s="91"/>
+      <c r="BK39" s="91"/>
+      <c r="BL39" s="91"/>
+      <c r="BM39" s="91"/>
+      <c r="BN39" s="91"/>
+      <c r="BO39" s="91"/>
+      <c r="BP39" s="91"/>
+      <c r="BQ39" s="91"/>
+      <c r="BR39" s="91"/>
+      <c r="BS39" s="91"/>
+      <c r="BT39" s="91"/>
+      <c r="BU39" s="91"/>
+      <c r="BV39" s="91"/>
+      <c r="BW39" s="91"/>
+      <c r="BX39" s="91"/>
+      <c r="BY39" s="91"/>
+      <c r="BZ39" s="91"/>
+      <c r="CA39" s="91"/>
+      <c r="CB39" s="91"/>
+      <c r="CC39" s="91"/>
+      <c r="CD39" s="91"/>
+      <c r="CE39" s="91"/>
+      <c r="CF39" s="91"/>
+      <c r="CG39" s="91"/>
+      <c r="CH39" s="91"/>
+      <c r="CI39" s="91"/>
+      <c r="CJ39" s="91"/>
+      <c r="CK39" s="91"/>
+      <c r="CL39" s="91"/>
+      <c r="CM39" s="91"/>
+      <c r="CN39" s="91"/>
+      <c r="CO39" s="91"/>
+      <c r="CP39" s="91"/>
+      <c r="CQ39" s="91"/>
+      <c r="CR39" s="91"/>
+      <c r="CS39" s="91"/>
+      <c r="CT39" s="91"/>
+      <c r="CU39" s="91"/>
     </row>
     <row r="40" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="88"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -7828,215 +8148,215 @@
       <c r="AS40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="89"/>
-      <c r="T41" s="89"/>
-      <c r="U41" s="89"/>
-      <c r="V41" s="89"/>
-      <c r="W41" s="89"/>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="89"/>
-      <c r="AA41" s="89"/>
-      <c r="AB41" s="89"/>
-      <c r="AC41" s="89"/>
-      <c r="AD41" s="89"/>
-      <c r="AE41" s="90" t="s">
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="93"/>
+      <c r="Z41" s="93"/>
+      <c r="AA41" s="93"/>
+      <c r="AB41" s="93"/>
+      <c r="AC41" s="93"/>
+      <c r="AD41" s="93"/>
+      <c r="AE41" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="AF41" s="90"/>
-      <c r="AG41" s="90"/>
-      <c r="AH41" s="90"/>
-      <c r="AI41" s="90"/>
-      <c r="AJ41" s="90"/>
-      <c r="AK41" s="90"/>
-      <c r="AL41" s="90"/>
-      <c r="AM41" s="90"/>
-      <c r="AN41" s="90"/>
-      <c r="AO41" s="90"/>
-      <c r="AP41" s="90"/>
-      <c r="AQ41" s="90"/>
-      <c r="AR41" s="90"/>
-      <c r="AS41" s="90"/>
-      <c r="BC41" s="91" t="s">
+      <c r="AF41" s="94"/>
+      <c r="AG41" s="94"/>
+      <c r="AH41" s="94"/>
+      <c r="AI41" s="94"/>
+      <c r="AJ41" s="94"/>
+      <c r="AK41" s="94"/>
+      <c r="AL41" s="94"/>
+      <c r="AM41" s="94"/>
+      <c r="AN41" s="94"/>
+      <c r="AO41" s="94"/>
+      <c r="AP41" s="94"/>
+      <c r="AQ41" s="94"/>
+      <c r="AR41" s="94"/>
+      <c r="AS41" s="94"/>
+      <c r="BC41" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="BD41" s="91"/>
-      <c r="BE41" s="91"/>
-      <c r="BF41" s="91"/>
-      <c r="BG41" s="91"/>
-      <c r="BH41" s="91"/>
-      <c r="BI41" s="91"/>
-      <c r="BJ41" s="91"/>
-      <c r="BK41" s="91"/>
-      <c r="BL41" s="91"/>
-      <c r="BM41" s="91"/>
-      <c r="BN41" s="91"/>
-      <c r="BO41" s="91"/>
-      <c r="BP41" s="91"/>
-      <c r="BQ41" s="91"/>
-      <c r="BR41" s="91"/>
-      <c r="BS41" s="91"/>
-      <c r="BT41" s="91"/>
-      <c r="BU41" s="91"/>
-      <c r="BV41" s="91"/>
-      <c r="BW41" s="91"/>
-      <c r="BX41" s="91"/>
-      <c r="BY41" s="91"/>
-      <c r="BZ41" s="91"/>
-      <c r="CA41" s="91"/>
-      <c r="CB41" s="91"/>
-      <c r="CC41" s="91"/>
-      <c r="CD41" s="91"/>
-      <c r="CE41" s="91"/>
-      <c r="CF41" s="91"/>
-      <c r="CG41" s="91"/>
-      <c r="CH41" s="91"/>
-      <c r="CI41" s="91"/>
-      <c r="CJ41" s="91"/>
-      <c r="CK41" s="91"/>
-      <c r="CL41" s="91"/>
-      <c r="CM41" s="91"/>
-      <c r="CN41" s="91"/>
-      <c r="CO41" s="91"/>
-      <c r="CP41" s="91"/>
-      <c r="CQ41" s="91"/>
-      <c r="CR41" s="91"/>
-      <c r="CS41" s="91"/>
-      <c r="CT41" s="91"/>
-      <c r="CU41" s="91"/>
+      <c r="BD41" s="95"/>
+      <c r="BE41" s="95"/>
+      <c r="BF41" s="95"/>
+      <c r="BG41" s="95"/>
+      <c r="BH41" s="95"/>
+      <c r="BI41" s="95"/>
+      <c r="BJ41" s="95"/>
+      <c r="BK41" s="95"/>
+      <c r="BL41" s="95"/>
+      <c r="BM41" s="95"/>
+      <c r="BN41" s="95"/>
+      <c r="BO41" s="95"/>
+      <c r="BP41" s="95"/>
+      <c r="BQ41" s="95"/>
+      <c r="BR41" s="95"/>
+      <c r="BS41" s="95"/>
+      <c r="BT41" s="95"/>
+      <c r="BU41" s="95"/>
+      <c r="BV41" s="95"/>
+      <c r="BW41" s="95"/>
+      <c r="BX41" s="95"/>
+      <c r="BY41" s="95"/>
+      <c r="BZ41" s="95"/>
+      <c r="CA41" s="95"/>
+      <c r="CB41" s="95"/>
+      <c r="CC41" s="95"/>
+      <c r="CD41" s="95"/>
+      <c r="CE41" s="95"/>
+      <c r="CF41" s="95"/>
+      <c r="CG41" s="95"/>
+      <c r="CH41" s="95"/>
+      <c r="CI41" s="95"/>
+      <c r="CJ41" s="95"/>
+      <c r="CK41" s="95"/>
+      <c r="CL41" s="95"/>
+      <c r="CM41" s="95"/>
+      <c r="CN41" s="95"/>
+      <c r="CO41" s="95"/>
+      <c r="CP41" s="95"/>
+      <c r="CQ41" s="95"/>
+      <c r="CR41" s="95"/>
+      <c r="CS41" s="95"/>
+      <c r="CT41" s="95"/>
+      <c r="CU41" s="95"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="92" t="s">
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="92"/>
-      <c r="U42" s="92"/>
-      <c r="V42" s="92"/>
-      <c r="W42" s="92"/>
-      <c r="X42" s="92"/>
-      <c r="Y42" s="92"/>
-      <c r="Z42" s="92"/>
-      <c r="AA42" s="92"/>
-      <c r="AB42" s="92"/>
-      <c r="AC42" s="92"/>
-      <c r="AD42" s="92"/>
-      <c r="AE42" s="93"/>
-      <c r="AF42" s="93"/>
-      <c r="AG42" s="93"/>
-      <c r="AH42" s="93"/>
-      <c r="AI42" s="93"/>
-      <c r="AJ42" s="93"/>
-      <c r="AK42" s="93"/>
-      <c r="AL42" s="93"/>
-      <c r="AM42" s="93"/>
-      <c r="AN42" s="93"/>
-      <c r="AO42" s="93"/>
-      <c r="AP42" s="93"/>
-      <c r="AQ42" s="93"/>
-      <c r="AR42" s="93"/>
-      <c r="AS42" s="93"/>
-      <c r="BC42" s="91"/>
-      <c r="BD42" s="91"/>
-      <c r="BE42" s="91"/>
-      <c r="BF42" s="91"/>
-      <c r="BG42" s="91"/>
-      <c r="BH42" s="91"/>
-      <c r="BI42" s="91"/>
-      <c r="BJ42" s="91"/>
-      <c r="BK42" s="91"/>
-      <c r="BL42" s="91"/>
-      <c r="BM42" s="91"/>
-      <c r="BN42" s="91"/>
-      <c r="BO42" s="91"/>
-      <c r="BP42" s="91"/>
-      <c r="BQ42" s="91"/>
-      <c r="BR42" s="91"/>
-      <c r="BS42" s="91"/>
-      <c r="BT42" s="91"/>
-      <c r="BU42" s="91"/>
-      <c r="BV42" s="91"/>
-      <c r="BW42" s="91"/>
-      <c r="BX42" s="91"/>
-      <c r="BY42" s="91"/>
-      <c r="BZ42" s="91"/>
-      <c r="CA42" s="91"/>
-      <c r="CB42" s="91"/>
-      <c r="CC42" s="91"/>
-      <c r="CD42" s="91"/>
-      <c r="CE42" s="91"/>
-      <c r="CF42" s="91"/>
-      <c r="CG42" s="91"/>
-      <c r="CH42" s="91"/>
-      <c r="CI42" s="91"/>
-      <c r="CJ42" s="91"/>
-      <c r="CK42" s="91"/>
-      <c r="CL42" s="91"/>
-      <c r="CM42" s="91"/>
-      <c r="CN42" s="91"/>
-      <c r="CO42" s="91"/>
-      <c r="CP42" s="91"/>
-      <c r="CQ42" s="91"/>
-      <c r="CR42" s="91"/>
-      <c r="CS42" s="91"/>
-      <c r="CT42" s="91"/>
-      <c r="CU42" s="91"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="96"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="96"/>
+      <c r="W42" s="96"/>
+      <c r="X42" s="96"/>
+      <c r="Y42" s="96"/>
+      <c r="Z42" s="96"/>
+      <c r="AA42" s="96"/>
+      <c r="AB42" s="96"/>
+      <c r="AC42" s="96"/>
+      <c r="AD42" s="96"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="97"/>
+      <c r="AG42" s="97"/>
+      <c r="AH42" s="97"/>
+      <c r="AI42" s="97"/>
+      <c r="AJ42" s="97"/>
+      <c r="AK42" s="97"/>
+      <c r="AL42" s="97"/>
+      <c r="AM42" s="97"/>
+      <c r="AN42" s="97"/>
+      <c r="AO42" s="97"/>
+      <c r="AP42" s="97"/>
+      <c r="AQ42" s="97"/>
+      <c r="AR42" s="97"/>
+      <c r="AS42" s="97"/>
+      <c r="BC42" s="95"/>
+      <c r="BD42" s="95"/>
+      <c r="BE42" s="95"/>
+      <c r="BF42" s="95"/>
+      <c r="BG42" s="95"/>
+      <c r="BH42" s="95"/>
+      <c r="BI42" s="95"/>
+      <c r="BJ42" s="95"/>
+      <c r="BK42" s="95"/>
+      <c r="BL42" s="95"/>
+      <c r="BM42" s="95"/>
+      <c r="BN42" s="95"/>
+      <c r="BO42" s="95"/>
+      <c r="BP42" s="95"/>
+      <c r="BQ42" s="95"/>
+      <c r="BR42" s="95"/>
+      <c r="BS42" s="95"/>
+      <c r="BT42" s="95"/>
+      <c r="BU42" s="95"/>
+      <c r="BV42" s="95"/>
+      <c r="BW42" s="95"/>
+      <c r="BX42" s="95"/>
+      <c r="BY42" s="95"/>
+      <c r="BZ42" s="95"/>
+      <c r="CA42" s="95"/>
+      <c r="CB42" s="95"/>
+      <c r="CC42" s="95"/>
+      <c r="CD42" s="95"/>
+      <c r="CE42" s="95"/>
+      <c r="CF42" s="95"/>
+      <c r="CG42" s="95"/>
+      <c r="CH42" s="95"/>
+      <c r="CI42" s="95"/>
+      <c r="CJ42" s="95"/>
+      <c r="CK42" s="95"/>
+      <c r="CL42" s="95"/>
+      <c r="CM42" s="95"/>
+      <c r="CN42" s="95"/>
+      <c r="CO42" s="95"/>
+      <c r="CP42" s="95"/>
+      <c r="CQ42" s="95"/>
+      <c r="CR42" s="95"/>
+      <c r="CS42" s="95"/>
+      <c r="CT42" s="95"/>
+      <c r="CU42" s="95"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="69"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
       <c r="P43" s="63"/>
       <c r="Q43" s="63"/>
       <c r="R43" s="63"/>
@@ -8052,87 +8372,87 @@
       <c r="AB43" s="63"/>
       <c r="AC43" s="63"/>
       <c r="AD43" s="63"/>
-      <c r="AE43" s="94"/>
-      <c r="AF43" s="94"/>
-      <c r="AG43" s="94"/>
-      <c r="AH43" s="94"/>
-      <c r="AI43" s="94"/>
-      <c r="AJ43" s="94"/>
-      <c r="AK43" s="94"/>
-      <c r="AL43" s="94"/>
-      <c r="AM43" s="94"/>
-      <c r="AN43" s="94"/>
-      <c r="AO43" s="94"/>
-      <c r="AP43" s="94"/>
-      <c r="AQ43" s="94"/>
-      <c r="AR43" s="94"/>
-      <c r="AS43" s="94"/>
-      <c r="BC43" s="95" t="s">
+      <c r="AE43" s="98"/>
+      <c r="AF43" s="98"/>
+      <c r="AG43" s="98"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="98"/>
+      <c r="AJ43" s="98"/>
+      <c r="AK43" s="98"/>
+      <c r="AL43" s="98"/>
+      <c r="AM43" s="98"/>
+      <c r="AN43" s="98"/>
+      <c r="AO43" s="98"/>
+      <c r="AP43" s="98"/>
+      <c r="AQ43" s="98"/>
+      <c r="AR43" s="98"/>
+      <c r="AS43" s="98"/>
+      <c r="BC43" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="BD43" s="95"/>
-      <c r="BE43" s="95"/>
-      <c r="BF43" s="95"/>
-      <c r="BG43" s="95"/>
-      <c r="BH43" s="95"/>
-      <c r="BI43" s="95"/>
-      <c r="BJ43" s="95"/>
-      <c r="BK43" s="95"/>
-      <c r="BL43" s="95"/>
-      <c r="BM43" s="95"/>
-      <c r="BN43" s="95"/>
-      <c r="BO43" s="95"/>
-      <c r="BP43" s="95"/>
-      <c r="BQ43" s="95"/>
-      <c r="BR43" s="95"/>
-      <c r="BS43" s="95"/>
-      <c r="BT43" s="95"/>
-      <c r="BU43" s="95"/>
-      <c r="BV43" s="95"/>
-      <c r="BW43" s="95"/>
-      <c r="BX43" s="95"/>
-      <c r="BY43" s="95"/>
-      <c r="BZ43" s="96" t="s">
+      <c r="BD43" s="99"/>
+      <c r="BE43" s="99"/>
+      <c r="BF43" s="99"/>
+      <c r="BG43" s="99"/>
+      <c r="BH43" s="99"/>
+      <c r="BI43" s="99"/>
+      <c r="BJ43" s="99"/>
+      <c r="BK43" s="99"/>
+      <c r="BL43" s="99"/>
+      <c r="BM43" s="99"/>
+      <c r="BN43" s="99"/>
+      <c r="BO43" s="99"/>
+      <c r="BP43" s="99"/>
+      <c r="BQ43" s="99"/>
+      <c r="BR43" s="99"/>
+      <c r="BS43" s="99"/>
+      <c r="BT43" s="99"/>
+      <c r="BU43" s="99"/>
+      <c r="BV43" s="99"/>
+      <c r="BW43" s="99"/>
+      <c r="BX43" s="99"/>
+      <c r="BY43" s="99"/>
+      <c r="BZ43" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="CA43" s="96"/>
-      <c r="CB43" s="96"/>
-      <c r="CC43" s="96"/>
-      <c r="CD43" s="96"/>
-      <c r="CE43" s="96"/>
-      <c r="CF43" s="96"/>
-      <c r="CG43" s="96"/>
-      <c r="CH43" s="96"/>
-      <c r="CI43" s="96"/>
-      <c r="CJ43" s="96"/>
-      <c r="CK43" s="96"/>
-      <c r="CL43" s="96"/>
-      <c r="CM43" s="96"/>
-      <c r="CN43" s="96"/>
-      <c r="CO43" s="96"/>
-      <c r="CP43" s="96"/>
-      <c r="CQ43" s="96"/>
-      <c r="CR43" s="96"/>
-      <c r="CS43" s="96"/>
-      <c r="CT43" s="96"/>
-      <c r="CU43" s="96"/>
+      <c r="CA43" s="100"/>
+      <c r="CB43" s="100"/>
+      <c r="CC43" s="100"/>
+      <c r="CD43" s="100"/>
+      <c r="CE43" s="100"/>
+      <c r="CF43" s="100"/>
+      <c r="CG43" s="100"/>
+      <c r="CH43" s="100"/>
+      <c r="CI43" s="100"/>
+      <c r="CJ43" s="100"/>
+      <c r="CK43" s="100"/>
+      <c r="CL43" s="100"/>
+      <c r="CM43" s="100"/>
+      <c r="CN43" s="100"/>
+      <c r="CO43" s="100"/>
+      <c r="CP43" s="100"/>
+      <c r="CQ43" s="100"/>
+      <c r="CR43" s="100"/>
+      <c r="CS43" s="100"/>
+      <c r="CT43" s="100"/>
+      <c r="CU43" s="100"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="69"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
       <c r="P44" s="63"/>
       <c r="Q44" s="63"/>
       <c r="R44" s="63"/>
@@ -8148,120 +8468,120 @@
       <c r="AB44" s="63"/>
       <c r="AC44" s="63"/>
       <c r="AD44" s="63"/>
-      <c r="AE44" s="94"/>
-      <c r="AF44" s="94"/>
-      <c r="AG44" s="94"/>
-      <c r="AH44" s="94"/>
-      <c r="AI44" s="94"/>
-      <c r="AJ44" s="94"/>
-      <c r="AK44" s="94"/>
-      <c r="AL44" s="94"/>
-      <c r="AM44" s="94"/>
-      <c r="AN44" s="94"/>
-      <c r="AO44" s="94"/>
-      <c r="AP44" s="94"/>
-      <c r="AQ44" s="94"/>
-      <c r="AR44" s="94"/>
-      <c r="AS44" s="94"/>
-      <c r="BC44" s="95" t="s">
+      <c r="AE44" s="98"/>
+      <c r="AF44" s="98"/>
+      <c r="AG44" s="98"/>
+      <c r="AH44" s="98"/>
+      <c r="AI44" s="98"/>
+      <c r="AJ44" s="98"/>
+      <c r="AK44" s="98"/>
+      <c r="AL44" s="98"/>
+      <c r="AM44" s="98"/>
+      <c r="AN44" s="98"/>
+      <c r="AO44" s="98"/>
+      <c r="AP44" s="98"/>
+      <c r="AQ44" s="98"/>
+      <c r="AR44" s="98"/>
+      <c r="AS44" s="98"/>
+      <c r="BC44" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="BD44" s="95"/>
-      <c r="BE44" s="95"/>
-      <c r="BF44" s="95"/>
-      <c r="BG44" s="95"/>
-      <c r="BH44" s="95"/>
-      <c r="BI44" s="95"/>
-      <c r="BJ44" s="95"/>
-      <c r="BK44" s="95"/>
-      <c r="BL44" s="95"/>
-      <c r="BM44" s="95"/>
-      <c r="BN44" s="95"/>
-      <c r="BO44" s="95"/>
-      <c r="BP44" s="95"/>
-      <c r="BQ44" s="95"/>
-      <c r="BR44" s="95"/>
-      <c r="BS44" s="95"/>
-      <c r="BT44" s="95"/>
-      <c r="BU44" s="95"/>
-      <c r="BV44" s="95"/>
-      <c r="BW44" s="95"/>
-      <c r="BX44" s="95"/>
-      <c r="BY44" s="95"/>
-      <c r="BZ44" s="96" t="n">
+      <c r="BD44" s="99"/>
+      <c r="BE44" s="99"/>
+      <c r="BF44" s="99"/>
+      <c r="BG44" s="99"/>
+      <c r="BH44" s="99"/>
+      <c r="BI44" s="99"/>
+      <c r="BJ44" s="99"/>
+      <c r="BK44" s="99"/>
+      <c r="BL44" s="99"/>
+      <c r="BM44" s="99"/>
+      <c r="BN44" s="99"/>
+      <c r="BO44" s="99"/>
+      <c r="BP44" s="99"/>
+      <c r="BQ44" s="99"/>
+      <c r="BR44" s="99"/>
+      <c r="BS44" s="99"/>
+      <c r="BT44" s="99"/>
+      <c r="BU44" s="99"/>
+      <c r="BV44" s="99"/>
+      <c r="BW44" s="99"/>
+      <c r="BX44" s="99"/>
+      <c r="BY44" s="99"/>
+      <c r="BZ44" s="100" t="n">
         <v>2</v>
       </c>
-      <c r="CA44" s="96"/>
-      <c r="CB44" s="96"/>
-      <c r="CC44" s="96"/>
-      <c r="CD44" s="96"/>
-      <c r="CE44" s="96"/>
-      <c r="CF44" s="96"/>
-      <c r="CG44" s="96"/>
-      <c r="CH44" s="96"/>
-      <c r="CI44" s="96"/>
-      <c r="CJ44" s="96"/>
-      <c r="CK44" s="96"/>
-      <c r="CL44" s="96"/>
-      <c r="CM44" s="96"/>
-      <c r="CN44" s="96"/>
-      <c r="CO44" s="96"/>
-      <c r="CP44" s="96"/>
-      <c r="CQ44" s="96"/>
-      <c r="CR44" s="96"/>
-      <c r="CS44" s="96"/>
-      <c r="CT44" s="96"/>
-      <c r="CU44" s="96"/>
+      <c r="CA44" s="100"/>
+      <c r="CB44" s="100"/>
+      <c r="CC44" s="100"/>
+      <c r="CD44" s="100"/>
+      <c r="CE44" s="100"/>
+      <c r="CF44" s="100"/>
+      <c r="CG44" s="100"/>
+      <c r="CH44" s="100"/>
+      <c r="CI44" s="100"/>
+      <c r="CJ44" s="100"/>
+      <c r="CK44" s="100"/>
+      <c r="CL44" s="100"/>
+      <c r="CM44" s="100"/>
+      <c r="CN44" s="100"/>
+      <c r="CO44" s="100"/>
+      <c r="CP44" s="100"/>
+      <c r="CQ44" s="100"/>
+      <c r="CR44" s="100"/>
+      <c r="CS44" s="100"/>
+      <c r="CT44" s="100"/>
+      <c r="CU44" s="100"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="BC45" s="69"/>
-      <c r="BD45" s="69"/>
-      <c r="BE45" s="69"/>
-      <c r="BF45" s="69"/>
-      <c r="BG45" s="69"/>
-      <c r="BH45" s="69"/>
-      <c r="BI45" s="69"/>
-      <c r="BJ45" s="69"/>
-      <c r="BK45" s="69"/>
-      <c r="BL45" s="69"/>
-      <c r="BM45" s="69"/>
-      <c r="BN45" s="69"/>
-      <c r="BO45" s="69"/>
-      <c r="BP45" s="69"/>
-      <c r="BQ45" s="69"/>
-      <c r="BR45" s="69"/>
-      <c r="BS45" s="69"/>
-      <c r="BT45" s="69"/>
-      <c r="BU45" s="69"/>
-      <c r="BV45" s="69"/>
-      <c r="BW45" s="69"/>
-      <c r="BX45" s="69"/>
-      <c r="BY45" s="69"/>
-      <c r="BZ45" s="68"/>
-      <c r="CA45" s="68"/>
-      <c r="CB45" s="68"/>
-      <c r="CC45" s="68"/>
-      <c r="CD45" s="68"/>
-      <c r="CE45" s="68"/>
-      <c r="CF45" s="68"/>
-      <c r="CG45" s="68"/>
-      <c r="CH45" s="68"/>
-      <c r="CI45" s="68"/>
-      <c r="CJ45" s="68"/>
-      <c r="CK45" s="68"/>
-      <c r="CL45" s="68"/>
-      <c r="CM45" s="68"/>
-      <c r="CN45" s="68"/>
-      <c r="CO45" s="68"/>
-      <c r="CP45" s="68"/>
-      <c r="CQ45" s="68"/>
-      <c r="CR45" s="68"/>
-      <c r="CS45" s="68"/>
-      <c r="CT45" s="68"/>
-      <c r="CU45" s="68"/>
+      <c r="BC45" s="71"/>
+      <c r="BD45" s="71"/>
+      <c r="BE45" s="71"/>
+      <c r="BF45" s="71"/>
+      <c r="BG45" s="71"/>
+      <c r="BH45" s="71"/>
+      <c r="BI45" s="71"/>
+      <c r="BJ45" s="71"/>
+      <c r="BK45" s="71"/>
+      <c r="BL45" s="71"/>
+      <c r="BM45" s="71"/>
+      <c r="BN45" s="71"/>
+      <c r="BO45" s="71"/>
+      <c r="BP45" s="71"/>
+      <c r="BQ45" s="71"/>
+      <c r="BR45" s="71"/>
+      <c r="BS45" s="71"/>
+      <c r="BT45" s="71"/>
+      <c r="BU45" s="71"/>
+      <c r="BV45" s="71"/>
+      <c r="BW45" s="71"/>
+      <c r="BX45" s="71"/>
+      <c r="BY45" s="71"/>
+      <c r="BZ45" s="70"/>
+      <c r="CA45" s="70"/>
+      <c r="CB45" s="70"/>
+      <c r="CC45" s="70"/>
+      <c r="CD45" s="70"/>
+      <c r="CE45" s="70"/>
+      <c r="CF45" s="70"/>
+      <c r="CG45" s="70"/>
+      <c r="CH45" s="70"/>
+      <c r="CI45" s="70"/>
+      <c r="CJ45" s="70"/>
+      <c r="CK45" s="70"/>
+      <c r="CL45" s="70"/>
+      <c r="CM45" s="70"/>
+      <c r="CN45" s="70"/>
+      <c r="CO45" s="70"/>
+      <c r="CP45" s="70"/>
+      <c r="CQ45" s="70"/>
+      <c r="CR45" s="70"/>
+      <c r="CS45" s="70"/>
+      <c r="CT45" s="70"/>
+      <c r="CU45" s="70"/>
     </row>
     <row r="46" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8353,14 +8673,14 @@
       <c r="CU47" s="36"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
+      <c r="A48" s="89"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
       <c r="I48" s="10" t="s">
         <v>117</v>
       </c>
@@ -8373,7 +8693,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="85"/>
+      <c r="S48" s="89"/>
       <c r="T48" s="10" t="s">
         <v>5</v>
       </c>
@@ -8386,7 +8706,7 @@
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
-      <c r="AD48" s="98"/>
+      <c r="AD48" s="102"/>
       <c r="AE48" s="37" t="s">
         <v>6</v>
       </c>
@@ -8419,7 +8739,7 @@
       <c r="BS48" s="10"/>
       <c r="BT48" s="10"/>
       <c r="BU48" s="10"/>
-      <c r="BV48" s="85"/>
+      <c r="BV48" s="89"/>
       <c r="BW48" s="10" t="s">
         <v>5</v>
       </c>
@@ -8432,7 +8752,7 @@
       <c r="CD48" s="10"/>
       <c r="CE48" s="10"/>
       <c r="CF48" s="10"/>
-      <c r="CG48" s="98"/>
+      <c r="CG48" s="102"/>
       <c r="CH48" s="37" t="s">
         <v>6</v>
       </c>
